--- a/data/134/DEUSTATIS/old/National accounts - Deflators quarters.xlsx
+++ b/data/134/DEUSTATIS/old/National accounts - Deflators quarters.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="80">
   <si>
     <t>National accounts - Deflators: Germany, quarters, original and adjusted data, use of the gross domestic product</t>
   </si>
@@ -252,7 +252,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 09:50:12</t>
+    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 09:53:31</t>
   </si>
 </sst>
 </file>
@@ -3880,13 +3880,13 @@
         <v>109.6</v>
       </c>
       <c r="DS8" t="n" s="10">
-        <v>110.16</v>
+        <v>110.0</v>
       </c>
       <c r="DT8" t="n" s="10">
-        <v>110.25</v>
-      </c>
-      <c r="DU8" t="s" s="10">
-        <v>43</v>
+        <v>110.18</v>
+      </c>
+      <c r="DU8" t="n" s="10">
+        <v>113.07</v>
       </c>
       <c r="DV8" t="s" s="10">
         <v>43</v>
@@ -4260,13 +4260,13 @@
         <v>108.92</v>
       </c>
       <c r="DS9" t="n" s="10">
-        <v>109.62</v>
+        <v>109.45</v>
       </c>
       <c r="DT9" t="n" s="10">
-        <v>110.09</v>
-      </c>
-      <c r="DU9" t="s" s="10">
-        <v>43</v>
+        <v>110.1</v>
+      </c>
+      <c r="DU9" t="n" s="10">
+        <v>113.14</v>
       </c>
       <c r="DV9" t="s" s="10">
         <v>43</v>
@@ -4640,13 +4640,13 @@
         <v>108.88</v>
       </c>
       <c r="DS10" t="n" s="10">
-        <v>108.71</v>
+        <v>108.69</v>
       </c>
       <c r="DT10" t="n" s="10">
-        <v>109.45</v>
-      </c>
-      <c r="DU10" t="s" s="10">
-        <v>43</v>
+        <v>109.46</v>
+      </c>
+      <c r="DU10" t="n" s="10">
+        <v>110.88</v>
       </c>
       <c r="DV10" t="s" s="10">
         <v>43</v>
@@ -5020,13 +5020,13 @@
         <v>105.63</v>
       </c>
       <c r="DS11" t="n" s="10">
-        <v>107.44</v>
+        <v>107.45</v>
       </c>
       <c r="DT11" t="n" s="10">
-        <v>108.63</v>
-      </c>
-      <c r="DU11" t="s" s="10">
-        <v>43</v>
+        <v>108.51</v>
+      </c>
+      <c r="DU11" t="n" s="10">
+        <v>109.35</v>
       </c>
       <c r="DV11" t="s" s="10">
         <v>43</v>
@@ -5400,13 +5400,13 @@
         <v>116.71</v>
       </c>
       <c r="DS12" t="n" s="10">
-        <v>111.93</v>
+        <v>111.89</v>
       </c>
       <c r="DT12" t="n" s="10">
-        <v>111.64</v>
-      </c>
-      <c r="DU12" t="s" s="10">
-        <v>43</v>
+        <v>111.97</v>
+      </c>
+      <c r="DU12" t="n" s="10">
+        <v>114.69</v>
       </c>
       <c r="DV12" t="s" s="10">
         <v>43</v>
@@ -5780,13 +5780,13 @@
         <v>108.85</v>
       </c>
       <c r="DS13" t="n" s="10">
-        <v>112.64</v>
+        <v>111.95</v>
       </c>
       <c r="DT13" t="n" s="10">
-        <v>112.2</v>
-      </c>
-      <c r="DU13" t="s" s="10">
-        <v>43</v>
+        <v>112.19</v>
+      </c>
+      <c r="DU13" t="n" s="10">
+        <v>120.8</v>
       </c>
       <c r="DV13" t="s" s="10">
         <v>43</v>
@@ -6160,13 +6160,13 @@
         <v>110.71</v>
       </c>
       <c r="DS14" t="n" s="10">
-        <v>112.56</v>
+        <v>112.55</v>
       </c>
       <c r="DT14" t="n" s="10">
-        <v>114.77</v>
-      </c>
-      <c r="DU14" t="s" s="10">
-        <v>43</v>
+        <v>114.79</v>
+      </c>
+      <c r="DU14" t="n" s="10">
+        <v>118.24</v>
       </c>
       <c r="DV14" t="s" s="10">
         <v>43</v>
@@ -6540,13 +6540,13 @@
         <v>104.29</v>
       </c>
       <c r="DS15" t="n" s="10">
-        <v>105.41</v>
+        <v>105.38</v>
       </c>
       <c r="DT15" t="n" s="10">
-        <v>106.1</v>
-      </c>
-      <c r="DU15" t="s" s="10">
-        <v>43</v>
+        <v>106.06</v>
+      </c>
+      <c r="DU15" t="n" s="10">
+        <v>106.52</v>
       </c>
       <c r="DV15" t="s" s="10">
         <v>43</v>
@@ -6925,8 +6925,8 @@
       <c r="DT16" t="n" s="10">
         <v>123.79</v>
       </c>
-      <c r="DU16" t="s" s="10">
-        <v>43</v>
+      <c r="DU16" t="n" s="10">
+        <v>130.22</v>
       </c>
       <c r="DV16" t="s" s="10">
         <v>43</v>
@@ -7303,10 +7303,10 @@
         <v>107.35</v>
       </c>
       <c r="DT17" t="n" s="10">
-        <v>107.36</v>
-      </c>
-      <c r="DU17" t="s" s="10">
-        <v>43</v>
+        <v>107.37</v>
+      </c>
+      <c r="DU17" t="n" s="10">
+        <v>107.41</v>
       </c>
       <c r="DV17" t="s" s="10">
         <v>43</v>
@@ -7680,13 +7680,13 @@
         <v>102.7</v>
       </c>
       <c r="DS18" t="n" s="10">
-        <v>102.2</v>
+        <v>102.21</v>
       </c>
       <c r="DT18" t="n" s="10">
-        <v>101.09</v>
-      </c>
-      <c r="DU18" t="s" s="10">
-        <v>43</v>
+        <v>100.92</v>
+      </c>
+      <c r="DU18" t="n" s="10">
+        <v>100.58</v>
       </c>
       <c r="DV18" t="s" s="10">
         <v>43</v>
@@ -8063,10 +8063,10 @@
         <v>103.58</v>
       </c>
       <c r="DT19" t="n" s="10">
-        <v>106.07</v>
-      </c>
-      <c r="DU19" t="s" s="10">
-        <v>43</v>
+        <v>106.08</v>
+      </c>
+      <c r="DU19" t="n" s="10">
+        <v>109.2</v>
       </c>
       <c r="DV19" t="s" s="10">
         <v>43</v>
@@ -8440,13 +8440,13 @@
         <v>100.86</v>
       </c>
       <c r="DS20" t="n" s="10">
-        <v>101.85</v>
+        <v>101.84</v>
       </c>
       <c r="DT20" t="n" s="10">
-        <v>103.93</v>
-      </c>
-      <c r="DU20" t="s" s="10">
-        <v>43</v>
+        <v>103.92</v>
+      </c>
+      <c r="DU20" t="n" s="10">
+        <v>106.68</v>
       </c>
       <c r="DV20" t="s" s="10">
         <v>43</v>
@@ -8820,13 +8820,13 @@
         <v>108.63</v>
       </c>
       <c r="DS21" t="n" s="10">
-        <v>112.0</v>
+        <v>112.01</v>
       </c>
       <c r="DT21" t="n" s="10">
-        <v>116.51</v>
-      </c>
-      <c r="DU21" t="s" s="10">
-        <v>43</v>
+        <v>116.55</v>
+      </c>
+      <c r="DU21" t="n" s="10">
+        <v>120.98</v>
       </c>
       <c r="DV21" t="s" s="10">
         <v>43</v>
@@ -9200,13 +9200,13 @@
         <v>99.56</v>
       </c>
       <c r="DS22" t="n" s="10">
-        <v>101.35</v>
+        <v>101.34</v>
       </c>
       <c r="DT22" t="n" s="10">
-        <v>104.93</v>
-      </c>
-      <c r="DU22" t="s" s="10">
-        <v>43</v>
+        <v>105.11</v>
+      </c>
+      <c r="DU22" t="n" s="10">
+        <v>108.57</v>
       </c>
       <c r="DV22" t="s" s="10">
         <v>43</v>
@@ -9580,13 +9580,13 @@
         <v>97.62</v>
       </c>
       <c r="DS23" t="n" s="10">
-        <v>99.63</v>
+        <v>99.58</v>
       </c>
       <c r="DT23" t="n" s="10">
-        <v>103.55</v>
-      </c>
-      <c r="DU23" t="s" s="10">
-        <v>43</v>
+        <v>103.72</v>
+      </c>
+      <c r="DU23" t="n" s="10">
+        <v>108.13</v>
       </c>
       <c r="DV23" t="s" s="10">
         <v>43</v>
@@ -9960,13 +9960,13 @@
         <v>107.26</v>
       </c>
       <c r="DS24" t="n" s="10">
-        <v>107.7</v>
+        <v>107.8</v>
       </c>
       <c r="DT24" t="n" s="10">
-        <v>109.63</v>
-      </c>
-      <c r="DU24" t="s" s="10">
-        <v>43</v>
+        <v>109.85</v>
+      </c>
+      <c r="DU24" t="n" s="10">
+        <v>110.81</v>
       </c>
       <c r="DV24" t="s" s="10">
         <v>43</v>
@@ -10345,13 +10345,13 @@
         <v>108.78</v>
       </c>
       <c r="DS26" t="n" s="10">
-        <v>110.73</v>
+        <v>110.57</v>
       </c>
       <c r="DT26" t="n" s="10">
-        <v>110.47</v>
-      </c>
-      <c r="DU26" t="s" s="10">
-        <v>43</v>
+        <v>110.4</v>
+      </c>
+      <c r="DU26" t="n" s="10">
+        <v>113.11</v>
       </c>
       <c r="DV26" t="s" s="10">
         <v>43</v>
@@ -10725,13 +10725,13 @@
         <v>108.16</v>
       </c>
       <c r="DS27" t="n" s="10">
-        <v>110.27</v>
+        <v>110.1</v>
       </c>
       <c r="DT27" t="n" s="10">
-        <v>110.25</v>
-      </c>
-      <c r="DU27" t="s" s="10">
-        <v>43</v>
+        <v>110.24</v>
+      </c>
+      <c r="DU27" t="n" s="10">
+        <v>113.16</v>
       </c>
       <c r="DV27" t="s" s="10">
         <v>43</v>
@@ -10784,10 +10784,10 @@
         <v>78.92</v>
       </c>
       <c r="P28" t="n" s="10">
-        <v>78.73</v>
+        <v>78.74</v>
       </c>
       <c r="Q28" t="n" s="10">
-        <v>79.25</v>
+        <v>79.26</v>
       </c>
       <c r="R28" t="n" s="10">
         <v>79.54</v>
@@ -10796,7 +10796,7 @@
         <v>79.87</v>
       </c>
       <c r="T28" t="n" s="10">
-        <v>80.15</v>
+        <v>80.14</v>
       </c>
       <c r="U28" t="n" s="10">
         <v>80.54</v>
@@ -10805,10 +10805,10 @@
         <v>80.62</v>
       </c>
       <c r="W28" t="n" s="10">
-        <v>80.64</v>
+        <v>80.65</v>
       </c>
       <c r="X28" t="n" s="10">
-        <v>80.62</v>
+        <v>80.63</v>
       </c>
       <c r="Y28" t="n" s="10">
         <v>80.72</v>
@@ -10817,10 +10817,10 @@
         <v>80.93</v>
       </c>
       <c r="AA28" t="n" s="10">
-        <v>81.13</v>
+        <v>81.14</v>
       </c>
       <c r="AB28" t="n" s="10">
-        <v>81.0</v>
+        <v>80.98</v>
       </c>
       <c r="AC28" t="n" s="10">
         <v>81.32</v>
@@ -10829,10 +10829,10 @@
         <v>81.57</v>
       </c>
       <c r="AE28" t="n" s="10">
-        <v>80.97</v>
+        <v>80.96</v>
       </c>
       <c r="AF28" t="n" s="10">
-        <v>81.16</v>
+        <v>81.15</v>
       </c>
       <c r="AG28" t="n" s="10">
         <v>81.29</v>
@@ -10847,16 +10847,16 @@
         <v>82.06</v>
       </c>
       <c r="AK28" t="n" s="10">
-        <v>82.15</v>
+        <v>82.16</v>
       </c>
       <c r="AL28" t="n" s="10">
-        <v>82.01</v>
+        <v>82.02</v>
       </c>
       <c r="AM28" t="n" s="10">
-        <v>82.19</v>
+        <v>82.2</v>
       </c>
       <c r="AN28" t="n" s="10">
-        <v>82.13</v>
+        <v>82.11</v>
       </c>
       <c r="AO28" t="n" s="10">
         <v>82.55</v>
@@ -10868,7 +10868,7 @@
         <v>83.56</v>
       </c>
       <c r="AR28" t="n" s="10">
-        <v>83.92</v>
+        <v>83.91</v>
       </c>
       <c r="AS28" t="n" s="10">
         <v>84.27</v>
@@ -10877,7 +10877,7 @@
         <v>84.86</v>
       </c>
       <c r="AU28" t="n" s="10">
-        <v>85.08</v>
+        <v>85.07</v>
       </c>
       <c r="AV28" t="n" s="10">
         <v>85.13</v>
@@ -10886,22 +10886,22 @@
         <v>85.28</v>
       </c>
       <c r="AX28" t="n" s="10">
-        <v>85.61</v>
+        <v>85.62</v>
       </c>
       <c r="AY28" t="n" s="10">
         <v>86.27</v>
       </c>
       <c r="AZ28" t="n" s="10">
-        <v>86.03</v>
+        <v>86.04</v>
       </c>
       <c r="BA28" t="n" s="10">
-        <v>86.48</v>
+        <v>86.47</v>
       </c>
       <c r="BB28" t="n" s="10">
         <v>86.39</v>
       </c>
       <c r="BC28" t="n" s="10">
-        <v>86.63</v>
+        <v>86.64</v>
       </c>
       <c r="BD28" t="n" s="10">
         <v>87.04</v>
@@ -10913,7 +10913,7 @@
         <v>87.27</v>
       </c>
       <c r="BG28" t="n" s="10">
-        <v>87.46</v>
+        <v>87.47</v>
       </c>
       <c r="BH28" t="n" s="10">
         <v>87.53</v>
@@ -10931,7 +10931,7 @@
         <v>88.72</v>
       </c>
       <c r="BM28" t="n" s="10">
-        <v>88.81</v>
+        <v>88.8</v>
       </c>
       <c r="BN28" t="n" s="10">
         <v>89.09</v>
@@ -10940,7 +10940,7 @@
         <v>89.53</v>
       </c>
       <c r="BP28" t="n" s="10">
-        <v>89.81</v>
+        <v>89.82</v>
       </c>
       <c r="BQ28" t="n" s="10">
         <v>90.24</v>
@@ -11018,13 +11018,13 @@
         <v>98.3</v>
       </c>
       <c r="CP28" t="n" s="10">
-        <v>98.67</v>
+        <v>98.66</v>
       </c>
       <c r="CQ28" t="n" s="10">
         <v>99.14</v>
       </c>
       <c r="CR28" t="n" s="10">
-        <v>99.18</v>
+        <v>99.19</v>
       </c>
       <c r="CS28" t="n" s="10">
         <v>99.45</v>
@@ -11033,16 +11033,16 @@
         <v>99.57</v>
       </c>
       <c r="CU28" t="n" s="10">
-        <v>99.63</v>
+        <v>99.62</v>
       </c>
       <c r="CV28" t="n" s="10">
+        <v>100.06</v>
+      </c>
+      <c r="CW28" t="n" s="10">
         <v>100.05</v>
       </c>
-      <c r="CW28" t="n" s="10">
-        <v>100.06</v>
-      </c>
       <c r="CX28" t="n" s="10">
-        <v>100.27</v>
+        <v>100.26</v>
       </c>
       <c r="CY28" t="n" s="10">
         <v>100.06</v>
@@ -11054,22 +11054,22 @@
         <v>100.92</v>
       </c>
       <c r="DB28" t="n" s="10">
-        <v>101.22</v>
+        <v>101.23</v>
       </c>
       <c r="DC28" t="n" s="10">
         <v>101.86</v>
       </c>
       <c r="DD28" t="n" s="10">
-        <v>102.15</v>
+        <v>102.16</v>
       </c>
       <c r="DE28" t="n" s="10">
-        <v>102.66</v>
+        <v>102.65</v>
       </c>
       <c r="DF28" t="n" s="10">
         <v>102.89</v>
       </c>
       <c r="DG28" t="n" s="10">
-        <v>103.43</v>
+        <v>103.42</v>
       </c>
       <c r="DH28" t="n" s="10">
         <v>103.84</v>
@@ -11090,28 +11090,28 @@
         <v>106.15</v>
       </c>
       <c r="DN28" t="n" s="10">
-        <v>106.44</v>
+        <v>106.43</v>
       </c>
       <c r="DO28" t="n" s="10">
-        <v>106.92</v>
+        <v>106.91</v>
       </c>
       <c r="DP28" t="n" s="10">
-        <v>107.87</v>
+        <v>107.88</v>
       </c>
       <c r="DQ28" t="n" s="10">
         <v>106.89</v>
       </c>
       <c r="DR28" t="n" s="10">
-        <v>107.62</v>
+        <v>107.61</v>
       </c>
       <c r="DS28" t="n" s="10">
-        <v>109.6</v>
+        <v>109.59</v>
       </c>
       <c r="DT28" t="n" s="10">
-        <v>109.43</v>
-      </c>
-      <c r="DU28" t="s" s="10">
-        <v>43</v>
+        <v>109.45</v>
+      </c>
+      <c r="DU28" t="n" s="10">
+        <v>111.3</v>
       </c>
       <c r="DV28" t="s" s="10">
         <v>43</v>
@@ -11485,13 +11485,13 @@
         <v>105.63</v>
       </c>
       <c r="DS29" t="n" s="10">
-        <v>107.97</v>
+        <v>107.98</v>
       </c>
       <c r="DT29" t="n" s="10">
-        <v>108.41</v>
-      </c>
-      <c r="DU29" t="s" s="10">
-        <v>43</v>
+        <v>108.29</v>
+      </c>
+      <c r="DU29" t="n" s="10">
+        <v>109.04</v>
       </c>
       <c r="DV29" t="s" s="10">
         <v>43</v>
@@ -11865,13 +11865,13 @@
         <v>112.45</v>
       </c>
       <c r="DS30" t="n" s="10">
-        <v>113.62</v>
+        <v>113.58</v>
       </c>
       <c r="DT30" t="n" s="10">
-        <v>112.09</v>
-      </c>
-      <c r="DU30" t="s" s="10">
-        <v>43</v>
+        <v>112.42</v>
+      </c>
+      <c r="DU30" t="n" s="10">
+        <v>116.83</v>
       </c>
       <c r="DV30" t="s" s="10">
         <v>43</v>
@@ -11894,10 +11894,10 @@
         <v>73.46</v>
       </c>
       <c r="F31" t="n" s="10">
-        <v>74.97</v>
+        <v>74.96</v>
       </c>
       <c r="G31" t="n" s="10">
-        <v>75.96</v>
+        <v>75.95</v>
       </c>
       <c r="H31" t="n" s="10">
         <v>77.21</v>
@@ -11927,13 +11927,13 @@
         <v>81.37</v>
       </c>
       <c r="Q31" t="n" s="10">
-        <v>81.24</v>
+        <v>81.23</v>
       </c>
       <c r="R31" t="n" s="10">
         <v>81.65</v>
       </c>
       <c r="S31" t="n" s="10">
-        <v>82.16</v>
+        <v>82.15</v>
       </c>
       <c r="T31" t="n" s="10">
         <v>83.22</v>
@@ -11954,34 +11954,34 @@
         <v>83.83</v>
       </c>
       <c r="Z31" t="n" s="10">
-        <v>84.19</v>
+        <v>84.18</v>
       </c>
       <c r="AA31" t="n" s="10">
-        <v>84.4</v>
+        <v>84.41</v>
       </c>
       <c r="AB31" t="n" s="10">
-        <v>84.05</v>
+        <v>84.04</v>
       </c>
       <c r="AC31" t="n" s="10">
         <v>85.23</v>
       </c>
       <c r="AD31" t="n" s="10">
-        <v>84.04</v>
+        <v>84.05</v>
       </c>
       <c r="AE31" t="n" s="10">
         <v>85.73</v>
       </c>
       <c r="AF31" t="n" s="10">
-        <v>86.02</v>
+        <v>86.03</v>
       </c>
       <c r="AG31" t="n" s="10">
         <v>84.61</v>
       </c>
       <c r="AH31" t="n" s="10">
-        <v>84.35</v>
+        <v>84.34</v>
       </c>
       <c r="AI31" t="n" s="10">
-        <v>83.29</v>
+        <v>83.28</v>
       </c>
       <c r="AJ31" t="n" s="10">
         <v>83.29</v>
@@ -11996,7 +11996,7 @@
         <v>83.56</v>
       </c>
       <c r="AN31" t="n" s="10">
-        <v>83.85</v>
+        <v>83.84</v>
       </c>
       <c r="AO31" t="n" s="10">
         <v>84.79</v>
@@ -12014,7 +12014,7 @@
         <v>83.65</v>
       </c>
       <c r="AT31" t="n" s="10">
-        <v>83.78</v>
+        <v>83.79</v>
       </c>
       <c r="AU31" t="n" s="10">
         <v>83.07</v>
@@ -12023,7 +12023,7 @@
         <v>81.82</v>
       </c>
       <c r="AW31" t="n" s="10">
-        <v>83.43</v>
+        <v>83.42</v>
       </c>
       <c r="AX31" t="n" s="10">
         <v>82.92</v>
@@ -12041,19 +12041,19 @@
         <v>82.2</v>
       </c>
       <c r="BC31" t="n" s="10">
-        <v>83.07</v>
+        <v>83.09</v>
       </c>
       <c r="BD31" t="n" s="10">
-        <v>84.66</v>
+        <v>84.67</v>
       </c>
       <c r="BE31" t="n" s="10">
         <v>84.44</v>
       </c>
       <c r="BF31" t="n" s="10">
-        <v>84.25</v>
+        <v>84.26</v>
       </c>
       <c r="BG31" t="n" s="10">
-        <v>85.05</v>
+        <v>85.04</v>
       </c>
       <c r="BH31" t="n" s="10">
         <v>84.99</v>
@@ -12080,13 +12080,13 @@
         <v>87.37</v>
       </c>
       <c r="BP31" t="n" s="10">
-        <v>87.74</v>
+        <v>87.75</v>
       </c>
       <c r="BQ31" t="n" s="10">
         <v>87.48</v>
       </c>
       <c r="BR31" t="n" s="10">
-        <v>87.73</v>
+        <v>87.74</v>
       </c>
       <c r="BS31" t="n" s="10">
         <v>88.26</v>
@@ -12095,7 +12095,7 @@
         <v>88.99</v>
       </c>
       <c r="BU31" t="n" s="10">
-        <v>89.84</v>
+        <v>89.85</v>
       </c>
       <c r="BV31" t="n" s="10">
         <v>89.03</v>
@@ -12134,7 +12134,7 @@
         <v>93.2</v>
       </c>
       <c r="CH31" t="n" s="10">
-        <v>95.43</v>
+        <v>95.42</v>
       </c>
       <c r="CI31" t="n" s="10">
         <v>93.95</v>
@@ -12179,7 +12179,7 @@
         <v>100.19</v>
       </c>
       <c r="CW31" t="n" s="10">
-        <v>100.64</v>
+        <v>100.65</v>
       </c>
       <c r="CX31" t="n" s="10">
         <v>99.84</v>
@@ -12188,7 +12188,7 @@
         <v>100.48</v>
       </c>
       <c r="CZ31" t="n" s="10">
-        <v>100.88</v>
+        <v>100.87</v>
       </c>
       <c r="DA31" t="n" s="10">
         <v>100.7</v>
@@ -12212,46 +12212,46 @@
         <v>106.46</v>
       </c>
       <c r="DH31" t="n" s="10">
-        <v>107.2</v>
+        <v>107.21</v>
       </c>
       <c r="DI31" t="n" s="10">
-        <v>108.12</v>
+        <v>108.13</v>
       </c>
       <c r="DJ31" t="n" s="10">
-        <v>110.75</v>
+        <v>110.76</v>
       </c>
       <c r="DK31" t="n" s="10">
-        <v>110.36</v>
+        <v>110.35</v>
       </c>
       <c r="DL31" t="n" s="10">
-        <v>110.88</v>
+        <v>110.89</v>
       </c>
       <c r="DM31" t="n" s="10">
         <v>110.45</v>
       </c>
       <c r="DN31" t="n" s="10">
-        <v>113.18</v>
+        <v>113.17</v>
       </c>
       <c r="DO31" t="n" s="10">
-        <v>112.85</v>
+        <v>112.84</v>
       </c>
       <c r="DP31" t="n" s="10">
-        <v>107.64</v>
+        <v>107.63</v>
       </c>
       <c r="DQ31" t="n" s="10">
         <v>109.14</v>
       </c>
       <c r="DR31" t="n" s="10">
-        <v>109.92</v>
+        <v>109.93</v>
       </c>
       <c r="DS31" t="n" s="10">
-        <v>112.49</v>
+        <v>111.79</v>
       </c>
       <c r="DT31" t="n" s="10">
-        <v>112.94</v>
-      </c>
-      <c r="DU31" t="s" s="10">
-        <v>43</v>
+        <v>112.87</v>
+      </c>
+      <c r="DU31" t="n" s="10">
+        <v>119.58</v>
       </c>
       <c r="DV31" t="s" s="10">
         <v>43</v>
@@ -12265,10 +12265,10 @@
         <v>55</v>
       </c>
       <c r="C32" t="n" s="10">
-        <v>79.31</v>
+        <v>79.3</v>
       </c>
       <c r="D32" t="n" s="10">
-        <v>80.41</v>
+        <v>80.4</v>
       </c>
       <c r="E32" t="n" s="10">
         <v>81.12</v>
@@ -12283,25 +12283,25 @@
         <v>83.55</v>
       </c>
       <c r="I32" t="n" s="10">
-        <v>84.38</v>
+        <v>84.37</v>
       </c>
       <c r="J32" t="n" s="10">
         <v>84.95</v>
       </c>
       <c r="K32" t="n" s="10">
-        <v>85.67</v>
+        <v>85.69</v>
       </c>
       <c r="L32" t="n" s="10">
-        <v>86.12</v>
+        <v>86.13</v>
       </c>
       <c r="M32" t="n" s="10">
-        <v>86.56</v>
+        <v>86.55</v>
       </c>
       <c r="N32" t="n" s="10">
-        <v>86.79</v>
+        <v>86.78</v>
       </c>
       <c r="O32" t="n" s="10">
-        <v>86.93</v>
+        <v>86.94</v>
       </c>
       <c r="P32" t="n" s="10">
         <v>87.21</v>
@@ -12322,7 +12322,7 @@
         <v>88.62</v>
       </c>
       <c r="V32" t="n" s="10">
-        <v>88.41</v>
+        <v>88.42</v>
       </c>
       <c r="W32" t="n" s="10">
         <v>88.31</v>
@@ -12361,7 +12361,7 @@
         <v>87.15</v>
       </c>
       <c r="AI32" t="n" s="10">
-        <v>86.73</v>
+        <v>86.74</v>
       </c>
       <c r="AJ32" t="n" s="10">
         <v>86.59</v>
@@ -12496,13 +12496,13 @@
         <v>91.49</v>
       </c>
       <c r="CB32" t="n" s="10">
-        <v>91.94</v>
+        <v>91.93</v>
       </c>
       <c r="CC32" t="n" s="10">
         <v>92.04</v>
       </c>
       <c r="CD32" t="n" s="10">
-        <v>92.07</v>
+        <v>92.08</v>
       </c>
       <c r="CE32" t="n" s="10">
         <v>93.01</v>
@@ -12541,7 +12541,7 @@
         <v>97.89</v>
       </c>
       <c r="CQ32" t="n" s="10">
-        <v>98.01</v>
+        <v>98.02</v>
       </c>
       <c r="CR32" t="n" s="10">
         <v>98.3</v>
@@ -12550,10 +12550,10 @@
         <v>98.71</v>
       </c>
       <c r="CT32" t="n" s="10">
-        <v>99.08</v>
+        <v>99.07</v>
       </c>
       <c r="CU32" t="n" s="10">
-        <v>99.53</v>
+        <v>99.52</v>
       </c>
       <c r="CV32" t="n" s="10">
         <v>99.82</v>
@@ -12562,7 +12562,7 @@
         <v>100.16</v>
       </c>
       <c r="CX32" t="n" s="10">
-        <v>100.48</v>
+        <v>100.47</v>
       </c>
       <c r="CY32" t="n" s="10">
         <v>100.58</v>
@@ -12571,7 +12571,7 @@
         <v>100.99</v>
       </c>
       <c r="DA32" t="n" s="10">
-        <v>101.39</v>
+        <v>101.38</v>
       </c>
       <c r="DB32" t="n" s="10">
         <v>101.75</v>
@@ -12580,13 +12580,13 @@
         <v>102.46</v>
       </c>
       <c r="DD32" t="n" s="10">
-        <v>103.02</v>
+        <v>103.03</v>
       </c>
       <c r="DE32" t="n" s="10">
         <v>103.51</v>
       </c>
       <c r="DF32" t="n" s="10">
-        <v>104.32</v>
+        <v>104.31</v>
       </c>
       <c r="DG32" t="n" s="10">
         <v>105.01</v>
@@ -12601,7 +12601,7 @@
         <v>107.57</v>
       </c>
       <c r="DK32" t="n" s="10">
-        <v>108.16</v>
+        <v>108.17</v>
       </c>
       <c r="DL32" t="n" s="10">
         <v>108.92</v>
@@ -12610,28 +12610,28 @@
         <v>109.57</v>
       </c>
       <c r="DN32" t="n" s="10">
-        <v>110.25</v>
+        <v>110.26</v>
       </c>
       <c r="DO32" t="n" s="10">
         <v>110.62</v>
       </c>
       <c r="DP32" t="n" s="10">
-        <v>111.07</v>
+        <v>111.08</v>
       </c>
       <c r="DQ32" t="n" s="10">
-        <v>110.4</v>
+        <v>110.39</v>
       </c>
       <c r="DR32" t="n" s="10">
-        <v>110.93</v>
+        <v>110.94</v>
       </c>
       <c r="DS32" t="n" s="10">
         <v>112.36</v>
       </c>
       <c r="DT32" t="n" s="10">
-        <v>114.6</v>
-      </c>
-      <c r="DU32" t="s" s="10">
-        <v>43</v>
+        <v>114.61</v>
+      </c>
+      <c r="DU32" t="n" s="10">
+        <v>118.05</v>
       </c>
       <c r="DV32" t="s" s="10">
         <v>43</v>
@@ -13005,13 +13005,13 @@
         <v>104.84</v>
       </c>
       <c r="DS33" t="n" s="10">
-        <v>105.3</v>
+        <v>105.27</v>
       </c>
       <c r="DT33" t="n" s="10">
-        <v>105.73</v>
-      </c>
-      <c r="DU33" t="s" s="10">
-        <v>43</v>
+        <v>105.69</v>
+      </c>
+      <c r="DU33" t="n" s="10">
+        <v>106.45</v>
       </c>
       <c r="DV33" t="s" s="10">
         <v>43</v>
@@ -13390,8 +13390,8 @@
       <c r="DT34" t="n" s="10">
         <v>123.74</v>
       </c>
-      <c r="DU34" t="s" s="10">
-        <v>43</v>
+      <c r="DU34" t="n" s="10">
+        <v>130.2</v>
       </c>
       <c r="DV34" t="s" s="10">
         <v>43</v>
@@ -13768,10 +13768,10 @@
         <v>107.28</v>
       </c>
       <c r="DT35" t="n" s="10">
-        <v>107.58</v>
-      </c>
-      <c r="DU35" t="s" s="10">
-        <v>43</v>
+        <v>107.59</v>
+      </c>
+      <c r="DU35" t="n" s="10">
+        <v>107.94</v>
       </c>
       <c r="DV35" t="s" s="10">
         <v>43</v>
@@ -14145,13 +14145,13 @@
         <v>102.5</v>
       </c>
       <c r="DS36" t="n" s="10">
-        <v>102.14</v>
+        <v>102.13</v>
       </c>
       <c r="DT36" t="n" s="10">
-        <v>101.3</v>
-      </c>
-      <c r="DU36" t="s" s="10">
-        <v>43</v>
+        <v>101.14</v>
+      </c>
+      <c r="DU36" t="n" s="10">
+        <v>100.66</v>
       </c>
       <c r="DV36" t="s" s="10">
         <v>43</v>
@@ -14525,13 +14525,13 @@
         <v>102.24</v>
       </c>
       <c r="DS37" t="n" s="10">
-        <v>103.79</v>
+        <v>103.78</v>
       </c>
       <c r="DT37" t="n" s="10">
-        <v>106.04</v>
-      </c>
-      <c r="DU37" t="s" s="10">
-        <v>43</v>
+        <v>106.06</v>
+      </c>
+      <c r="DU37" t="n" s="10">
+        <v>109.02</v>
       </c>
       <c r="DV37" t="s" s="10">
         <v>43</v>
@@ -14905,13 +14905,13 @@
         <v>100.98</v>
       </c>
       <c r="DS38" t="n" s="10">
-        <v>101.92</v>
+        <v>101.91</v>
       </c>
       <c r="DT38" t="n" s="10">
-        <v>103.78</v>
-      </c>
-      <c r="DU38" t="s" s="10">
-        <v>43</v>
+        <v>103.77</v>
+      </c>
+      <c r="DU38" t="n" s="10">
+        <v>106.62</v>
       </c>
       <c r="DV38" t="s" s="10">
         <v>43</v>
@@ -15285,13 +15285,13 @@
         <v>108.13</v>
       </c>
       <c r="DS39" t="n" s="10">
-        <v>112.71</v>
+        <v>112.72</v>
       </c>
       <c r="DT39" t="n" s="10">
-        <v>117.03</v>
-      </c>
-      <c r="DU39" t="s" s="10">
-        <v>43</v>
+        <v>117.07</v>
+      </c>
+      <c r="DU39" t="n" s="10">
+        <v>120.22</v>
       </c>
       <c r="DV39" t="s" s="10">
         <v>43</v>
@@ -15668,10 +15668,10 @@
         <v>101.62</v>
       </c>
       <c r="DT40" t="n" s="10">
-        <v>104.68</v>
-      </c>
-      <c r="DU40" t="s" s="10">
-        <v>43</v>
+        <v>104.86</v>
+      </c>
+      <c r="DU40" t="n" s="10">
+        <v>108.31</v>
       </c>
       <c r="DV40" t="s" s="10">
         <v>43</v>
@@ -16045,13 +16045,13 @@
         <v>97.78</v>
       </c>
       <c r="DS41" t="n" s="10">
-        <v>99.76</v>
+        <v>99.71</v>
       </c>
       <c r="DT41" t="n" s="10">
-        <v>103.33</v>
-      </c>
-      <c r="DU41" t="s" s="10">
-        <v>43</v>
+        <v>103.5</v>
+      </c>
+      <c r="DU41" t="n" s="10">
+        <v>108.02</v>
       </c>
       <c r="DV41" t="s" s="10">
         <v>43</v>
@@ -16425,13 +16425,13 @@
         <v>107.82</v>
       </c>
       <c r="DS42" t="n" s="10">
-        <v>108.69</v>
+        <v>108.8</v>
       </c>
       <c r="DT42" t="n" s="10">
-        <v>109.37</v>
-      </c>
-      <c r="DU42" t="s" s="10">
-        <v>43</v>
+        <v>109.59</v>
+      </c>
+      <c r="DU42" t="n" s="10">
+        <v>109.49</v>
       </c>
       <c r="DV42" t="s" s="10">
         <v>43</v>
@@ -16498,7 +16498,7 @@
         <v>80.15</v>
       </c>
       <c r="S44" t="n" s="10">
-        <v>81.01</v>
+        <v>81.0</v>
       </c>
       <c r="T44" t="n" s="10">
         <v>81.18</v>
@@ -16507,7 +16507,7 @@
         <v>81.3</v>
       </c>
       <c r="V44" t="n" s="10">
-        <v>81.63</v>
+        <v>81.64</v>
       </c>
       <c r="W44" t="n" s="10">
         <v>81.95</v>
@@ -16522,7 +16522,7 @@
         <v>81.7</v>
       </c>
       <c r="AA44" t="n" s="10">
-        <v>81.25</v>
+        <v>81.27</v>
       </c>
       <c r="AB44" t="n" s="10">
         <v>82.27</v>
@@ -16552,10 +16552,10 @@
         <v>83.39</v>
       </c>
       <c r="AK44" t="n" s="10">
-        <v>83.2</v>
+        <v>83.19</v>
       </c>
       <c r="AL44" t="n" s="10">
-        <v>83.44</v>
+        <v>83.43</v>
       </c>
       <c r="AM44" t="n" s="10">
         <v>83.03</v>
@@ -16606,7 +16606,7 @@
         <v>85.91</v>
       </c>
       <c r="BC44" t="n" s="10">
-        <v>86.89</v>
+        <v>86.88</v>
       </c>
       <c r="BD44" t="n" s="10">
         <v>86.9</v>
@@ -16654,7 +16654,7 @@
         <v>89.15</v>
       </c>
       <c r="BS44" t="n" s="10">
-        <v>89.4</v>
+        <v>89.41</v>
       </c>
       <c r="BT44" t="n" s="10">
         <v>90.33</v>
@@ -16696,7 +16696,7 @@
         <v>93.33</v>
       </c>
       <c r="CG44" t="n" s="10">
-        <v>93.44</v>
+        <v>93.43</v>
       </c>
       <c r="CH44" t="n" s="10">
         <v>93.68</v>
@@ -16741,7 +16741,7 @@
         <v>99.41</v>
       </c>
       <c r="CV44" t="n" s="10">
-        <v>99.42</v>
+        <v>99.43</v>
       </c>
       <c r="CW44" t="n" s="10">
         <v>100.25</v>
@@ -16753,7 +16753,7 @@
         <v>100.49</v>
       </c>
       <c r="CZ44" t="n" s="10">
-        <v>101.86</v>
+        <v>101.85</v>
       </c>
       <c r="DA44" t="n" s="10">
         <v>101.57</v>
@@ -16774,49 +16774,49 @@
         <v>102.93</v>
       </c>
       <c r="DG44" t="n" s="10">
-        <v>103.67</v>
+        <v>103.66</v>
       </c>
       <c r="DH44" t="n" s="10">
-        <v>104.57</v>
+        <v>104.59</v>
       </c>
       <c r="DI44" t="n" s="10">
         <v>104.78</v>
       </c>
       <c r="DJ44" t="n" s="10">
+        <v>105.61</v>
+      </c>
+      <c r="DK44" t="n" s="10">
         <v>105.64</v>
       </c>
-      <c r="DK44" t="n" s="10">
-        <v>105.68</v>
-      </c>
       <c r="DL44" t="n" s="10">
-        <v>106.48</v>
+        <v>106.63</v>
       </c>
       <c r="DM44" t="n" s="10">
-        <v>107.52</v>
+        <v>107.44</v>
       </c>
       <c r="DN44" t="n" s="10">
-        <v>107.81</v>
+        <v>107.7</v>
       </c>
       <c r="DO44" t="n" s="10">
-        <v>108.48</v>
+        <v>108.39</v>
       </c>
       <c r="DP44" t="n" s="10">
-        <v>109.19</v>
+        <v>109.66</v>
       </c>
       <c r="DQ44" t="n" s="10">
-        <v>108.62</v>
+        <v>108.41</v>
       </c>
       <c r="DR44" t="n" s="10">
-        <v>109.37</v>
+        <v>109.2</v>
       </c>
       <c r="DS44" t="n" s="10">
-        <v>110.03</v>
+        <v>109.79</v>
       </c>
       <c r="DT44" t="n" s="10">
-        <v>110.78</v>
-      </c>
-      <c r="DU44" t="s" s="10">
-        <v>43</v>
+        <v>111.23</v>
+      </c>
+      <c r="DU44" t="n" s="10">
+        <v>113.18</v>
       </c>
       <c r="DV44" t="s" s="10">
         <v>43</v>
@@ -16833,7 +16833,7 @@
         <v>70.42</v>
       </c>
       <c r="D45" t="n" s="10">
-        <v>71.89</v>
+        <v>71.88</v>
       </c>
       <c r="E45" t="n" s="10">
         <v>72.55</v>
@@ -16842,34 +16842,34 @@
         <v>73.34</v>
       </c>
       <c r="G45" t="n" s="10">
-        <v>74.48</v>
+        <v>74.47</v>
       </c>
       <c r="H45" t="n" s="10">
-        <v>74.94</v>
+        <v>74.95</v>
       </c>
       <c r="I45" t="n" s="10">
         <v>75.98</v>
       </c>
       <c r="J45" t="n" s="10">
-        <v>76.66</v>
+        <v>76.65</v>
       </c>
       <c r="K45" t="n" s="10">
         <v>77.2</v>
       </c>
       <c r="L45" t="n" s="10">
-        <v>78.2</v>
+        <v>78.21</v>
       </c>
       <c r="M45" t="n" s="10">
-        <v>78.48</v>
+        <v>78.47</v>
       </c>
       <c r="N45" t="n" s="10">
-        <v>79.23</v>
+        <v>79.21</v>
       </c>
       <c r="O45" t="n" s="10">
-        <v>79.29</v>
+        <v>79.28</v>
       </c>
       <c r="P45" t="n" s="10">
-        <v>79.49</v>
+        <v>79.48</v>
       </c>
       <c r="Q45" t="n" s="10">
         <v>79.92</v>
@@ -16878,7 +16878,7 @@
         <v>79.98</v>
       </c>
       <c r="S45" t="n" s="10">
-        <v>80.66</v>
+        <v>80.63</v>
       </c>
       <c r="T45" t="n" s="10">
         <v>80.78</v>
@@ -16893,55 +16893,55 @@
         <v>81.41</v>
       </c>
       <c r="X45" t="n" s="10">
-        <v>81.25</v>
+        <v>81.26</v>
       </c>
       <c r="Y45" t="n" s="10">
-        <v>81.43</v>
+        <v>81.42</v>
       </c>
       <c r="Z45" t="n" s="10">
-        <v>81.56</v>
+        <v>81.55</v>
       </c>
       <c r="AA45" t="n" s="10">
-        <v>81.38</v>
+        <v>81.4</v>
       </c>
       <c r="AB45" t="n" s="10">
-        <v>82.09</v>
+        <v>82.08</v>
       </c>
       <c r="AC45" t="n" s="10">
-        <v>82.17</v>
+        <v>82.16</v>
       </c>
       <c r="AD45" t="n" s="10">
-        <v>81.94</v>
+        <v>81.95</v>
       </c>
       <c r="AE45" t="n" s="10">
         <v>82.26</v>
       </c>
       <c r="AF45" t="n" s="10">
-        <v>82.04</v>
+        <v>82.05</v>
       </c>
       <c r="AG45" t="n" s="10">
-        <v>82.19</v>
+        <v>82.17</v>
       </c>
       <c r="AH45" t="n" s="10">
-        <v>82.31</v>
+        <v>82.3</v>
       </c>
       <c r="AI45" t="n" s="10">
         <v>82.05</v>
       </c>
       <c r="AJ45" t="n" s="10">
-        <v>82.58</v>
+        <v>82.57</v>
       </c>
       <c r="AK45" t="n" s="10">
-        <v>82.56</v>
+        <v>82.55</v>
       </c>
       <c r="AL45" t="n" s="10">
-        <v>82.92</v>
+        <v>82.89</v>
       </c>
       <c r="AM45" t="n" s="10">
-        <v>82.96</v>
+        <v>82.95</v>
       </c>
       <c r="AN45" t="n" s="10">
-        <v>82.65</v>
+        <v>82.66</v>
       </c>
       <c r="AO45" t="n" s="10">
         <v>82.96</v>
@@ -16950,7 +16950,7 @@
         <v>83.08</v>
       </c>
       <c r="AQ45" t="n" s="10">
-        <v>83.62</v>
+        <v>83.61</v>
       </c>
       <c r="AR45" t="n" s="10">
         <v>83.71</v>
@@ -16962,7 +16962,7 @@
         <v>84.34</v>
       </c>
       <c r="AU45" t="n" s="10">
-        <v>84.18</v>
+        <v>84.21</v>
       </c>
       <c r="AV45" t="n" s="10">
         <v>84.67</v>
@@ -16971,232 +16971,232 @@
         <v>84.83</v>
       </c>
       <c r="AX45" t="n" s="10">
-        <v>84.91</v>
+        <v>84.9</v>
       </c>
       <c r="AY45" t="n" s="10">
-        <v>85.28</v>
+        <v>85.29</v>
       </c>
       <c r="AZ45" t="n" s="10">
         <v>85.11</v>
       </c>
       <c r="BA45" t="n" s="10">
-        <v>85.5</v>
+        <v>85.49</v>
       </c>
       <c r="BB45" t="n" s="10">
-        <v>85.39</v>
+        <v>85.38</v>
       </c>
       <c r="BC45" t="n" s="10">
-        <v>86.18</v>
+        <v>86.15</v>
       </c>
       <c r="BD45" t="n" s="10">
-        <v>86.48</v>
+        <v>86.46</v>
       </c>
       <c r="BE45" t="n" s="10">
-        <v>86.66</v>
+        <v>86.69</v>
       </c>
       <c r="BF45" t="n" s="10">
-        <v>87.29</v>
+        <v>87.25</v>
       </c>
       <c r="BG45" t="n" s="10">
-        <v>86.7</v>
+        <v>86.68</v>
       </c>
       <c r="BH45" t="n" s="10">
-        <v>87.52</v>
+        <v>87.47</v>
       </c>
       <c r="BI45" t="n" s="10">
-        <v>87.57</v>
+        <v>87.63</v>
       </c>
       <c r="BJ45" t="n" s="10">
-        <v>87.74</v>
+        <v>87.7</v>
       </c>
       <c r="BK45" t="n" s="10">
-        <v>88.1</v>
+        <v>88.06</v>
       </c>
       <c r="BL45" t="n" s="10">
-        <v>87.83</v>
+        <v>87.82</v>
       </c>
       <c r="BM45" t="n" s="10">
-        <v>88.12</v>
+        <v>88.17</v>
       </c>
       <c r="BN45" t="n" s="10">
-        <v>88.33</v>
+        <v>88.32</v>
       </c>
       <c r="BO45" t="n" s="10">
-        <v>89.15</v>
+        <v>89.1</v>
       </c>
       <c r="BP45" t="n" s="10">
-        <v>89.08</v>
+        <v>88.98</v>
       </c>
       <c r="BQ45" t="n" s="10">
-        <v>89.15</v>
+        <v>89.37</v>
       </c>
       <c r="BR45" t="n" s="10">
-        <v>90.09</v>
+        <v>90.13</v>
       </c>
       <c r="BS45" t="n" s="10">
-        <v>90.63</v>
+        <v>90.48</v>
       </c>
       <c r="BT45" t="n" s="10">
-        <v>91.36</v>
+        <v>91.11</v>
       </c>
       <c r="BU45" t="n" s="10">
-        <v>90.96</v>
+        <v>91.33</v>
       </c>
       <c r="BV45" t="n" s="10">
-        <v>90.84</v>
+        <v>90.94</v>
       </c>
       <c r="BW45" t="n" s="10">
-        <v>91.61</v>
+        <v>91.4</v>
       </c>
       <c r="BX45" t="n" s="10">
-        <v>90.88</v>
+        <v>90.74</v>
       </c>
       <c r="BY45" t="n" s="10">
-        <v>91.19</v>
+        <v>91.39</v>
       </c>
       <c r="BZ45" t="n" s="10">
-        <v>92.07</v>
+        <v>92.13</v>
       </c>
       <c r="CA45" t="n" s="10">
-        <v>92.63</v>
+        <v>92.53</v>
       </c>
       <c r="CB45" t="n" s="10">
-        <v>92.35</v>
+        <v>92.32</v>
       </c>
       <c r="CC45" t="n" s="10">
-        <v>93.05</v>
+        <v>93.06</v>
       </c>
       <c r="CD45" t="n" s="10">
-        <v>93.77</v>
+        <v>93.78</v>
       </c>
       <c r="CE45" t="n" s="10">
-        <v>94.1</v>
+        <v>94.09</v>
       </c>
       <c r="CF45" t="n" s="10">
         <v>94.81</v>
       </c>
       <c r="CG45" t="n" s="10">
-        <v>94.95</v>
+        <v>94.93</v>
       </c>
       <c r="CH45" t="n" s="10">
-        <v>95.31</v>
+        <v>95.32</v>
       </c>
       <c r="CI45" t="n" s="10">
-        <v>95.93</v>
+        <v>95.92</v>
       </c>
       <c r="CJ45" t="n" s="10">
-        <v>95.64</v>
+        <v>95.66</v>
       </c>
       <c r="CK45" t="n" s="10">
         <v>96.08</v>
       </c>
       <c r="CL45" t="n" s="10">
-        <v>96.62</v>
+        <v>96.63</v>
       </c>
       <c r="CM45" t="n" s="10">
-        <v>96.82</v>
+        <v>96.85</v>
       </c>
       <c r="CN45" t="n" s="10">
         <v>97.57</v>
       </c>
       <c r="CO45" t="n" s="10">
-        <v>97.81</v>
+        <v>97.82</v>
       </c>
       <c r="CP45" t="n" s="10">
-        <v>97.97</v>
+        <v>97.98</v>
       </c>
       <c r="CQ45" t="n" s="10">
-        <v>98.68</v>
+        <v>98.69</v>
       </c>
       <c r="CR45" t="n" s="10">
-        <v>98.8</v>
+        <v>98.82</v>
       </c>
       <c r="CS45" t="n" s="10">
-        <v>99.14</v>
+        <v>99.16</v>
       </c>
       <c r="CT45" t="n" s="10">
-        <v>99.1</v>
+        <v>99.06</v>
       </c>
       <c r="CU45" t="n" s="10">
-        <v>99.65</v>
+        <v>99.67</v>
       </c>
       <c r="CV45" t="n" s="10">
-        <v>99.68</v>
+        <v>99.73</v>
       </c>
       <c r="CW45" t="n" s="10">
-        <v>100.17</v>
+        <v>100.21</v>
       </c>
       <c r="CX45" t="n" s="10">
-        <v>100.58</v>
+        <v>100.49</v>
       </c>
       <c r="CY45" t="n" s="10">
-        <v>99.95</v>
+        <v>100.0</v>
       </c>
       <c r="CZ45" t="n" s="10">
         <v>101.12</v>
       </c>
       <c r="DA45" t="n" s="10">
-        <v>101.06</v>
+        <v>101.08</v>
       </c>
       <c r="DB45" t="n" s="10">
-        <v>101.5</v>
+        <v>101.46</v>
       </c>
       <c r="DC45" t="n" s="10">
-        <v>102.41</v>
+        <v>102.44</v>
       </c>
       <c r="DD45" t="n" s="10">
-        <v>102.03</v>
+        <v>102.06</v>
       </c>
       <c r="DE45" t="n" s="10">
-        <v>102.62</v>
+        <v>102.65</v>
       </c>
       <c r="DF45" t="n" s="10">
-        <v>102.89</v>
+        <v>102.84</v>
       </c>
       <c r="DG45" t="n" s="10">
-        <v>103.76</v>
+        <v>103.8</v>
       </c>
       <c r="DH45" t="n" s="10">
-        <v>104.69</v>
+        <v>104.75</v>
       </c>
       <c r="DI45" t="n" s="10">
-        <v>105.19</v>
+        <v>105.25</v>
       </c>
       <c r="DJ45" t="n" s="10">
-        <v>105.94</v>
+        <v>105.82</v>
       </c>
       <c r="DK45" t="n" s="10">
-        <v>105.84</v>
+        <v>105.81</v>
       </c>
       <c r="DL45" t="n" s="10">
-        <v>106.68</v>
+        <v>106.98</v>
       </c>
       <c r="DM45" t="n" s="10">
-        <v>107.47</v>
+        <v>107.34</v>
       </c>
       <c r="DN45" t="n" s="10">
-        <v>107.57</v>
+        <v>107.43</v>
       </c>
       <c r="DO45" t="n" s="10">
-        <v>108.11</v>
+        <v>107.96</v>
       </c>
       <c r="DP45" t="n" s="10">
-        <v>107.7</v>
+        <v>108.51</v>
       </c>
       <c r="DQ45" t="n" s="10">
-        <v>108.0</v>
+        <v>107.54</v>
       </c>
       <c r="DR45" t="n" s="10">
-        <v>108.5</v>
+        <v>108.34</v>
       </c>
       <c r="DS45" t="n" s="10">
-        <v>109.59</v>
+        <v>109.26</v>
       </c>
       <c r="DT45" t="n" s="10">
-        <v>110.42</v>
-      </c>
-      <c r="DU45" t="s" s="10">
-        <v>43</v>
+        <v>111.32</v>
+      </c>
+      <c r="DU45" t="n" s="10">
+        <v>113.16</v>
       </c>
       <c r="DV45" t="s" s="10">
         <v>43</v>
@@ -17447,7 +17447,7 @@
         <v>93.71</v>
       </c>
       <c r="CD46" t="n" s="10">
-        <v>94.25</v>
+        <v>94.24</v>
       </c>
       <c r="CE46" t="n" s="10">
         <v>94.56</v>
@@ -17507,7 +17507,7 @@
         <v>100.03</v>
       </c>
       <c r="CX46" t="n" s="10">
-        <v>100.38</v>
+        <v>100.37</v>
       </c>
       <c r="CY46" t="n" s="10">
         <v>100.02</v>
@@ -17537,46 +17537,46 @@
         <v>103.31</v>
       </c>
       <c r="DH46" t="n" s="10">
-        <v>103.84</v>
+        <v>103.85</v>
       </c>
       <c r="DI46" t="n" s="10">
         <v>104.26</v>
       </c>
       <c r="DJ46" t="n" s="10">
-        <v>104.85</v>
+        <v>104.88</v>
       </c>
       <c r="DK46" t="n" s="10">
-        <v>104.93</v>
+        <v>104.95</v>
       </c>
       <c r="DL46" t="n" s="10">
-        <v>105.27</v>
+        <v>105.21</v>
       </c>
       <c r="DM46" t="n" s="10">
-        <v>106.25</v>
+        <v>106.24</v>
       </c>
       <c r="DN46" t="n" s="10">
-        <v>106.42</v>
+        <v>106.49</v>
       </c>
       <c r="DO46" t="n" s="10">
-        <v>107.19</v>
+        <v>107.26</v>
       </c>
       <c r="DP46" t="n" s="10">
-        <v>107.1</v>
+        <v>106.95</v>
       </c>
       <c r="DQ46" t="n" s="10">
-        <v>107.15</v>
+        <v>107.13</v>
       </c>
       <c r="DR46" t="n" s="10">
-        <v>108.01</v>
+        <v>108.14</v>
       </c>
       <c r="DS46" t="n" s="10">
-        <v>109.73</v>
+        <v>109.78</v>
       </c>
       <c r="DT46" t="n" s="10">
-        <v>108.68</v>
-      </c>
-      <c r="DU46" t="s" s="10">
-        <v>43</v>
+        <v>108.66</v>
+      </c>
+      <c r="DU46" t="n" s="10">
+        <v>111.57</v>
       </c>
       <c r="DV46" t="s" s="10">
         <v>43</v>
@@ -17614,7 +17614,7 @@
         <v>74.52</v>
       </c>
       <c r="K47" t="n" s="10">
-        <v>75.48</v>
+        <v>75.49</v>
       </c>
       <c r="L47" t="n" s="10">
         <v>76.42</v>
@@ -17827,7 +17827,7 @@
         <v>94.57</v>
       </c>
       <c r="CD47" t="n" s="10">
-        <v>95.14</v>
+        <v>95.13</v>
       </c>
       <c r="CE47" t="n" s="10">
         <v>95.44</v>
@@ -17887,7 +17887,7 @@
         <v>100.0</v>
       </c>
       <c r="CX47" t="n" s="10">
-        <v>100.4</v>
+        <v>100.39</v>
       </c>
       <c r="CY47" t="n" s="10">
         <v>99.94</v>
@@ -17923,40 +17923,40 @@
         <v>103.72</v>
       </c>
       <c r="DJ47" t="n" s="10">
+        <v>104.28</v>
+      </c>
+      <c r="DK47" t="n" s="10">
         <v>104.27</v>
       </c>
-      <c r="DK47" t="n" s="10">
-        <v>104.24</v>
-      </c>
       <c r="DL47" t="n" s="10">
-        <v>104.56</v>
+        <v>104.48</v>
       </c>
       <c r="DM47" t="n" s="10">
+        <v>105.59</v>
+      </c>
+      <c r="DN47" t="n" s="10">
+        <v>105.61</v>
+      </c>
+      <c r="DO47" t="n" s="10">
+        <v>106.44</v>
+      </c>
+      <c r="DP47" t="n" s="10">
+        <v>105.1</v>
+      </c>
+      <c r="DQ47" t="n" s="10">
         <v>105.57</v>
       </c>
-      <c r="DN47" t="n" s="10">
-        <v>105.57</v>
-      </c>
-      <c r="DO47" t="n" s="10">
-        <v>106.35</v>
-      </c>
-      <c r="DP47" t="n" s="10">
-        <v>105.37</v>
-      </c>
-      <c r="DQ47" t="n" s="10">
-        <v>105.41</v>
-      </c>
       <c r="DR47" t="n" s="10">
-        <v>106.08</v>
+        <v>106.12</v>
       </c>
       <c r="DS47" t="n" s="10">
-        <v>108.19</v>
+        <v>108.34</v>
       </c>
       <c r="DT47" t="n" s="10">
-        <v>107.31</v>
-      </c>
-      <c r="DU47" t="s" s="10">
-        <v>43</v>
+        <v>107.04</v>
+      </c>
+      <c r="DU47" t="n" s="10">
+        <v>109.79</v>
       </c>
       <c r="DV47" t="s" s="10">
         <v>43</v>
@@ -18303,40 +18303,40 @@
         <v>105.66</v>
       </c>
       <c r="DJ48" t="n" s="10">
-        <v>106.41</v>
+        <v>106.43</v>
       </c>
       <c r="DK48" t="n" s="10">
-        <v>106.75</v>
+        <v>106.76</v>
       </c>
       <c r="DL48" t="n" s="10">
-        <v>107.17</v>
+        <v>107.15</v>
       </c>
       <c r="DM48" t="n" s="10">
-        <v>108.08</v>
+        <v>107.95</v>
       </c>
       <c r="DN48" t="n" s="10">
-        <v>108.65</v>
+        <v>108.82</v>
       </c>
       <c r="DO48" t="n" s="10">
-        <v>109.45</v>
+        <v>109.43</v>
       </c>
       <c r="DP48" t="n" s="10">
-        <v>111.24</v>
+        <v>111.37</v>
       </c>
       <c r="DQ48" t="n" s="10">
-        <v>111.55</v>
+        <v>111.12</v>
       </c>
       <c r="DR48" t="n" s="10">
-        <v>112.74</v>
+        <v>113.03</v>
       </c>
       <c r="DS48" t="n" s="10">
-        <v>113.58</v>
+        <v>113.41</v>
       </c>
       <c r="DT48" t="n" s="10">
-        <v>112.2</v>
-      </c>
-      <c r="DU48" t="s" s="10">
-        <v>43</v>
+        <v>112.72</v>
+      </c>
+      <c r="DU48" t="n" s="10">
+        <v>116.01</v>
       </c>
       <c r="DV48" t="s" s="10">
         <v>43</v>
@@ -18350,79 +18350,79 @@
         <v>53</v>
       </c>
       <c r="C49" t="n" s="10">
-        <v>71.59</v>
+        <v>71.63</v>
       </c>
       <c r="D49" t="n" s="10">
         <v>73.18</v>
       </c>
       <c r="E49" t="n" s="10">
-        <v>73.98</v>
+        <v>74.01</v>
       </c>
       <c r="F49" t="n" s="10">
-        <v>74.27</v>
+        <v>74.35</v>
       </c>
       <c r="G49" t="n" s="10">
-        <v>76.26</v>
+        <v>76.27</v>
       </c>
       <c r="H49" t="n" s="10">
-        <v>76.71</v>
+        <v>76.75</v>
       </c>
       <c r="I49" t="n" s="10">
-        <v>77.91</v>
+        <v>77.94</v>
       </c>
       <c r="J49" t="n" s="10">
         <v>79.06</v>
       </c>
       <c r="K49" t="n" s="10">
-        <v>79.12</v>
+        <v>79.14</v>
       </c>
       <c r="L49" t="n" s="10">
-        <v>80.0</v>
+        <v>80.03</v>
       </c>
       <c r="M49" t="n" s="10">
         <v>80.09</v>
       </c>
       <c r="N49" t="n" s="10">
-        <v>81.23</v>
+        <v>81.19</v>
       </c>
       <c r="O49" t="n" s="10">
-        <v>80.72</v>
+        <v>80.73</v>
       </c>
       <c r="P49" t="n" s="10">
-        <v>81.6</v>
+        <v>81.62</v>
       </c>
       <c r="Q49" t="n" s="10">
-        <v>82.01</v>
+        <v>82.02</v>
       </c>
       <c r="R49" t="n" s="10">
-        <v>81.72</v>
+        <v>81.75</v>
       </c>
       <c r="S49" t="n" s="10">
-        <v>83.1</v>
+        <v>83.02</v>
       </c>
       <c r="T49" t="n" s="10">
-        <v>82.82</v>
+        <v>82.87</v>
       </c>
       <c r="U49" t="n" s="10">
-        <v>82.88</v>
+        <v>82.93</v>
       </c>
       <c r="V49" t="n" s="10">
-        <v>83.23</v>
+        <v>83.31</v>
       </c>
       <c r="W49" t="n" s="10">
-        <v>83.98</v>
+        <v>83.99</v>
       </c>
       <c r="X49" t="n" s="10">
-        <v>83.45</v>
+        <v>83.53</v>
       </c>
       <c r="Y49" t="n" s="10">
-        <v>83.98</v>
+        <v>83.93</v>
       </c>
       <c r="Z49" t="n" s="10">
         <v>84.32</v>
       </c>
       <c r="AA49" t="n" s="10">
-        <v>83.1</v>
+        <v>83.22</v>
       </c>
       <c r="AB49" t="n" s="10">
         <v>84.95</v>
@@ -18431,61 +18431,61 @@
         <v>85.16</v>
       </c>
       <c r="AD49" t="n" s="10">
-        <v>84.2</v>
+        <v>84.24</v>
       </c>
       <c r="AE49" t="n" s="10">
-        <v>86.07</v>
+        <v>86.08</v>
       </c>
       <c r="AF49" t="n" s="10">
-        <v>85.39</v>
+        <v>85.43</v>
       </c>
       <c r="AG49" t="n" s="10">
-        <v>85.3</v>
+        <v>85.26</v>
       </c>
       <c r="AH49" t="n" s="10">
         <v>85.12</v>
       </c>
       <c r="AI49" t="n" s="10">
-        <v>83.48</v>
+        <v>83.53</v>
       </c>
       <c r="AJ49" t="n" s="10">
         <v>84.07</v>
       </c>
       <c r="AK49" t="n" s="10">
-        <v>83.87</v>
+        <v>83.84</v>
       </c>
       <c r="AL49" t="n" s="10">
-        <v>85.1</v>
+        <v>85.0</v>
       </c>
       <c r="AM49" t="n" s="10">
-        <v>85.07</v>
+        <v>85.03</v>
       </c>
       <c r="AN49" t="n" s="10">
-        <v>84.46</v>
+        <v>84.49</v>
       </c>
       <c r="AO49" t="n" s="10">
-        <v>84.58</v>
+        <v>84.63</v>
       </c>
       <c r="AP49" t="n" s="10">
-        <v>84.07</v>
+        <v>84.11</v>
       </c>
       <c r="AQ49" t="n" s="10">
         <v>84.23</v>
       </c>
       <c r="AR49" t="n" s="10">
-        <v>83.25</v>
+        <v>83.28</v>
       </c>
       <c r="AS49" t="n" s="10">
-        <v>83.01</v>
+        <v>83.04</v>
       </c>
       <c r="AT49" t="n" s="10">
-        <v>83.1</v>
+        <v>83.14</v>
       </c>
       <c r="AU49" t="n" s="10">
-        <v>82.47</v>
+        <v>82.6</v>
       </c>
       <c r="AV49" t="n" s="10">
-        <v>82.94</v>
+        <v>82.93</v>
       </c>
       <c r="AW49" t="n" s="10">
         <v>83.25</v>
@@ -18494,229 +18494,229 @@
         <v>82.68</v>
       </c>
       <c r="AY49" t="n" s="10">
-        <v>82.72</v>
+        <v>82.75</v>
       </c>
       <c r="AZ49" t="n" s="10">
-        <v>82.2</v>
+        <v>82.25</v>
       </c>
       <c r="BA49" t="n" s="10">
-        <v>82.32</v>
+        <v>82.31</v>
       </c>
       <c r="BB49" t="n" s="10">
         <v>82.06</v>
       </c>
       <c r="BC49" t="n" s="10">
-        <v>84.35</v>
+        <v>84.25</v>
       </c>
       <c r="BD49" t="n" s="10">
-        <v>84.55</v>
+        <v>84.49</v>
       </c>
       <c r="BE49" t="n" s="10">
-        <v>85.05</v>
+        <v>85.24</v>
       </c>
       <c r="BF49" t="n" s="10">
-        <v>86.41</v>
+        <v>86.25</v>
       </c>
       <c r="BG49" t="n" s="10">
-        <v>84.63</v>
+        <v>84.58</v>
       </c>
       <c r="BH49" t="n" s="10">
-        <v>86.66</v>
+        <v>86.46</v>
       </c>
       <c r="BI49" t="n" s="10">
-        <v>85.9</v>
+        <v>86.23</v>
       </c>
       <c r="BJ49" t="n" s="10">
-        <v>86.15</v>
+        <v>86.01</v>
       </c>
       <c r="BK49" t="n" s="10">
-        <v>86.11</v>
+        <v>85.96</v>
       </c>
       <c r="BL49" t="n" s="10">
-        <v>85.27</v>
+        <v>85.21</v>
       </c>
       <c r="BM49" t="n" s="10">
-        <v>86.06</v>
+        <v>86.32</v>
       </c>
       <c r="BN49" t="n" s="10">
-        <v>86.2</v>
+        <v>86.21</v>
       </c>
       <c r="BO49" t="n" s="10">
-        <v>87.95</v>
+        <v>87.74</v>
       </c>
       <c r="BP49" t="n" s="10">
-        <v>87.13</v>
+        <v>86.72</v>
       </c>
       <c r="BQ49" t="n" s="10">
-        <v>86.08</v>
+        <v>87.01</v>
       </c>
       <c r="BR49" t="n" s="10">
-        <v>87.82</v>
+        <v>88.06</v>
       </c>
       <c r="BS49" t="n" s="10">
-        <v>89.46</v>
+        <v>88.83</v>
       </c>
       <c r="BT49" t="n" s="10">
-        <v>90.19</v>
+        <v>89.2</v>
       </c>
       <c r="BU49" t="n" s="10">
-        <v>88.11</v>
+        <v>89.67</v>
       </c>
       <c r="BV49" t="n" s="10">
-        <v>88.42</v>
+        <v>88.84</v>
       </c>
       <c r="BW49" t="n" s="10">
-        <v>91.88</v>
+        <v>90.81</v>
       </c>
       <c r="BX49" t="n" s="10">
-        <v>87.75</v>
+        <v>87.06</v>
       </c>
       <c r="BY49" t="n" s="10">
-        <v>87.47</v>
+        <v>88.48</v>
       </c>
       <c r="BZ49" t="n" s="10">
-        <v>90.15</v>
+        <v>90.43</v>
       </c>
       <c r="CA49" t="n" s="10">
-        <v>91.45</v>
+        <v>91.05</v>
       </c>
       <c r="CB49" t="n" s="10">
-        <v>88.98</v>
+        <v>88.86</v>
       </c>
       <c r="CC49" t="n" s="10">
-        <v>90.77</v>
+        <v>90.82</v>
       </c>
       <c r="CD49" t="n" s="10">
-        <v>92.15</v>
+        <v>92.2</v>
       </c>
       <c r="CE49" t="n" s="10">
-        <v>92.47</v>
+        <v>92.43</v>
       </c>
       <c r="CF49" t="n" s="10">
-        <v>93.94</v>
+        <v>93.89</v>
       </c>
       <c r="CG49" t="n" s="10">
-        <v>93.84</v>
+        <v>93.75</v>
       </c>
       <c r="CH49" t="n" s="10">
         <v>94.75</v>
       </c>
       <c r="CI49" t="n" s="10">
-        <v>95.54</v>
+        <v>95.51</v>
       </c>
       <c r="CJ49" t="n" s="10">
-        <v>94.03</v>
+        <v>94.09</v>
       </c>
       <c r="CK49" t="n" s="10">
-        <v>94.81</v>
+        <v>94.84</v>
       </c>
       <c r="CL49" t="n" s="10">
-        <v>95.38</v>
+        <v>95.45</v>
       </c>
       <c r="CM49" t="n" s="10">
-        <v>95.2</v>
+        <v>95.31</v>
       </c>
       <c r="CN49" t="n" s="10">
-        <v>96.27</v>
+        <v>96.25</v>
       </c>
       <c r="CO49" t="n" s="10">
-        <v>95.99</v>
+        <v>96.01</v>
       </c>
       <c r="CP49" t="n" s="10">
-        <v>95.8</v>
+        <v>95.85</v>
       </c>
       <c r="CQ49" t="n" s="10">
-        <v>97.4</v>
+        <v>97.47</v>
       </c>
       <c r="CR49" t="n" s="10">
-        <v>97.75</v>
+        <v>97.82</v>
       </c>
       <c r="CS49" t="n" s="10">
-        <v>98.21</v>
+        <v>98.3</v>
       </c>
       <c r="CT49" t="n" s="10">
-        <v>98.03</v>
+        <v>97.84</v>
       </c>
       <c r="CU49" t="n" s="10">
-        <v>99.43</v>
+        <v>99.51</v>
       </c>
       <c r="CV49" t="n" s="10">
-        <v>99.05</v>
+        <v>99.27</v>
       </c>
       <c r="CW49" t="n" s="10">
-        <v>100.7</v>
+        <v>100.86</v>
       </c>
       <c r="CX49" t="n" s="10">
-        <v>101.35</v>
+        <v>100.98</v>
       </c>
       <c r="CY49" t="n" s="10">
-        <v>99.71</v>
+        <v>99.91</v>
       </c>
       <c r="CZ49" t="n" s="10">
-        <v>102.48</v>
+        <v>102.46</v>
       </c>
       <c r="DA49" t="n" s="10">
-        <v>101.51</v>
+        <v>101.59</v>
       </c>
       <c r="DB49" t="n" s="10">
-        <v>102.2</v>
+        <v>101.99</v>
       </c>
       <c r="DC49" t="n" s="10">
-        <v>103.61</v>
+        <v>103.71</v>
       </c>
       <c r="DD49" t="n" s="10">
-        <v>102.2</v>
+        <v>102.34</v>
       </c>
       <c r="DE49" t="n" s="10">
-        <v>103.11</v>
+        <v>103.27</v>
       </c>
       <c r="DF49" t="n" s="10">
-        <v>103.52</v>
+        <v>103.29</v>
       </c>
       <c r="DG49" t="n" s="10">
-        <v>105.38</v>
+        <v>105.52</v>
       </c>
       <c r="DH49" t="n" s="10">
-        <v>107.66</v>
+        <v>107.89</v>
       </c>
       <c r="DI49" t="n" s="10">
-        <v>108.35</v>
+        <v>108.61</v>
       </c>
       <c r="DJ49" t="n" s="10">
-        <v>109.61</v>
+        <v>109.04</v>
       </c>
       <c r="DK49" t="n" s="10">
-        <v>109.0</v>
+        <v>108.82</v>
       </c>
       <c r="DL49" t="n" s="10">
-        <v>111.51</v>
+        <v>113.05</v>
       </c>
       <c r="DM49" t="n" s="10">
-        <v>111.68</v>
+        <v>111.16</v>
       </c>
       <c r="DN49" t="n" s="10">
-        <v>111.58</v>
+        <v>110.64</v>
       </c>
       <c r="DO49" t="n" s="10">
-        <v>111.23</v>
+        <v>110.34</v>
       </c>
       <c r="DP49" t="n" s="10">
-        <v>109.76</v>
+        <v>113.84</v>
       </c>
       <c r="DQ49" t="n" s="10">
-        <v>110.81</v>
+        <v>108.7</v>
       </c>
       <c r="DR49" t="n" s="10">
-        <v>110.17</v>
+        <v>108.93</v>
       </c>
       <c r="DS49" t="n" s="10">
-        <v>109.19</v>
+        <v>107.59</v>
       </c>
       <c r="DT49" t="n" s="10">
-        <v>116.18</v>
-      </c>
-      <c r="DU49" t="s" s="10">
-        <v>43</v>
+        <v>120.13</v>
+      </c>
+      <c r="DU49" t="n" s="10">
+        <v>118.6</v>
       </c>
       <c r="DV49" t="s" s="10">
         <v>43</v>
@@ -18730,64 +18730,64 @@
         <v>55</v>
       </c>
       <c r="C50" t="n" s="10">
-        <v>78.5</v>
+        <v>78.51</v>
       </c>
       <c r="D50" t="n" s="10">
-        <v>80.36</v>
+        <v>80.35</v>
       </c>
       <c r="E50" t="n" s="10">
         <v>80.83</v>
       </c>
       <c r="F50" t="n" s="10">
-        <v>80.92</v>
+        <v>80.94</v>
       </c>
       <c r="G50" t="n" s="10">
-        <v>83.07</v>
+        <v>83.06</v>
       </c>
       <c r="H50" t="n" s="10">
         <v>83.05</v>
       </c>
       <c r="I50" t="n" s="10">
-        <v>84.35</v>
+        <v>84.34</v>
       </c>
       <c r="J50" t="n" s="10">
+        <v>85.28</v>
+      </c>
+      <c r="K50" t="n" s="10">
         <v>85.29</v>
       </c>
-      <c r="K50" t="n" s="10">
-        <v>85.27</v>
-      </c>
       <c r="L50" t="n" s="10">
-        <v>86.49</v>
+        <v>86.48</v>
       </c>
       <c r="M50" t="n" s="10">
-        <v>86.79</v>
+        <v>86.78</v>
       </c>
       <c r="N50" t="n" s="10">
-        <v>87.89</v>
+        <v>87.86</v>
       </c>
       <c r="O50" t="n" s="10">
-        <v>87.1</v>
+        <v>87.09</v>
       </c>
       <c r="P50" t="n" s="10">
-        <v>87.64</v>
+        <v>87.63</v>
       </c>
       <c r="Q50" t="n" s="10">
-        <v>87.87</v>
+        <v>87.84</v>
       </c>
       <c r="R50" t="n" s="10">
         <v>87.59</v>
       </c>
       <c r="S50" t="n" s="10">
-        <v>88.33</v>
+        <v>88.31</v>
       </c>
       <c r="T50" t="n" s="10">
-        <v>88.31</v>
+        <v>88.32</v>
       </c>
       <c r="U50" t="n" s="10">
-        <v>88.09</v>
+        <v>88.1</v>
       </c>
       <c r="V50" t="n" s="10">
-        <v>88.27</v>
+        <v>88.28</v>
       </c>
       <c r="W50" t="n" s="10">
         <v>88.36</v>
@@ -18802,43 +18802,43 @@
         <v>87.61</v>
       </c>
       <c r="AA50" t="n" s="10">
-        <v>86.79</v>
+        <v>86.83</v>
       </c>
       <c r="AB50" t="n" s="10">
-        <v>88.59</v>
+        <v>88.56</v>
       </c>
       <c r="AC50" t="n" s="10">
         <v>87.81</v>
       </c>
       <c r="AD50" t="n" s="10">
-        <v>87.33</v>
+        <v>87.34</v>
       </c>
       <c r="AE50" t="n" s="10">
         <v>87.84</v>
       </c>
       <c r="AF50" t="n" s="10">
-        <v>87.03</v>
+        <v>87.04</v>
       </c>
       <c r="AG50" t="n" s="10">
+        <v>87.55</v>
+      </c>
+      <c r="AH50" t="n" s="10">
         <v>87.56</v>
-      </c>
-      <c r="AH50" t="n" s="10">
-        <v>87.58</v>
       </c>
       <c r="AI50" t="n" s="10">
         <v>86.69</v>
       </c>
       <c r="AJ50" t="n" s="10">
-        <v>87.08</v>
+        <v>87.07</v>
       </c>
       <c r="AK50" t="n" s="10">
-        <v>86.99</v>
+        <v>86.97</v>
       </c>
       <c r="AL50" t="n" s="10">
-        <v>87.66</v>
+        <v>87.62</v>
       </c>
       <c r="AM50" t="n" s="10">
-        <v>87.72</v>
+        <v>87.69</v>
       </c>
       <c r="AN50" t="n" s="10">
         <v>87.11</v>
@@ -18847,256 +18847,256 @@
         <v>86.96</v>
       </c>
       <c r="AP50" t="n" s="10">
-        <v>86.78</v>
+        <v>86.79</v>
       </c>
       <c r="AQ50" t="n" s="10">
-        <v>87.14</v>
+        <v>87.13</v>
       </c>
       <c r="AR50" t="n" s="10">
-        <v>86.58</v>
+        <v>86.59</v>
       </c>
       <c r="AS50" t="n" s="10">
-        <v>86.41</v>
+        <v>86.43</v>
       </c>
       <c r="AT50" t="n" s="10">
-        <v>86.21</v>
+        <v>86.22</v>
       </c>
       <c r="AU50" t="n" s="10">
-        <v>85.82</v>
+        <v>85.84</v>
       </c>
       <c r="AV50" t="n" s="10">
-        <v>86.72</v>
+        <v>86.71</v>
       </c>
       <c r="AW50" t="n" s="10">
         <v>86.24</v>
       </c>
       <c r="AX50" t="n" s="10">
-        <v>85.94</v>
+        <v>85.95</v>
       </c>
       <c r="AY50" t="n" s="10">
         <v>85.74</v>
       </c>
       <c r="AZ50" t="n" s="10">
-        <v>85.2</v>
+        <v>85.21</v>
       </c>
       <c r="BA50" t="n" s="10">
         <v>85.73</v>
       </c>
       <c r="BB50" t="n" s="10">
-        <v>85.26</v>
+        <v>85.27</v>
       </c>
       <c r="BC50" t="n" s="10">
-        <v>86.67</v>
+        <v>86.64</v>
       </c>
       <c r="BD50" t="n" s="10">
-        <v>86.26</v>
+        <v>86.25</v>
       </c>
       <c r="BE50" t="n" s="10">
-        <v>86.65</v>
+        <v>86.63</v>
       </c>
       <c r="BF50" t="n" s="10">
-        <v>87.81</v>
+        <v>87.78</v>
       </c>
       <c r="BG50" t="n" s="10">
-        <v>86.12</v>
+        <v>86.14</v>
       </c>
       <c r="BH50" t="n" s="10">
-        <v>87.64</v>
+        <v>87.6</v>
       </c>
       <c r="BI50" t="n" s="10">
-        <v>86.71</v>
+        <v>86.7</v>
       </c>
       <c r="BJ50" t="n" s="10">
-        <v>86.44</v>
+        <v>86.43</v>
       </c>
       <c r="BK50" t="n" s="10">
-        <v>87.81</v>
+        <v>87.79</v>
       </c>
       <c r="BL50" t="n" s="10">
         <v>85.93</v>
       </c>
       <c r="BM50" t="n" s="10">
-        <v>86.68</v>
+        <v>86.71</v>
       </c>
       <c r="BN50" t="n" s="10">
-        <v>87.11</v>
+        <v>87.12</v>
       </c>
       <c r="BO50" t="n" s="10">
-        <v>88.91</v>
+        <v>88.87</v>
       </c>
       <c r="BP50" t="n" s="10">
-        <v>88.34</v>
+        <v>88.18</v>
       </c>
       <c r="BQ50" t="n" s="10">
-        <v>88.38</v>
+        <v>88.62</v>
       </c>
       <c r="BR50" t="n" s="10">
-        <v>88.93</v>
+        <v>89.06</v>
       </c>
       <c r="BS50" t="n" s="10">
-        <v>89.24</v>
+        <v>89.09</v>
       </c>
       <c r="BT50" t="n" s="10">
-        <v>91.74</v>
+        <v>91.25</v>
       </c>
       <c r="BU50" t="n" s="10">
-        <v>90.45</v>
+        <v>90.94</v>
       </c>
       <c r="BV50" t="n" s="10">
-        <v>89.95</v>
+        <v>90.4</v>
       </c>
       <c r="BW50" t="n" s="10">
-        <v>91.22</v>
+        <v>90.39</v>
       </c>
       <c r="BX50" t="n" s="10">
-        <v>90.32</v>
+        <v>90.17</v>
       </c>
       <c r="BY50" t="n" s="10">
-        <v>90.88</v>
+        <v>91.44</v>
       </c>
       <c r="BZ50" t="n" s="10">
-        <v>91.75</v>
+        <v>92.38</v>
       </c>
       <c r="CA50" t="n" s="10">
-        <v>91.66</v>
+        <v>90.3</v>
       </c>
       <c r="CB50" t="n" s="10">
-        <v>92.36</v>
+        <v>92.73</v>
       </c>
       <c r="CC50" t="n" s="10">
-        <v>92.44</v>
+        <v>92.79</v>
       </c>
       <c r="CD50" t="n" s="10">
-        <v>93.26</v>
+        <v>93.51</v>
       </c>
       <c r="CE50" t="n" s="10">
-        <v>93.41</v>
+        <v>92.72</v>
       </c>
       <c r="CF50" t="n" s="10">
-        <v>93.98</v>
+        <v>94.19</v>
       </c>
       <c r="CG50" t="n" s="10">
-        <v>94.26</v>
+        <v>94.37</v>
       </c>
       <c r="CH50" t="n" s="10">
         <v>94.32</v>
       </c>
       <c r="CI50" t="n" s="10">
-        <v>95.8</v>
+        <v>95.71</v>
       </c>
       <c r="CJ50" t="n" s="10">
-        <v>94.96</v>
+        <v>94.97</v>
       </c>
       <c r="CK50" t="n" s="10">
-        <v>95.07</v>
+        <v>95.09</v>
       </c>
       <c r="CL50" t="n" s="10">
-        <v>95.45</v>
+        <v>95.46</v>
       </c>
       <c r="CM50" t="n" s="10">
-        <v>95.16</v>
+        <v>95.17</v>
       </c>
       <c r="CN50" t="n" s="10">
-        <v>96.81</v>
+        <v>96.8</v>
       </c>
       <c r="CO50" t="n" s="10">
         <v>97.21</v>
       </c>
       <c r="CP50" t="n" s="10">
-        <v>97.4</v>
+        <v>97.41</v>
       </c>
       <c r="CQ50" t="n" s="10">
         <v>97.88</v>
       </c>
       <c r="CR50" t="n" s="10">
-        <v>97.93</v>
+        <v>97.94</v>
       </c>
       <c r="CS50" t="n" s="10">
         <v>98.47</v>
       </c>
       <c r="CT50" t="n" s="10">
-        <v>98.43</v>
+        <v>98.44</v>
       </c>
       <c r="CU50" t="n" s="10">
         <v>99.59</v>
       </c>
       <c r="CV50" t="n" s="10">
-        <v>99.2</v>
+        <v>99.21</v>
       </c>
       <c r="CW50" t="n" s="10">
         <v>100.2</v>
       </c>
       <c r="CX50" t="n" s="10">
-        <v>101.22</v>
+        <v>101.21</v>
       </c>
       <c r="CY50" t="n" s="10">
-        <v>100.02</v>
+        <v>100.03</v>
       </c>
       <c r="CZ50" t="n" s="10">
-        <v>102.27</v>
+        <v>102.25</v>
       </c>
       <c r="DA50" t="n" s="10">
         <v>101.7</v>
       </c>
       <c r="DB50" t="n" s="10">
-        <v>102.12</v>
+        <v>102.09</v>
       </c>
       <c r="DC50" t="n" s="10">
-        <v>103.5</v>
+        <v>103.49</v>
       </c>
       <c r="DD50" t="n" s="10">
-        <v>102.21</v>
+        <v>102.23</v>
       </c>
       <c r="DE50" t="n" s="10">
-        <v>103.11</v>
+        <v>103.12</v>
       </c>
       <c r="DF50" t="n" s="10">
-        <v>103.41</v>
+        <v>103.38</v>
       </c>
       <c r="DG50" t="n" s="10">
-        <v>104.36</v>
+        <v>104.37</v>
       </c>
       <c r="DH50" t="n" s="10">
-        <v>105.83</v>
+        <v>105.87</v>
       </c>
       <c r="DI50" t="n" s="10">
         <v>106.2</v>
       </c>
       <c r="DJ50" t="n" s="10">
-        <v>107.27</v>
+        <v>107.28</v>
       </c>
       <c r="DK50" t="n" s="10">
-        <v>107.61</v>
+        <v>107.56</v>
       </c>
       <c r="DL50" t="n" s="10">
-        <v>108.33</v>
+        <v>108.42</v>
       </c>
       <c r="DM50" t="n" s="10">
-        <v>109.91</v>
+        <v>109.79</v>
       </c>
       <c r="DN50" t="n" s="10">
-        <v>109.8</v>
+        <v>109.86</v>
       </c>
       <c r="DO50" t="n" s="10">
-        <v>110.65</v>
+        <v>110.49</v>
       </c>
       <c r="DP50" t="n" s="10">
-        <v>110.61</v>
+        <v>110.86</v>
       </c>
       <c r="DQ50" t="n" s="10">
-        <v>110.88</v>
+        <v>110.82</v>
       </c>
       <c r="DR50" t="n" s="10">
-        <v>111.96</v>
+        <v>111.99</v>
       </c>
       <c r="DS50" t="n" s="10">
-        <v>111.42</v>
+        <v>111.22</v>
       </c>
       <c r="DT50" t="n" s="10">
-        <v>115.11</v>
-      </c>
-      <c r="DU50" t="s" s="10">
-        <v>43</v>
+        <v>115.39</v>
+      </c>
+      <c r="DU50" t="n" s="10">
+        <v>118.9</v>
       </c>
       <c r="DV50" t="s" s="10">
         <v>43</v>
@@ -19110,373 +19110,373 @@
         <v>57</v>
       </c>
       <c r="C51" t="n" s="10">
-        <v>105.63</v>
+        <v>105.76</v>
       </c>
       <c r="D51" t="n" s="10">
-        <v>108.06</v>
+        <v>108.05</v>
       </c>
       <c r="E51" t="n" s="10">
-        <v>108.15</v>
+        <v>108.17</v>
       </c>
       <c r="F51" t="n" s="10">
-        <v>107.21</v>
+        <v>107.3</v>
       </c>
       <c r="G51" t="n" s="10">
-        <v>109.49</v>
+        <v>109.46</v>
       </c>
       <c r="H51" t="n" s="10">
-        <v>108.79</v>
+        <v>108.85</v>
       </c>
       <c r="I51" t="n" s="10">
         <v>109.9</v>
       </c>
       <c r="J51" t="n" s="10">
-        <v>110.92</v>
+        <v>110.89</v>
       </c>
       <c r="K51" t="n" s="10">
-        <v>110.3</v>
+        <v>110.34</v>
       </c>
       <c r="L51" t="n" s="10">
-        <v>111.61</v>
+        <v>111.57</v>
       </c>
       <c r="M51" t="n" s="10">
-        <v>111.74</v>
+        <v>111.72</v>
       </c>
       <c r="N51" t="n" s="10">
-        <v>113.22</v>
+        <v>113.1</v>
       </c>
       <c r="O51" t="n" s="10">
-        <v>111.72</v>
+        <v>111.7</v>
       </c>
       <c r="P51" t="n" s="10">
-        <v>111.81</v>
+        <v>111.77</v>
       </c>
       <c r="Q51" t="n" s="10">
-        <v>111.42</v>
+        <v>111.36</v>
       </c>
       <c r="R51" t="n" s="10">
-        <v>110.17</v>
+        <v>110.19</v>
       </c>
       <c r="S51" t="n" s="10">
-        <v>111.34</v>
+        <v>111.28</v>
       </c>
       <c r="T51" t="n" s="10">
-        <v>109.91</v>
+        <v>109.95</v>
       </c>
       <c r="U51" t="n" s="10">
-        <v>109.39</v>
+        <v>109.46</v>
       </c>
       <c r="V51" t="n" s="10">
-        <v>109.46</v>
+        <v>109.48</v>
       </c>
       <c r="W51" t="n" s="10">
-        <v>110.17</v>
+        <v>110.14</v>
       </c>
       <c r="X51" t="n" s="10">
-        <v>108.63</v>
+        <v>108.7</v>
       </c>
       <c r="Y51" t="n" s="10">
         <v>109.2</v>
       </c>
       <c r="Z51" t="n" s="10">
-        <v>108.63</v>
+        <v>108.68</v>
       </c>
       <c r="AA51" t="n" s="10">
-        <v>107.02</v>
+        <v>107.18</v>
       </c>
       <c r="AB51" t="n" s="10">
-        <v>109.81</v>
+        <v>109.74</v>
       </c>
       <c r="AC51" t="n" s="10">
-        <v>108.52</v>
+        <v>108.54</v>
       </c>
       <c r="AD51" t="n" s="10">
-        <v>107.79</v>
+        <v>107.86</v>
       </c>
       <c r="AE51" t="n" s="10">
-        <v>108.34</v>
+        <v>108.32</v>
       </c>
       <c r="AF51" t="n" s="10">
-        <v>106.67</v>
+        <v>106.75</v>
       </c>
       <c r="AG51" t="n" s="10">
-        <v>107.09</v>
+        <v>107.08</v>
       </c>
       <c r="AH51" t="n" s="10">
-        <v>106.89</v>
+        <v>106.83</v>
       </c>
       <c r="AI51" t="n" s="10">
-        <v>105.41</v>
+        <v>105.43</v>
       </c>
       <c r="AJ51" t="n" s="10">
-        <v>105.85</v>
+        <v>105.79</v>
       </c>
       <c r="AK51" t="n" s="10">
-        <v>105.47</v>
+        <v>105.43</v>
       </c>
       <c r="AL51" t="n" s="10">
-        <v>106.09</v>
+        <v>105.98</v>
       </c>
       <c r="AM51" t="n" s="10">
-        <v>106.26</v>
+        <v>106.18</v>
       </c>
       <c r="AN51" t="n" s="10">
-        <v>105.57</v>
+        <v>105.58</v>
       </c>
       <c r="AO51" t="n" s="10">
+        <v>105.19</v>
+      </c>
+      <c r="AP51" t="n" s="10">
         <v>105.17</v>
       </c>
-      <c r="AP51" t="n" s="10">
-        <v>105.11</v>
-      </c>
       <c r="AQ51" t="n" s="10">
-        <v>104.88</v>
+        <v>104.87</v>
       </c>
       <c r="AR51" t="n" s="10">
-        <v>103.89</v>
+        <v>103.93</v>
       </c>
       <c r="AS51" t="n" s="10">
-        <v>103.68</v>
+        <v>103.73</v>
       </c>
       <c r="AT51" t="n" s="10">
-        <v>102.93</v>
+        <v>102.97</v>
       </c>
       <c r="AU51" t="n" s="10">
-        <v>102.71</v>
+        <v>102.81</v>
       </c>
       <c r="AV51" t="n" s="10">
-        <v>103.6</v>
+        <v>103.58</v>
       </c>
       <c r="AW51" t="n" s="10">
-        <v>102.25</v>
+        <v>102.26</v>
       </c>
       <c r="AX51" t="n" s="10">
-        <v>101.65</v>
+        <v>101.68</v>
       </c>
       <c r="AY51" t="n" s="10">
-        <v>100.61</v>
+        <v>100.64</v>
       </c>
       <c r="AZ51" t="n" s="10">
-        <v>99.66</v>
+        <v>99.7</v>
       </c>
       <c r="BA51" t="n" s="10">
         <v>100.4</v>
       </c>
       <c r="BB51" t="n" s="10">
-        <v>99.4</v>
+        <v>99.44</v>
       </c>
       <c r="BC51" t="n" s="10">
-        <v>100.89</v>
+        <v>100.82</v>
       </c>
       <c r="BD51" t="n" s="10">
         <v>99.84</v>
       </c>
       <c r="BE51" t="n" s="10">
-        <v>99.96</v>
+        <v>99.93</v>
       </c>
       <c r="BF51" t="n" s="10">
-        <v>101.26</v>
+        <v>101.13</v>
       </c>
       <c r="BG51" t="n" s="10">
-        <v>98.53</v>
+        <v>98.59</v>
       </c>
       <c r="BH51" t="n" s="10">
-        <v>100.52</v>
+        <v>100.41</v>
       </c>
       <c r="BI51" t="n" s="10">
-        <v>99.28</v>
+        <v>99.23</v>
       </c>
       <c r="BJ51" t="n" s="10">
-        <v>98.73</v>
+        <v>98.7</v>
       </c>
       <c r="BK51" t="n" s="10">
-        <v>99.27</v>
+        <v>99.19</v>
       </c>
       <c r="BL51" t="n" s="10">
-        <v>97.27</v>
+        <v>97.3</v>
       </c>
       <c r="BM51" t="n" s="10">
-        <v>97.26</v>
+        <v>97.37</v>
       </c>
       <c r="BN51" t="n" s="10">
-        <v>96.85</v>
+        <v>96.94</v>
       </c>
       <c r="BO51" t="n" s="10">
-        <v>97.78</v>
+        <v>97.63</v>
       </c>
       <c r="BP51" t="n" s="10">
-        <v>97.08</v>
+        <v>96.66</v>
       </c>
       <c r="BQ51" t="n" s="10">
+        <v>96.68</v>
+      </c>
+      <c r="BR51" t="n" s="10">
+        <v>96.64</v>
+      </c>
+      <c r="BS51" t="n" s="10">
+        <v>96.55</v>
+      </c>
+      <c r="BT51" t="n" s="10">
+        <v>97.77</v>
+      </c>
+      <c r="BU51" t="n" s="10">
+        <v>96.78</v>
+      </c>
+      <c r="BV51" t="n" s="10">
         <v>96.01</v>
       </c>
-      <c r="BR51" t="n" s="10">
-        <v>96.28</v>
-      </c>
-      <c r="BS51" t="n" s="10">
-        <v>96.75</v>
-      </c>
-      <c r="BT51" t="n" s="10">
-        <v>99.07</v>
-      </c>
-      <c r="BU51" t="n" s="10">
-        <v>95.81</v>
-      </c>
-      <c r="BV51" t="n" s="10">
-        <v>95.45</v>
-      </c>
       <c r="BW51" t="n" s="10">
-        <v>97.88</v>
+        <v>97.72</v>
       </c>
       <c r="BX51" t="n" s="10">
-        <v>96.93</v>
+        <v>95.66</v>
       </c>
       <c r="BY51" t="n" s="10">
-        <v>96.55</v>
+        <v>97.13</v>
       </c>
       <c r="BZ51" t="n" s="10">
-        <v>97.43</v>
+        <v>97.83</v>
       </c>
       <c r="CA51" t="n" s="10">
-        <v>97.97</v>
+        <v>98.04</v>
       </c>
       <c r="CB51" t="n" s="10">
-        <v>98.32</v>
+        <v>97.93</v>
       </c>
       <c r="CC51" t="n" s="10">
-        <v>97.73</v>
+        <v>97.7</v>
       </c>
       <c r="CD51" t="n" s="10">
-        <v>97.99</v>
+        <v>97.98</v>
       </c>
       <c r="CE51" t="n" s="10">
         <v>97.71</v>
       </c>
       <c r="CF51" t="n" s="10">
-        <v>97.95</v>
+        <v>97.9</v>
       </c>
       <c r="CG51" t="n" s="10">
-        <v>97.97</v>
+        <v>97.92</v>
       </c>
       <c r="CH51" t="n" s="10">
         <v>97.66</v>
       </c>
       <c r="CI51" t="n" s="10">
-        <v>98.84</v>
+        <v>98.77</v>
       </c>
       <c r="CJ51" t="n" s="10">
-        <v>97.66</v>
+        <v>97.68</v>
       </c>
       <c r="CK51" t="n" s="10">
-        <v>97.79</v>
+        <v>97.83</v>
       </c>
       <c r="CL51" t="n" s="10">
-        <v>97.97</v>
+        <v>98.0</v>
       </c>
       <c r="CM51" t="n" s="10">
-        <v>97.22</v>
+        <v>97.3</v>
       </c>
       <c r="CN51" t="n" s="10">
-        <v>98.58</v>
+        <v>98.57</v>
       </c>
       <c r="CO51" t="n" s="10">
         <v>98.38</v>
       </c>
       <c r="CP51" t="n" s="10">
-        <v>98.32</v>
+        <v>98.34</v>
       </c>
       <c r="CQ51" t="n" s="10">
-        <v>98.68</v>
+        <v>98.69</v>
       </c>
       <c r="CR51" t="n" s="10">
-        <v>98.47</v>
+        <v>98.51</v>
       </c>
       <c r="CS51" t="n" s="10">
-        <v>98.96</v>
+        <v>98.98</v>
       </c>
       <c r="CT51" t="n" s="10">
-        <v>98.78</v>
+        <v>98.82</v>
       </c>
       <c r="CU51" t="n" s="10">
         <v>99.78</v>
       </c>
       <c r="CV51" t="n" s="10">
-        <v>99.36</v>
+        <v>99.4</v>
       </c>
       <c r="CW51" t="n" s="10">
-        <v>100.27</v>
+        <v>100.26</v>
       </c>
       <c r="CX51" t="n" s="10">
-        <v>101.08</v>
+        <v>101.04</v>
       </c>
       <c r="CY51" t="n" s="10">
-        <v>99.78</v>
+        <v>99.81</v>
       </c>
       <c r="CZ51" t="n" s="10">
-        <v>101.72</v>
+        <v>101.64</v>
       </c>
       <c r="DA51" t="n" s="10">
-        <v>100.92</v>
+        <v>100.9</v>
       </c>
       <c r="DB51" t="n" s="10">
-        <v>100.88</v>
+        <v>100.85</v>
       </c>
       <c r="DC51" t="n" s="10">
-        <v>101.9</v>
+        <v>101.83</v>
       </c>
       <c r="DD51" t="n" s="10">
-        <v>100.23</v>
+        <v>100.3</v>
       </c>
       <c r="DE51" t="n" s="10">
+        <v>100.76</v>
+      </c>
+      <c r="DF51" t="n" s="10">
+        <v>100.62</v>
+      </c>
+      <c r="DG51" t="n" s="10">
         <v>100.73</v>
       </c>
-      <c r="DF51" t="n" s="10">
-        <v>100.58</v>
-      </c>
-      <c r="DG51" t="n" s="10">
-        <v>100.72</v>
-      </c>
       <c r="DH51" t="n" s="10">
-        <v>101.43</v>
+        <v>101.54</v>
       </c>
       <c r="DI51" t="n" s="10">
         <v>101.28</v>
       </c>
       <c r="DJ51" t="n" s="10">
-        <v>101.92</v>
+        <v>101.87</v>
       </c>
       <c r="DK51" t="n" s="10">
-        <v>102.08</v>
+        <v>102.01</v>
       </c>
       <c r="DL51" t="n" s="10">
-        <v>102.03</v>
+        <v>102.37</v>
       </c>
       <c r="DM51" t="n" s="10">
-        <v>103.55</v>
+        <v>103.42</v>
       </c>
       <c r="DN51" t="n" s="10">
-        <v>103.46</v>
+        <v>103.34</v>
       </c>
       <c r="DO51" t="n" s="10">
-        <v>104.46</v>
+        <v>104.34</v>
       </c>
       <c r="DP51" t="n" s="10">
-        <v>103.08</v>
+        <v>103.65</v>
       </c>
       <c r="DQ51" t="n" s="10">
-        <v>104.91</v>
+        <v>104.74</v>
       </c>
       <c r="DR51" t="n" s="10">
-        <v>106.01</v>
+        <v>105.75</v>
       </c>
       <c r="DS51" t="n" s="10">
-        <v>105.1</v>
+        <v>105.12</v>
       </c>
       <c r="DT51" t="n" s="10">
-        <v>105.59</v>
-      </c>
-      <c r="DU51" t="s" s="10">
-        <v>43</v>
+        <v>106.02</v>
+      </c>
+      <c r="DU51" t="n" s="10">
+        <v>106.6</v>
       </c>
       <c r="DV51" t="s" s="10">
         <v>43</v>
@@ -19490,7 +19490,7 @@
         <v>59</v>
       </c>
       <c r="C52" t="n" s="10">
-        <v>63.69</v>
+        <v>63.68</v>
       </c>
       <c r="D52" t="n" s="10">
         <v>65.62</v>
@@ -19499,7 +19499,7 @@
         <v>66.34</v>
       </c>
       <c r="F52" t="n" s="10">
-        <v>67.0</v>
+        <v>66.99</v>
       </c>
       <c r="G52" t="n" s="10">
         <v>69.18</v>
@@ -19511,19 +19511,19 @@
         <v>70.72</v>
       </c>
       <c r="J52" t="n" s="10">
-        <v>71.58</v>
+        <v>71.59</v>
       </c>
       <c r="K52" t="n" s="10">
         <v>71.86</v>
       </c>
       <c r="L52" t="n" s="10">
-        <v>73.1</v>
+        <v>73.11</v>
       </c>
       <c r="M52" t="n" s="10">
         <v>73.41</v>
       </c>
       <c r="N52" t="n" s="10">
-        <v>74.41</v>
+        <v>74.42</v>
       </c>
       <c r="O52" t="n" s="10">
         <v>73.77</v>
@@ -19544,34 +19544,34 @@
         <v>75.9</v>
       </c>
       <c r="U52" t="n" s="10">
-        <v>75.73</v>
+        <v>75.72</v>
       </c>
       <c r="V52" t="n" s="10">
         <v>75.95</v>
       </c>
       <c r="W52" t="n" s="10">
-        <v>75.73</v>
+        <v>75.74</v>
       </c>
       <c r="X52" t="n" s="10">
-        <v>75.11</v>
+        <v>75.1</v>
       </c>
       <c r="Y52" t="n" s="10">
         <v>75.4</v>
       </c>
       <c r="Z52" t="n" s="10">
-        <v>75.05</v>
+        <v>75.04</v>
       </c>
       <c r="AA52" t="n" s="10">
-        <v>74.42</v>
+        <v>74.41</v>
       </c>
       <c r="AB52" t="n" s="10">
-        <v>76.03</v>
+        <v>76.04</v>
       </c>
       <c r="AC52" t="n" s="10">
         <v>75.34</v>
       </c>
       <c r="AD52" t="n" s="10">
-        <v>74.87</v>
+        <v>74.86</v>
       </c>
       <c r="AE52" t="n" s="10">
         <v>75.46</v>
@@ -19589,13 +19589,13 @@
         <v>74.86</v>
       </c>
       <c r="AJ52" t="n" s="10">
+        <v>75.28</v>
+      </c>
+      <c r="AK52" t="n" s="10">
         <v>75.27</v>
       </c>
-      <c r="AK52" t="n" s="10">
-        <v>75.26</v>
-      </c>
       <c r="AL52" t="n" s="10">
-        <v>76.04</v>
+        <v>76.05</v>
       </c>
       <c r="AM52" t="n" s="10">
         <v>75.97</v>
@@ -19604,7 +19604,7 @@
         <v>75.23</v>
       </c>
       <c r="AO52" t="n" s="10">
-        <v>75.1</v>
+        <v>75.09</v>
       </c>
       <c r="AP52" t="n" s="10">
         <v>74.76</v>
@@ -19613,7 +19613,7 @@
         <v>75.49</v>
       </c>
       <c r="AR52" t="n" s="10">
-        <v>74.98</v>
+        <v>74.97</v>
       </c>
       <c r="AS52" t="n" s="10">
         <v>74.72</v>
@@ -19637,16 +19637,16 @@
         <v>74.89</v>
       </c>
       <c r="AZ52" t="n" s="10">
-        <v>74.41</v>
+        <v>74.4</v>
       </c>
       <c r="BA52" t="n" s="10">
         <v>74.95</v>
       </c>
       <c r="BB52" t="n" s="10">
-        <v>74.58</v>
+        <v>74.57</v>
       </c>
       <c r="BC52" t="n" s="10">
-        <v>76.26</v>
+        <v>76.27</v>
       </c>
       <c r="BD52" t="n" s="10">
         <v>76.06</v>
@@ -19655,13 +19655,13 @@
         <v>76.69</v>
       </c>
       <c r="BF52" t="n" s="10">
-        <v>78.08</v>
+        <v>78.09</v>
       </c>
       <c r="BG52" t="n" s="10">
-        <v>76.54</v>
+        <v>76.53</v>
       </c>
       <c r="BH52" t="n" s="10">
-        <v>78.16</v>
+        <v>78.17</v>
       </c>
       <c r="BI52" t="n" s="10">
         <v>77.14</v>
@@ -19670,19 +19670,19 @@
         <v>76.96</v>
       </c>
       <c r="BK52" t="n" s="10">
-        <v>79.29</v>
+        <v>79.32</v>
       </c>
       <c r="BL52" t="n" s="10">
-        <v>76.85</v>
+        <v>76.84</v>
       </c>
       <c r="BM52" t="n" s="10">
-        <v>78.28</v>
+        <v>78.26</v>
       </c>
       <c r="BN52" t="n" s="10">
         <v>79.36</v>
       </c>
       <c r="BO52" t="n" s="10">
-        <v>82.36</v>
+        <v>82.37</v>
       </c>
       <c r="BP52" t="n" s="10">
         <v>81.71</v>
@@ -19694,67 +19694,67 @@
         <v>83.57</v>
       </c>
       <c r="BS52" t="n" s="10">
-        <v>83.52</v>
+        <v>83.39</v>
       </c>
       <c r="BT52" t="n" s="10">
-        <v>86.94</v>
+        <v>86.96</v>
       </c>
       <c r="BU52" t="n" s="10">
-        <v>86.77</v>
+        <v>87.02</v>
       </c>
       <c r="BV52" t="n" s="10">
-        <v>85.9</v>
+        <v>86.38</v>
       </c>
       <c r="BW52" t="n" s="10">
-        <v>86.96</v>
+        <v>85.42</v>
       </c>
       <c r="BX52" t="n" s="10">
-        <v>85.74</v>
+        <v>86.24</v>
       </c>
       <c r="BY52" t="n" s="10">
-        <v>87.01</v>
+        <v>87.76</v>
       </c>
       <c r="BZ52" t="n" s="10">
-        <v>88.11</v>
+        <v>89.1</v>
       </c>
       <c r="CA52" t="n" s="10">
-        <v>87.47</v>
+        <v>84.69</v>
       </c>
       <c r="CB52" t="n" s="10">
-        <v>88.57</v>
+        <v>89.54</v>
       </c>
       <c r="CC52" t="n" s="10">
-        <v>88.97</v>
+        <v>89.68</v>
       </c>
       <c r="CD52" t="n" s="10">
-        <v>90.36</v>
+        <v>90.86</v>
       </c>
       <c r="CE52" t="n" s="10">
-        <v>90.47</v>
+        <v>89.09</v>
       </c>
       <c r="CF52" t="n" s="10">
-        <v>91.28</v>
+        <v>91.74</v>
       </c>
       <c r="CG52" t="n" s="10">
-        <v>91.75</v>
+        <v>91.99</v>
       </c>
       <c r="CH52" t="n" s="10">
-        <v>91.91</v>
+        <v>91.92</v>
       </c>
       <c r="CI52" t="n" s="10">
-        <v>93.93</v>
+        <v>93.83</v>
       </c>
       <c r="CJ52" t="n" s="10">
         <v>92.9</v>
       </c>
       <c r="CK52" t="n" s="10">
-        <v>92.88</v>
+        <v>92.89</v>
       </c>
       <c r="CL52" t="n" s="10">
         <v>93.41</v>
       </c>
       <c r="CM52" t="n" s="10">
-        <v>93.32</v>
+        <v>93.31</v>
       </c>
       <c r="CN52" t="n" s="10">
         <v>95.59</v>
@@ -19769,31 +19769,31 @@
         <v>97.26</v>
       </c>
       <c r="CR52" t="n" s="10">
-        <v>97.43</v>
+        <v>97.42</v>
       </c>
       <c r="CS52" t="n" s="10">
         <v>98.04</v>
       </c>
       <c r="CT52" t="n" s="10">
-        <v>97.99</v>
+        <v>97.98</v>
       </c>
       <c r="CU52" t="n" s="10">
         <v>99.49</v>
       </c>
       <c r="CV52" t="n" s="10">
-        <v>98.85</v>
+        <v>98.84</v>
       </c>
       <c r="CW52" t="n" s="10">
         <v>100.16</v>
       </c>
       <c r="CX52" t="n" s="10">
-        <v>101.59</v>
+        <v>101.6</v>
       </c>
       <c r="CY52" t="n" s="10">
-        <v>100.06</v>
+        <v>100.05</v>
       </c>
       <c r="CZ52" t="n" s="10">
-        <v>103.21</v>
+        <v>103.23</v>
       </c>
       <c r="DA52" t="n" s="10">
         <v>102.46</v>
@@ -19802,16 +19802,16 @@
         <v>103.23</v>
       </c>
       <c r="DC52" t="n" s="10">
-        <v>105.28</v>
+        <v>105.3</v>
       </c>
       <c r="DD52" t="n" s="10">
-        <v>103.61</v>
+        <v>103.6</v>
       </c>
       <c r="DE52" t="n" s="10">
-        <v>105.02</v>
+        <v>105.01</v>
       </c>
       <c r="DF52" t="n" s="10">
-        <v>105.6</v>
+        <v>105.58</v>
       </c>
       <c r="DG52" t="n" s="10">
         <v>107.13</v>
@@ -19826,37 +19826,37 @@
         <v>111.9</v>
       </c>
       <c r="DK52" t="n" s="10">
-        <v>112.4</v>
+        <v>112.39</v>
       </c>
       <c r="DL52" t="n" s="10">
-        <v>113.82</v>
+        <v>113.83</v>
       </c>
       <c r="DM52" t="n" s="10">
-        <v>115.94</v>
+        <v>115.93</v>
       </c>
       <c r="DN52" t="n" s="10">
-        <v>115.66</v>
+        <v>115.57</v>
       </c>
       <c r="DO52" t="n" s="10">
-        <v>116.88</v>
+        <v>116.73</v>
       </c>
       <c r="DP52" t="n" s="10">
-        <v>117.51</v>
+        <v>117.8</v>
       </c>
       <c r="DQ52" t="n" s="10">
-        <v>116.91</v>
+        <v>117.0</v>
       </c>
       <c r="DR52" t="n" s="10">
-        <v>118.33</v>
+        <v>118.2</v>
       </c>
       <c r="DS52" t="n" s="10">
-        <v>117.57</v>
+        <v>117.29</v>
       </c>
       <c r="DT52" t="n" s="10">
-        <v>124.82</v>
-      </c>
-      <c r="DU52" t="s" s="10">
-        <v>43</v>
+        <v>125.17</v>
+      </c>
+      <c r="DU52" t="n" s="10">
+        <v>131.83</v>
       </c>
       <c r="DV52" t="s" s="10">
         <v>43</v>
@@ -19870,22 +19870,22 @@
         <v>61</v>
       </c>
       <c r="C53" t="n" s="10">
-        <v>76.4</v>
+        <v>76.38</v>
       </c>
       <c r="D53" t="n" s="10">
         <v>76.38</v>
       </c>
       <c r="E53" t="n" s="10">
-        <v>76.55</v>
+        <v>76.53</v>
       </c>
       <c r="F53" t="n" s="10">
-        <v>76.27</v>
+        <v>76.26</v>
       </c>
       <c r="G53" t="n" s="10">
         <v>77.46</v>
       </c>
       <c r="H53" t="n" s="10">
-        <v>78.14</v>
+        <v>78.12</v>
       </c>
       <c r="I53" t="n" s="10">
         <v>78.63</v>
@@ -19909,13 +19909,13 @@
         <v>80.69</v>
       </c>
       <c r="P53" t="n" s="10">
-        <v>80.93</v>
+        <v>80.92</v>
       </c>
       <c r="Q53" t="n" s="10">
         <v>81.29</v>
       </c>
       <c r="R53" t="n" s="10">
-        <v>81.58</v>
+        <v>81.56</v>
       </c>
       <c r="S53" t="n" s="10">
         <v>81.74</v>
@@ -19939,19 +19939,19 @@
         <v>83.4</v>
       </c>
       <c r="Z53" t="n" s="10">
-        <v>83.57</v>
+        <v>83.55</v>
       </c>
       <c r="AA53" t="n" s="10">
         <v>83.65</v>
       </c>
       <c r="AB53" t="n" s="10">
-        <v>83.84</v>
+        <v>83.83</v>
       </c>
       <c r="AC53" t="n" s="10">
-        <v>83.93</v>
+        <v>83.92</v>
       </c>
       <c r="AD53" t="n" s="10">
-        <v>84.02</v>
+        <v>84.0</v>
       </c>
       <c r="AE53" t="n" s="10">
         <v>83.95</v>
@@ -19972,7 +19972,7 @@
         <v>84.43</v>
       </c>
       <c r="AK53" t="n" s="10">
-        <v>84.5</v>
+        <v>84.48</v>
       </c>
       <c r="AL53" t="n" s="10">
         <v>84.72</v>
@@ -19981,22 +19981,22 @@
         <v>85.11</v>
       </c>
       <c r="AN53" t="n" s="10">
-        <v>85.38</v>
+        <v>85.36</v>
       </c>
       <c r="AO53" t="n" s="10">
         <v>85.78</v>
       </c>
       <c r="AP53" t="n" s="10">
-        <v>85.92</v>
+        <v>85.91</v>
       </c>
       <c r="AQ53" t="n" s="10">
         <v>86.15</v>
       </c>
       <c r="AR53" t="n" s="10">
-        <v>86.34</v>
+        <v>86.32</v>
       </c>
       <c r="AS53" t="n" s="10">
-        <v>86.53</v>
+        <v>86.52</v>
       </c>
       <c r="AT53" t="n" s="10">
         <v>86.84</v>
@@ -20005,7 +20005,7 @@
         <v>86.94</v>
       </c>
       <c r="AV53" t="n" s="10">
-        <v>87.15</v>
+        <v>87.14</v>
       </c>
       <c r="AW53" t="n" s="10">
         <v>87.27</v>
@@ -20020,10 +20020,10 @@
         <v>87.61</v>
       </c>
       <c r="BA53" t="n" s="10">
-        <v>87.77</v>
+        <v>87.75</v>
       </c>
       <c r="BB53" t="n" s="10">
-        <v>87.98</v>
+        <v>87.96</v>
       </c>
       <c r="BC53" t="n" s="10">
         <v>88.05</v>
@@ -20032,10 +20032,10 @@
         <v>88.33</v>
       </c>
       <c r="BE53" t="n" s="10">
-        <v>88.49</v>
+        <v>88.48</v>
       </c>
       <c r="BF53" t="n" s="10">
-        <v>88.63</v>
+        <v>88.62</v>
       </c>
       <c r="BG53" t="n" s="10">
         <v>88.64</v>
@@ -20047,7 +20047,7 @@
         <v>88.91</v>
       </c>
       <c r="BJ53" t="n" s="10">
-        <v>89.01</v>
+        <v>88.99</v>
       </c>
       <c r="BK53" t="n" s="10">
         <v>89.16</v>
@@ -20056,55 +20056,55 @@
         <v>89.34</v>
       </c>
       <c r="BM53" t="n" s="10">
-        <v>89.51</v>
+        <v>89.5</v>
       </c>
       <c r="BN53" t="n" s="10">
         <v>89.6</v>
       </c>
       <c r="BO53" t="n" s="10">
-        <v>89.73</v>
+        <v>89.72</v>
       </c>
       <c r="BP53" t="n" s="10">
-        <v>89.81</v>
+        <v>89.79</v>
       </c>
       <c r="BQ53" t="n" s="10">
-        <v>90.02</v>
+        <v>90.0</v>
       </c>
       <c r="BR53" t="n" s="10">
-        <v>90.17</v>
+        <v>90.16</v>
       </c>
       <c r="BS53" t="n" s="10">
         <v>90.82</v>
       </c>
       <c r="BT53" t="n" s="10">
-        <v>91.0</v>
+        <v>90.99</v>
       </c>
       <c r="BU53" t="n" s="10">
-        <v>91.12</v>
+        <v>91.11</v>
       </c>
       <c r="BV53" t="n" s="10">
         <v>91.33</v>
       </c>
       <c r="BW53" t="n" s="10">
-        <v>90.64</v>
+        <v>90.63</v>
       </c>
       <c r="BX53" t="n" s="10">
         <v>90.8</v>
       </c>
       <c r="BY53" t="n" s="10">
-        <v>90.97</v>
+        <v>90.96</v>
       </c>
       <c r="BZ53" t="n" s="10">
-        <v>91.13</v>
+        <v>91.12</v>
       </c>
       <c r="CA53" t="n" s="10">
-        <v>91.52</v>
+        <v>91.51</v>
       </c>
       <c r="CB53" t="n" s="10">
-        <v>91.77</v>
+        <v>91.75</v>
       </c>
       <c r="CC53" t="n" s="10">
-        <v>92.2</v>
+        <v>92.19</v>
       </c>
       <c r="CD53" t="n" s="10">
         <v>92.66</v>
@@ -20113,16 +20113,16 @@
         <v>93.55</v>
       </c>
       <c r="CF53" t="n" s="10">
-        <v>94.12</v>
+        <v>94.11</v>
       </c>
       <c r="CG53" t="n" s="10">
         <v>94.5</v>
       </c>
       <c r="CH53" t="n" s="10">
-        <v>94.86</v>
+        <v>94.84</v>
       </c>
       <c r="CI53" t="n" s="10">
-        <v>95.34</v>
+        <v>95.33</v>
       </c>
       <c r="CJ53" t="n" s="10">
         <v>95.72</v>
@@ -20131,7 +20131,7 @@
         <v>96.11</v>
       </c>
       <c r="CL53" t="n" s="10">
-        <v>96.43</v>
+        <v>96.42</v>
       </c>
       <c r="CM53" t="n" s="10">
         <v>96.43</v>
@@ -20146,16 +20146,16 @@
         <v>97.6</v>
       </c>
       <c r="CQ53" t="n" s="10">
-        <v>97.99</v>
+        <v>97.97</v>
       </c>
       <c r="CR53" t="n" s="10">
-        <v>98.3</v>
+        <v>98.29</v>
       </c>
       <c r="CS53" t="n" s="10">
         <v>98.68</v>
       </c>
       <c r="CT53" t="n" s="10">
-        <v>98.98</v>
+        <v>98.97</v>
       </c>
       <c r="CU53" t="n" s="10">
         <v>99.48</v>
@@ -20164,79 +20164,79 @@
         <v>99.88</v>
       </c>
       <c r="CW53" t="n" s="10">
-        <v>100.18</v>
+        <v>100.17</v>
       </c>
       <c r="CX53" t="n" s="10">
-        <v>100.47</v>
+        <v>100.46</v>
       </c>
       <c r="CY53" t="n" s="10">
-        <v>100.38</v>
+        <v>100.37</v>
       </c>
       <c r="CZ53" t="n" s="10">
-        <v>100.73</v>
+        <v>100.75</v>
       </c>
       <c r="DA53" t="n" s="10">
-        <v>101.11</v>
+        <v>101.14</v>
       </c>
       <c r="DB53" t="n" s="10">
-        <v>101.47</v>
+        <v>101.37</v>
       </c>
       <c r="DC53" t="n" s="10">
-        <v>101.87</v>
+        <v>101.89</v>
       </c>
       <c r="DD53" t="n" s="10">
-        <v>102.17</v>
+        <v>102.21</v>
       </c>
       <c r="DE53" t="n" s="10">
-        <v>102.61</v>
+        <v>102.67</v>
       </c>
       <c r="DF53" t="n" s="10">
-        <v>103.05</v>
+        <v>102.88</v>
       </c>
       <c r="DG53" t="n" s="10">
-        <v>104.04</v>
+        <v>104.1</v>
       </c>
       <c r="DH53" t="n" s="10">
-        <v>104.58</v>
+        <v>104.57</v>
       </c>
       <c r="DI53" t="n" s="10">
-        <v>105.02</v>
+        <v>104.96</v>
       </c>
       <c r="DJ53" t="n" s="10">
-        <v>105.34</v>
+        <v>105.53</v>
       </c>
       <c r="DK53" t="n" s="10">
-        <v>105.67</v>
+        <v>105.6</v>
       </c>
       <c r="DL53" t="n" s="10">
-        <v>106.09</v>
+        <v>105.92</v>
       </c>
       <c r="DM53" t="n" s="10">
-        <v>106.35</v>
+        <v>106.08</v>
       </c>
       <c r="DN53" t="n" s="10">
-        <v>106.61</v>
+        <v>107.34</v>
       </c>
       <c r="DO53" t="n" s="10">
-        <v>106.31</v>
+        <v>106.04</v>
       </c>
       <c r="DP53" t="n" s="10">
-        <v>106.47</v>
+        <v>106.18</v>
       </c>
       <c r="DQ53" t="n" s="10">
-        <v>106.68</v>
+        <v>106.39</v>
       </c>
       <c r="DR53" t="n" s="10">
-        <v>106.92</v>
+        <v>107.82</v>
       </c>
       <c r="DS53" t="n" s="10">
-        <v>107.46</v>
+        <v>107.14</v>
       </c>
       <c r="DT53" t="n" s="10">
-        <v>107.68</v>
-      </c>
-      <c r="DU53" t="s" s="10">
-        <v>43</v>
+        <v>107.37</v>
+      </c>
+      <c r="DU53" t="n" s="10">
+        <v>107.62</v>
       </c>
       <c r="DV53" t="s" s="10">
         <v>43</v>
@@ -20250,25 +20250,25 @@
         <v>63</v>
       </c>
       <c r="C54" t="n" s="10">
-        <v>90.93</v>
+        <v>90.88</v>
       </c>
       <c r="D54" t="n" s="10">
-        <v>93.62</v>
+        <v>93.58</v>
       </c>
       <c r="E54" t="n" s="10">
         <v>93.62</v>
       </c>
       <c r="F54" t="n" s="10">
-        <v>93.09</v>
+        <v>93.02</v>
       </c>
       <c r="G54" t="n" s="10">
-        <v>95.69</v>
+        <v>95.72</v>
       </c>
       <c r="H54" t="n" s="10">
-        <v>95.03</v>
+        <v>95.0</v>
       </c>
       <c r="I54" t="n" s="10">
-        <v>96.61</v>
+        <v>96.58</v>
       </c>
       <c r="J54" t="n" s="10">
         <v>97.65</v>
@@ -20283,238 +20283,238 @@
         <v>98.22</v>
       </c>
       <c r="N54" t="n" s="10">
-        <v>99.15</v>
+        <v>99.22</v>
       </c>
       <c r="O54" t="n" s="10">
-        <v>98.74</v>
+        <v>98.78</v>
       </c>
       <c r="P54" t="n" s="10">
         <v>98.84</v>
       </c>
       <c r="Q54" t="n" s="10">
-        <v>98.92</v>
+        <v>98.96</v>
       </c>
       <c r="R54" t="n" s="10">
-        <v>98.6</v>
+        <v>98.57</v>
       </c>
       <c r="S54" t="n" s="10">
-        <v>99.73</v>
+        <v>99.79</v>
       </c>
       <c r="T54" t="n" s="10">
-        <v>99.9</v>
+        <v>99.87</v>
       </c>
       <c r="U54" t="n" s="10">
         <v>99.75</v>
       </c>
       <c r="V54" t="n" s="10">
-        <v>100.42</v>
+        <v>100.39</v>
       </c>
       <c r="W54" t="n" s="10">
-        <v>100.64</v>
+        <v>100.67</v>
       </c>
       <c r="X54" t="n" s="10">
-        <v>99.21</v>
+        <v>99.14</v>
       </c>
       <c r="Y54" t="n" s="10">
-        <v>99.69</v>
+        <v>99.71</v>
       </c>
       <c r="Z54" t="n" s="10">
-        <v>98.66</v>
+        <v>98.64</v>
       </c>
       <c r="AA54" t="n" s="10">
-        <v>97.34</v>
+        <v>97.28</v>
       </c>
       <c r="AB54" t="n" s="10">
-        <v>98.77</v>
+        <v>98.8</v>
       </c>
       <c r="AC54" t="n" s="10">
-        <v>97.75</v>
+        <v>97.77</v>
       </c>
       <c r="AD54" t="n" s="10">
-        <v>97.65</v>
+        <v>97.63</v>
       </c>
       <c r="AE54" t="n" s="10">
-        <v>98.71</v>
+        <v>98.74</v>
       </c>
       <c r="AF54" t="n" s="10">
-        <v>99.11</v>
+        <v>99.07</v>
       </c>
       <c r="AG54" t="n" s="10">
-        <v>100.78</v>
+        <v>100.81</v>
       </c>
       <c r="AH54" t="n" s="10">
-        <v>102.2</v>
+        <v>102.22</v>
       </c>
       <c r="AI54" t="n" s="10">
         <v>101.96</v>
       </c>
       <c r="AJ54" t="n" s="10">
-        <v>101.73</v>
+        <v>101.76</v>
       </c>
       <c r="AK54" t="n" s="10">
-        <v>100.93</v>
+        <v>100.91</v>
       </c>
       <c r="AL54" t="n" s="10">
-        <v>100.36</v>
+        <v>100.43</v>
       </c>
       <c r="AM54" t="n" s="10">
-        <v>98.43</v>
+        <v>98.44</v>
       </c>
       <c r="AN54" t="n" s="10">
-        <v>97.14</v>
+        <v>97.12</v>
       </c>
       <c r="AO54" t="n" s="10">
-        <v>96.18</v>
+        <v>96.16</v>
       </c>
       <c r="AP54" t="n" s="10">
-        <v>95.08</v>
+        <v>95.03</v>
       </c>
       <c r="AQ54" t="n" s="10">
         <v>96.18</v>
       </c>
       <c r="AR54" t="n" s="10">
-        <v>96.11</v>
+        <v>96.09</v>
       </c>
       <c r="AS54" t="n" s="10">
-        <v>96.23</v>
+        <v>96.2</v>
       </c>
       <c r="AT54" t="n" s="10">
-        <v>97.44</v>
+        <v>97.43</v>
       </c>
       <c r="AU54" t="n" s="10">
-        <v>97.57</v>
+        <v>97.49</v>
       </c>
       <c r="AV54" t="n" s="10">
-        <v>98.16</v>
+        <v>98.14</v>
       </c>
       <c r="AW54" t="n" s="10">
-        <v>98.94</v>
+        <v>98.96</v>
       </c>
       <c r="AX54" t="n" s="10">
-        <v>98.85</v>
+        <v>98.81</v>
       </c>
       <c r="AY54" t="n" s="10">
-        <v>99.17</v>
+        <v>99.14</v>
       </c>
       <c r="AZ54" t="n" s="10">
-        <v>100.14</v>
+        <v>100.13</v>
       </c>
       <c r="BA54" t="n" s="10">
         <v>100.76</v>
       </c>
       <c r="BB54" t="n" s="10">
-        <v>100.96</v>
+        <v>100.94</v>
       </c>
       <c r="BC54" t="n" s="10">
-        <v>101.58</v>
+        <v>101.6</v>
       </c>
       <c r="BD54" t="n" s="10">
-        <v>100.63</v>
+        <v>100.68</v>
       </c>
       <c r="BE54" t="n" s="10">
-        <v>100.61</v>
+        <v>100.44</v>
       </c>
       <c r="BF54" t="n" s="10">
-        <v>100.62</v>
+        <v>100.68</v>
       </c>
       <c r="BG54" t="n" s="10">
-        <v>99.38</v>
+        <v>99.42</v>
       </c>
       <c r="BH54" t="n" s="10">
-        <v>99.92</v>
+        <v>100.03</v>
       </c>
       <c r="BI54" t="n" s="10">
-        <v>98.73</v>
+        <v>98.54</v>
       </c>
       <c r="BJ54" t="n" s="10">
-        <v>98.06</v>
+        <v>98.12</v>
       </c>
       <c r="BK54" t="n" s="10">
-        <v>97.72</v>
+        <v>97.81</v>
       </c>
       <c r="BL54" t="n" s="10">
-        <v>96.89</v>
+        <v>96.9</v>
       </c>
       <c r="BM54" t="n" s="10">
-        <v>96.9</v>
+        <v>96.74</v>
       </c>
       <c r="BN54" t="n" s="10">
         <v>97.12</v>
       </c>
       <c r="BO54" t="n" s="10">
-        <v>97.63</v>
+        <v>97.74</v>
       </c>
       <c r="BP54" t="n" s="10">
-        <v>97.45</v>
+        <v>97.66</v>
       </c>
       <c r="BQ54" t="n" s="10">
-        <v>98.6</v>
+        <v>98.13</v>
       </c>
       <c r="BR54" t="n" s="10">
-        <v>96.53</v>
+        <v>96.4</v>
       </c>
       <c r="BS54" t="n" s="10">
-        <v>95.81</v>
+        <v>96.16</v>
       </c>
       <c r="BT54" t="n" s="10">
-        <v>96.2</v>
+        <v>96.7</v>
       </c>
       <c r="BU54" t="n" s="10">
-        <v>96.28</v>
+        <v>95.48</v>
       </c>
       <c r="BV54" t="n" s="10">
-        <v>95.7</v>
+        <v>95.47</v>
       </c>
       <c r="BW54" t="n" s="10">
-        <v>99.61</v>
+        <v>100.17</v>
       </c>
       <c r="BX54" t="n" s="10">
-        <v>100.09</v>
+        <v>100.48</v>
       </c>
       <c r="BY54" t="n" s="10">
-        <v>101.81</v>
+        <v>101.25</v>
       </c>
       <c r="BZ54" t="n" s="10">
-        <v>99.66</v>
+        <v>99.52</v>
       </c>
       <c r="CA54" t="n" s="10">
-        <v>99.27</v>
+        <v>99.46</v>
       </c>
       <c r="CB54" t="n" s="10">
-        <v>98.65</v>
+        <v>98.71</v>
       </c>
       <c r="CC54" t="n" s="10">
-        <v>97.74</v>
+        <v>97.7</v>
       </c>
       <c r="CD54" t="n" s="10">
-        <v>97.24</v>
+        <v>97.22</v>
       </c>
       <c r="CE54" t="n" s="10">
-        <v>96.09</v>
+        <v>96.07</v>
       </c>
       <c r="CF54" t="n" s="10">
-        <v>95.63</v>
+        <v>95.64</v>
       </c>
       <c r="CG54" t="n" s="10">
         <v>95.55</v>
       </c>
       <c r="CH54" t="n" s="10">
-        <v>95.29</v>
+        <v>95.28</v>
       </c>
       <c r="CI54" t="n" s="10">
-        <v>95.54</v>
+        <v>95.56</v>
       </c>
       <c r="CJ54" t="n" s="10">
-        <v>95.22</v>
+        <v>95.2</v>
       </c>
       <c r="CK54" t="n" s="10">
-        <v>95.27</v>
+        <v>95.25</v>
       </c>
       <c r="CL54" t="n" s="10">
-        <v>95.47</v>
+        <v>95.46</v>
       </c>
       <c r="CM54" t="n" s="10">
-        <v>95.69</v>
+        <v>95.65</v>
       </c>
       <c r="CN54" t="n" s="10">
         <v>96.39</v>
@@ -20523,100 +20523,100 @@
         <v>96.58</v>
       </c>
       <c r="CP54" t="n" s="10">
-        <v>96.75</v>
+        <v>96.74</v>
       </c>
       <c r="CQ54" t="n" s="10">
-        <v>96.78</v>
+        <v>96.76</v>
       </c>
       <c r="CR54" t="n" s="10">
-        <v>97.36</v>
+        <v>97.33</v>
       </c>
       <c r="CS54" t="n" s="10">
-        <v>97.84</v>
+        <v>97.79</v>
       </c>
       <c r="CT54" t="n" s="10">
-        <v>98.43</v>
+        <v>98.51</v>
       </c>
       <c r="CU54" t="n" s="10">
-        <v>99.35</v>
+        <v>99.31</v>
       </c>
       <c r="CV54" t="n" s="10">
-        <v>99.31</v>
+        <v>99.24</v>
       </c>
       <c r="CW54" t="n" s="10">
-        <v>100.2</v>
+        <v>100.13</v>
       </c>
       <c r="CX54" t="n" s="10">
-        <v>100.92</v>
+        <v>101.1</v>
       </c>
       <c r="CY54" t="n" s="10">
-        <v>101.65</v>
+        <v>101.57</v>
       </c>
       <c r="CZ54" t="n" s="10">
-        <v>102.17</v>
+        <v>102.15</v>
       </c>
       <c r="DA54" t="n" s="10">
-        <v>101.59</v>
+        <v>101.55</v>
       </c>
       <c r="DB54" t="n" s="10">
-        <v>101.44</v>
+        <v>101.55</v>
       </c>
       <c r="DC54" t="n" s="10">
-        <v>100.79</v>
+        <v>100.77</v>
       </c>
       <c r="DD54" t="n" s="10">
-        <v>100.65</v>
+        <v>100.59</v>
       </c>
       <c r="DE54" t="n" s="10">
-        <v>101.07</v>
+        <v>101.01</v>
       </c>
       <c r="DF54" t="n" s="10">
-        <v>100.56</v>
+        <v>100.66</v>
       </c>
       <c r="DG54" t="n" s="10">
-        <v>100.33</v>
+        <v>100.27</v>
       </c>
       <c r="DH54" t="n" s="10">
-        <v>100.25</v>
+        <v>100.19</v>
       </c>
       <c r="DI54" t="n" s="10">
-        <v>99.6</v>
+        <v>99.5</v>
       </c>
       <c r="DJ54" t="n" s="10">
-        <v>99.86</v>
+        <v>100.08</v>
       </c>
       <c r="DK54" t="n" s="10">
-        <v>100.25</v>
+        <v>100.24</v>
       </c>
       <c r="DL54" t="n" s="10">
-        <v>100.29</v>
+        <v>100.01</v>
       </c>
       <c r="DM54" t="n" s="10">
-        <v>100.83</v>
+        <v>100.94</v>
       </c>
       <c r="DN54" t="n" s="10">
-        <v>101.28</v>
+        <v>101.37</v>
       </c>
       <c r="DO54" t="n" s="10">
-        <v>101.64</v>
+        <v>101.81</v>
       </c>
       <c r="DP54" t="n" s="10">
-        <v>104.69</v>
+        <v>103.96</v>
       </c>
       <c r="DQ54" t="n" s="10">
-        <v>102.45</v>
+        <v>102.99</v>
       </c>
       <c r="DR54" t="n" s="10">
-        <v>102.98</v>
+        <v>102.94</v>
       </c>
       <c r="DS54" t="n" s="10">
-        <v>101.95</v>
+        <v>102.16</v>
       </c>
       <c r="DT54" t="n" s="10">
-        <v>101.64</v>
-      </c>
-      <c r="DU54" t="s" s="10">
-        <v>43</v>
+        <v>100.68</v>
+      </c>
+      <c r="DU54" t="n" s="10">
+        <v>100.81</v>
       </c>
       <c r="DV54" t="s" s="10">
         <v>43</v>
@@ -20630,22 +20630,22 @@
         <v>65</v>
       </c>
       <c r="C55" t="n" s="10">
-        <v>84.85</v>
+        <v>84.77</v>
       </c>
       <c r="D55" t="n" s="10">
-        <v>89.22</v>
+        <v>89.18</v>
       </c>
       <c r="E55" t="n" s="10">
         <v>88.97</v>
       </c>
       <c r="F55" t="n" s="10">
-        <v>87.4</v>
+        <v>87.31</v>
       </c>
       <c r="G55" t="n" s="10">
-        <v>90.15</v>
+        <v>90.18</v>
       </c>
       <c r="H55" t="n" s="10">
-        <v>88.36</v>
+        <v>88.33</v>
       </c>
       <c r="I55" t="n" s="10">
         <v>89.69</v>
@@ -20663,208 +20663,208 @@
         <v>90.4</v>
       </c>
       <c r="N55" t="n" s="10">
-        <v>91.91</v>
+        <v>91.98</v>
       </c>
       <c r="O55" t="n" s="10">
-        <v>90.44</v>
+        <v>90.47</v>
       </c>
       <c r="P55" t="n" s="10">
         <v>90.91</v>
       </c>
       <c r="Q55" t="n" s="10">
-        <v>90.96</v>
+        <v>90.99</v>
       </c>
       <c r="R55" t="n" s="10">
+        <v>90.17</v>
+      </c>
+      <c r="S55" t="n" s="10">
+        <v>92.49</v>
+      </c>
+      <c r="T55" t="n" s="10">
+        <v>90.74</v>
+      </c>
+      <c r="U55" t="n" s="10">
         <v>90.2</v>
       </c>
-      <c r="S55" t="n" s="10">
-        <v>92.43</v>
-      </c>
-      <c r="T55" t="n" s="10">
-        <v>90.77</v>
-      </c>
-      <c r="U55" t="n" s="10">
-        <v>90.22</v>
-      </c>
       <c r="V55" t="n" s="10">
-        <v>90.84</v>
+        <v>90.81</v>
       </c>
       <c r="W55" t="n" s="10">
-        <v>91.5</v>
+        <v>91.53</v>
       </c>
       <c r="X55" t="n" s="10">
-        <v>89.9</v>
+        <v>89.84</v>
       </c>
       <c r="Y55" t="n" s="10">
         <v>90.63</v>
       </c>
       <c r="Z55" t="n" s="10">
-        <v>90.13</v>
+        <v>90.08</v>
       </c>
       <c r="AA55" t="n" s="10">
-        <v>88.76</v>
+        <v>88.69</v>
       </c>
       <c r="AB55" t="n" s="10">
-        <v>92.67</v>
+        <v>92.72</v>
       </c>
       <c r="AC55" t="n" s="10">
-        <v>91.72</v>
+        <v>91.74</v>
       </c>
       <c r="AD55" t="n" s="10">
-        <v>91.17</v>
+        <v>91.15</v>
       </c>
       <c r="AE55" t="n" s="10">
-        <v>92.15</v>
+        <v>92.17</v>
       </c>
       <c r="AF55" t="n" s="10">
-        <v>90.48</v>
+        <v>90.44</v>
       </c>
       <c r="AG55" t="n" s="10">
-        <v>91.23</v>
+        <v>91.25</v>
       </c>
       <c r="AH55" t="n" s="10">
-        <v>91.07</v>
+        <v>91.09</v>
       </c>
       <c r="AI55" t="n" s="10">
         <v>89.68</v>
       </c>
       <c r="AJ55" t="n" s="10">
-        <v>90.92</v>
+        <v>90.94</v>
       </c>
       <c r="AK55" t="n" s="10">
         <v>91.18</v>
       </c>
       <c r="AL55" t="n" s="10">
-        <v>92.66</v>
+        <v>92.73</v>
       </c>
       <c r="AM55" t="n" s="10">
-        <v>93.26</v>
+        <v>93.27</v>
       </c>
       <c r="AN55" t="n" s="10">
-        <v>92.49</v>
+        <v>92.47</v>
       </c>
       <c r="AO55" t="n" s="10">
-        <v>92.89</v>
+        <v>92.87</v>
       </c>
       <c r="AP55" t="n" s="10">
-        <v>93.06</v>
+        <v>93.01</v>
       </c>
       <c r="AQ55" t="n" s="10">
         <v>93.91</v>
       </c>
       <c r="AR55" t="n" s="10">
-        <v>93.3</v>
+        <v>93.28</v>
       </c>
       <c r="AS55" t="n" s="10">
-        <v>92.91</v>
+        <v>92.88</v>
       </c>
       <c r="AT55" t="n" s="10">
-        <v>92.57</v>
+        <v>92.56</v>
       </c>
       <c r="AU55" t="n" s="10">
-        <v>91.86</v>
+        <v>91.79</v>
       </c>
       <c r="AV55" t="n" s="10">
-        <v>93.19</v>
+        <v>93.17</v>
       </c>
       <c r="AW55" t="n" s="10">
-        <v>92.8</v>
+        <v>92.81</v>
       </c>
       <c r="AX55" t="n" s="10">
-        <v>92.59</v>
+        <v>92.56</v>
       </c>
       <c r="AY55" t="n" s="10">
-        <v>92.67</v>
+        <v>92.65</v>
       </c>
       <c r="AZ55" t="n" s="10">
-        <v>91.83</v>
+        <v>91.8</v>
       </c>
       <c r="BA55" t="n" s="10">
         <v>92.22</v>
       </c>
       <c r="BB55" t="n" s="10">
-        <v>91.37</v>
+        <v>91.34</v>
       </c>
       <c r="BC55" t="n" s="10">
-        <v>92.66</v>
+        <v>92.68</v>
       </c>
       <c r="BD55" t="n" s="10">
         <v>92.21</v>
       </c>
       <c r="BE55" t="n" s="10">
-        <v>92.88</v>
+        <v>92.86</v>
       </c>
       <c r="BF55" t="n" s="10">
-        <v>94.33</v>
+        <v>94.36</v>
       </c>
       <c r="BG55" t="n" s="10">
-        <v>92.3</v>
+        <v>92.28</v>
       </c>
       <c r="BH55" t="n" s="10">
-        <v>94.63</v>
+        <v>94.65</v>
       </c>
       <c r="BI55" t="n" s="10">
-        <v>93.89</v>
+        <v>93.92</v>
       </c>
       <c r="BJ55" t="n" s="10">
-        <v>93.79</v>
+        <v>93.77</v>
       </c>
       <c r="BK55" t="n" s="10">
-        <v>94.93</v>
+        <v>94.96</v>
       </c>
       <c r="BL55" t="n" s="10">
-        <v>93.57</v>
+        <v>93.54</v>
       </c>
       <c r="BM55" t="n" s="10">
-        <v>94.05</v>
+        <v>93.99</v>
       </c>
       <c r="BN55" t="n" s="10">
-        <v>94.22</v>
+        <v>94.18</v>
       </c>
       <c r="BO55" t="n" s="10">
-        <v>94.69</v>
+        <v>94.79</v>
       </c>
       <c r="BP55" t="n" s="10">
-        <v>94.04</v>
+        <v>94.24</v>
       </c>
       <c r="BQ55" t="n" s="10">
-        <v>94.71</v>
+        <v>94.26</v>
       </c>
       <c r="BR55" t="n" s="10">
-        <v>94.56</v>
+        <v>94.42</v>
       </c>
       <c r="BS55" t="n" s="10">
-        <v>94.68</v>
+        <v>95.02</v>
       </c>
       <c r="BT55" t="n" s="10">
-        <v>96.69</v>
+        <v>97.21</v>
       </c>
       <c r="BU55" t="n" s="10">
-        <v>96.91</v>
+        <v>96.1</v>
       </c>
       <c r="BV55" t="n" s="10">
-        <v>94.94</v>
+        <v>94.72</v>
       </c>
       <c r="BW55" t="n" s="10">
-        <v>94.25</v>
+        <v>94.78</v>
       </c>
       <c r="BX55" t="n" s="10">
-        <v>92.23</v>
+        <v>92.57</v>
       </c>
       <c r="BY55" t="n" s="10">
-        <v>93.51</v>
+        <v>93.0</v>
       </c>
       <c r="BZ55" t="n" s="10">
-        <v>93.86</v>
+        <v>93.73</v>
       </c>
       <c r="CA55" t="n" s="10">
-        <v>94.0</v>
+        <v>94.18</v>
       </c>
       <c r="CB55" t="n" s="10">
-        <v>95.79</v>
+        <v>95.85</v>
       </c>
       <c r="CC55" t="n" s="10">
-        <v>96.7</v>
+        <v>96.66</v>
       </c>
       <c r="CD55" t="n" s="10">
         <v>97.8</v>
@@ -20873,28 +20873,28 @@
         <v>98.12</v>
       </c>
       <c r="CF55" t="n" s="10">
-        <v>98.34</v>
+        <v>98.35</v>
       </c>
       <c r="CG55" t="n" s="10">
         <v>98.55</v>
       </c>
       <c r="CH55" t="n" s="10">
-        <v>98.65</v>
+        <v>98.64</v>
       </c>
       <c r="CI55" t="n" s="10">
-        <v>100.15</v>
+        <v>100.18</v>
       </c>
       <c r="CJ55" t="n" s="10">
-        <v>99.52</v>
+        <v>99.5</v>
       </c>
       <c r="CK55" t="n" s="10">
-        <v>99.64</v>
+        <v>99.62</v>
       </c>
       <c r="CL55" t="n" s="10">
-        <v>99.7</v>
+        <v>99.68</v>
       </c>
       <c r="CM55" t="n" s="10">
-        <v>98.78</v>
+        <v>98.74</v>
       </c>
       <c r="CN55" t="n" s="10">
         <v>99.57</v>
@@ -20903,100 +20903,100 @@
         <v>99.04</v>
       </c>
       <c r="CP55" t="n" s="10">
-        <v>98.79</v>
+        <v>98.78</v>
       </c>
       <c r="CQ55" t="n" s="10">
+        <v>98.91</v>
+      </c>
+      <c r="CR55" t="n" s="10">
+        <v>98.47</v>
+      </c>
+      <c r="CS55" t="n" s="10">
         <v>98.93</v>
       </c>
-      <c r="CR55" t="n" s="10">
-        <v>98.5</v>
-      </c>
-      <c r="CS55" t="n" s="10">
-        <v>98.98</v>
-      </c>
       <c r="CT55" t="n" s="10">
-        <v>98.97</v>
+        <v>99.05</v>
       </c>
       <c r="CU55" t="n" s="10">
-        <v>99.87</v>
+        <v>99.83</v>
       </c>
       <c r="CV55" t="n" s="10">
-        <v>99.78</v>
+        <v>99.71</v>
       </c>
       <c r="CW55" t="n" s="10">
-        <v>100.14</v>
+        <v>100.07</v>
       </c>
       <c r="CX55" t="n" s="10">
-        <v>100.22</v>
+        <v>100.4</v>
       </c>
       <c r="CY55" t="n" s="10">
-        <v>98.5</v>
+        <v>98.42</v>
       </c>
       <c r="CZ55" t="n" s="10">
-        <v>99.76</v>
+        <v>99.75</v>
       </c>
       <c r="DA55" t="n" s="10">
-        <v>99.54</v>
+        <v>99.51</v>
       </c>
       <c r="DB55" t="n" s="10">
-        <v>100.18</v>
+        <v>100.29</v>
       </c>
       <c r="DC55" t="n" s="10">
-        <v>101.58</v>
+        <v>101.57</v>
       </c>
       <c r="DD55" t="n" s="10">
-        <v>100.47</v>
+        <v>100.41</v>
       </c>
       <c r="DE55" t="n" s="10">
-        <v>100.51</v>
+        <v>100.45</v>
       </c>
       <c r="DF55" t="n" s="10">
-        <v>100.32</v>
+        <v>100.41</v>
       </c>
       <c r="DG55" t="n" s="10">
-        <v>100.7</v>
+        <v>100.64</v>
       </c>
       <c r="DH55" t="n" s="10">
-        <v>101.73</v>
+        <v>101.68</v>
       </c>
       <c r="DI55" t="n" s="10">
-        <v>102.05</v>
+        <v>101.95</v>
       </c>
       <c r="DJ55" t="n" s="10">
-        <v>102.44</v>
+        <v>102.62</v>
       </c>
       <c r="DK55" t="n" s="10">
+        <v>102.03</v>
+      </c>
+      <c r="DL55" t="n" s="10">
+        <v>101.89</v>
+      </c>
+      <c r="DM55" t="n" s="10">
+        <v>102.7</v>
+      </c>
+      <c r="DN55" t="n" s="10">
+        <v>102.66</v>
+      </c>
+      <c r="DO55" t="n" s="10">
+        <v>102.89</v>
+      </c>
+      <c r="DP55" t="n" s="10">
+        <v>100.99</v>
+      </c>
+      <c r="DQ55" t="n" s="10">
         <v>102.12</v>
       </c>
-      <c r="DL55" t="n" s="10">
-        <v>101.97</v>
-      </c>
-      <c r="DM55" t="n" s="10">
-        <v>102.74</v>
-      </c>
-      <c r="DN55" t="n" s="10">
-        <v>102.56</v>
-      </c>
-      <c r="DO55" t="n" s="10">
-        <v>102.93</v>
-      </c>
-      <c r="DP55" t="n" s="10">
-        <v>101.07</v>
-      </c>
-      <c r="DQ55" t="n" s="10">
-        <v>102.06</v>
-      </c>
       <c r="DR55" t="n" s="10">
-        <v>102.93</v>
+        <v>103.0</v>
       </c>
       <c r="DS55" t="n" s="10">
-        <v>103.54</v>
+        <v>103.5</v>
       </c>
       <c r="DT55" t="n" s="10">
-        <v>105.6</v>
-      </c>
-      <c r="DU55" t="s" s="10">
-        <v>43</v>
+        <v>105.69</v>
+      </c>
+      <c r="DU55" t="n" s="10">
+        <v>109.32</v>
       </c>
       <c r="DV55" t="s" s="10">
         <v>43</v>
@@ -21010,7 +21010,7 @@
         <v>67</v>
       </c>
       <c r="C56" t="n" s="10">
-        <v>86.1</v>
+        <v>86.01</v>
       </c>
       <c r="D56" t="n" s="10">
         <v>91.34</v>
@@ -21019,13 +21019,13 @@
         <v>91.0</v>
       </c>
       <c r="F56" t="n" s="10">
-        <v>89.16</v>
+        <v>89.08</v>
       </c>
       <c r="G56" t="n" s="10">
-        <v>92.18</v>
+        <v>92.21</v>
       </c>
       <c r="H56" t="n" s="10">
-        <v>89.88</v>
+        <v>89.85</v>
       </c>
       <c r="I56" t="n" s="10">
         <v>91.31</v>
@@ -21043,106 +21043,106 @@
         <v>91.94</v>
       </c>
       <c r="N56" t="n" s="10">
-        <v>93.75</v>
+        <v>93.82</v>
       </c>
       <c r="O56" t="n" s="10">
-        <v>91.96</v>
+        <v>91.99</v>
       </c>
       <c r="P56" t="n" s="10">
         <v>92.46</v>
       </c>
       <c r="Q56" t="n" s="10">
-        <v>92.48</v>
+        <v>92.51</v>
       </c>
       <c r="R56" t="n" s="10">
-        <v>91.59</v>
+        <v>91.56</v>
       </c>
       <c r="S56" t="n" s="10">
-        <v>94.12</v>
+        <v>94.18</v>
       </c>
       <c r="T56" t="n" s="10">
-        <v>92.26</v>
+        <v>92.23</v>
       </c>
       <c r="U56" t="n" s="10">
-        <v>91.65</v>
+        <v>91.62</v>
       </c>
       <c r="V56" t="n" s="10">
-        <v>92.35</v>
+        <v>92.32</v>
       </c>
       <c r="W56" t="n" s="10">
-        <v>93.12</v>
+        <v>93.15</v>
       </c>
       <c r="X56" t="n" s="10">
-        <v>91.28</v>
+        <v>91.22</v>
       </c>
       <c r="Y56" t="n" s="10">
         <v>92.09</v>
       </c>
       <c r="Z56" t="n" s="10">
-        <v>91.45</v>
+        <v>91.43</v>
       </c>
       <c r="AA56" t="n" s="10">
-        <v>89.8</v>
+        <v>89.73</v>
       </c>
       <c r="AB56" t="n" s="10">
-        <v>94.24</v>
+        <v>94.29</v>
       </c>
       <c r="AC56" t="n" s="10">
         <v>93.13</v>
       </c>
       <c r="AD56" t="n" s="10">
-        <v>92.5</v>
+        <v>92.48</v>
       </c>
       <c r="AE56" t="n" s="10">
-        <v>93.65</v>
+        <v>93.67</v>
       </c>
       <c r="AF56" t="n" s="10">
-        <v>91.7</v>
+        <v>91.68</v>
       </c>
       <c r="AG56" t="n" s="10">
-        <v>92.57</v>
+        <v>92.59</v>
       </c>
       <c r="AH56" t="n" s="10">
-        <v>92.28</v>
+        <v>92.3</v>
       </c>
       <c r="AI56" t="n" s="10">
         <v>90.71</v>
       </c>
       <c r="AJ56" t="n" s="10">
-        <v>92.03</v>
+        <v>92.05</v>
       </c>
       <c r="AK56" t="n" s="10">
-        <v>92.21</v>
+        <v>92.23</v>
       </c>
       <c r="AL56" t="n" s="10">
-        <v>93.95</v>
+        <v>94.01</v>
       </c>
       <c r="AM56" t="n" s="10">
-        <v>94.44</v>
+        <v>94.48</v>
       </c>
       <c r="AN56" t="n" s="10">
-        <v>93.56</v>
+        <v>93.54</v>
       </c>
       <c r="AO56" t="n" s="10">
-        <v>94.01</v>
+        <v>93.99</v>
       </c>
       <c r="AP56" t="n" s="10">
-        <v>94.17</v>
+        <v>94.14</v>
       </c>
       <c r="AQ56" t="n" s="10">
         <v>95.08</v>
       </c>
       <c r="AR56" t="n" s="10">
-        <v>94.28</v>
+        <v>94.26</v>
       </c>
       <c r="AS56" t="n" s="10">
-        <v>93.76</v>
+        <v>93.73</v>
       </c>
       <c r="AT56" t="n" s="10">
-        <v>93.27</v>
+        <v>93.25</v>
       </c>
       <c r="AU56" t="n" s="10">
-        <v>92.47</v>
+        <v>92.42</v>
       </c>
       <c r="AV56" t="n" s="10">
         <v>93.96</v>
@@ -21151,22 +21151,22 @@
         <v>93.45</v>
       </c>
       <c r="AX56" t="n" s="10">
-        <v>93.09</v>
+        <v>93.08</v>
       </c>
       <c r="AY56" t="n" s="10">
-        <v>93.05</v>
+        <v>93.03</v>
       </c>
       <c r="AZ56" t="n" s="10">
-        <v>92.0</v>
+        <v>91.99</v>
       </c>
       <c r="BA56" t="n" s="10">
         <v>92.39</v>
       </c>
       <c r="BB56" t="n" s="10">
-        <v>91.5</v>
+        <v>91.49</v>
       </c>
       <c r="BC56" t="n" s="10">
-        <v>93.06</v>
+        <v>93.09</v>
       </c>
       <c r="BD56" t="n" s="10">
         <v>92.47</v>
@@ -21175,208 +21175,208 @@
         <v>93.22</v>
       </c>
       <c r="BF56" t="n" s="10">
-        <v>94.76</v>
+        <v>94.81</v>
       </c>
       <c r="BG56" t="n" s="10">
-        <v>92.26</v>
+        <v>92.25</v>
       </c>
       <c r="BH56" t="n" s="10">
-        <v>94.85</v>
+        <v>94.89</v>
       </c>
       <c r="BI56" t="n" s="10">
-        <v>93.92</v>
+        <v>93.95</v>
       </c>
       <c r="BJ56" t="n" s="10">
         <v>93.74</v>
       </c>
       <c r="BK56" t="n" s="10">
-        <v>95.13</v>
+        <v>95.17</v>
       </c>
       <c r="BL56" t="n" s="10">
-        <v>93.63</v>
+        <v>93.62</v>
       </c>
       <c r="BM56" t="n" s="10">
-        <v>94.28</v>
+        <v>94.22</v>
       </c>
       <c r="BN56" t="n" s="10">
-        <v>94.6</v>
+        <v>94.57</v>
       </c>
       <c r="BO56" t="n" s="10">
-        <v>95.08</v>
+        <v>95.2</v>
       </c>
       <c r="BP56" t="n" s="10">
-        <v>94.21</v>
+        <v>94.46</v>
       </c>
       <c r="BQ56" t="n" s="10">
-        <v>94.89</v>
+        <v>94.36</v>
       </c>
       <c r="BR56" t="n" s="10">
-        <v>94.56</v>
+        <v>94.41</v>
       </c>
       <c r="BS56" t="n" s="10">
-        <v>94.69</v>
+        <v>95.07</v>
       </c>
       <c r="BT56" t="n" s="10">
-        <v>96.95</v>
+        <v>97.58</v>
       </c>
       <c r="BU56" t="n" s="10">
-        <v>97.27</v>
+        <v>96.33</v>
       </c>
       <c r="BV56" t="n" s="10">
-        <v>95.06</v>
+        <v>94.81</v>
       </c>
       <c r="BW56" t="n" s="10">
-        <v>94.35</v>
+        <v>95.01</v>
       </c>
       <c r="BX56" t="n" s="10">
-        <v>92.23</v>
+        <v>92.67</v>
       </c>
       <c r="BY56" t="n" s="10">
-        <v>93.78</v>
+        <v>93.17</v>
       </c>
       <c r="BZ56" t="n" s="10">
-        <v>94.01</v>
+        <v>93.86</v>
       </c>
       <c r="CA56" t="n" s="10">
-        <v>94.13</v>
+        <v>94.37</v>
       </c>
       <c r="CB56" t="n" s="10">
-        <v>95.93</v>
+        <v>96.0</v>
       </c>
       <c r="CC56" t="n" s="10">
-        <v>96.93</v>
+        <v>96.89</v>
       </c>
       <c r="CD56" t="n" s="10">
         <v>98.41</v>
       </c>
       <c r="CE56" t="n" s="10">
-        <v>98.78</v>
+        <v>98.81</v>
       </c>
       <c r="CF56" t="n" s="10">
-        <v>99.19</v>
+        <v>99.21</v>
       </c>
       <c r="CG56" t="n" s="10">
-        <v>99.35</v>
+        <v>99.36</v>
       </c>
       <c r="CH56" t="n" s="10">
         <v>99.22</v>
       </c>
       <c r="CI56" t="n" s="10">
-        <v>100.73</v>
+        <v>100.77</v>
       </c>
       <c r="CJ56" t="n" s="10">
-        <v>99.85</v>
+        <v>99.84</v>
       </c>
       <c r="CK56" t="n" s="10">
-        <v>100.01</v>
+        <v>100.0</v>
       </c>
       <c r="CL56" t="n" s="10">
-        <v>100.18</v>
+        <v>100.15</v>
       </c>
       <c r="CM56" t="n" s="10">
-        <v>99.14</v>
+        <v>99.11</v>
       </c>
       <c r="CN56" t="n" s="10">
-        <v>100.03</v>
+        <v>100.04</v>
       </c>
       <c r="CO56" t="n" s="10">
         <v>99.3</v>
       </c>
       <c r="CP56" t="n" s="10">
-        <v>98.87</v>
+        <v>98.86</v>
       </c>
       <c r="CQ56" t="n" s="10">
-        <v>98.99</v>
+        <v>98.98</v>
       </c>
       <c r="CR56" t="n" s="10">
-        <v>98.36</v>
+        <v>98.35</v>
       </c>
       <c r="CS56" t="n" s="10">
-        <v>98.89</v>
+        <v>98.88</v>
       </c>
       <c r="CT56" t="n" s="10">
-        <v>98.79</v>
+        <v>98.78</v>
       </c>
       <c r="CU56" t="n" s="10">
         <v>99.68</v>
       </c>
       <c r="CV56" t="n" s="10">
-        <v>99.73</v>
+        <v>99.71</v>
       </c>
       <c r="CW56" t="n" s="10">
         <v>100.13</v>
       </c>
       <c r="CX56" t="n" s="10">
-        <v>100.36</v>
+        <v>100.38</v>
       </c>
       <c r="CY56" t="n" s="10">
-        <v>98.4</v>
+        <v>98.39</v>
       </c>
       <c r="CZ56" t="n" s="10">
-        <v>99.64</v>
+        <v>99.67</v>
       </c>
       <c r="DA56" t="n" s="10">
-        <v>99.21</v>
+        <v>99.22</v>
       </c>
       <c r="DB56" t="n" s="10">
-        <v>99.71</v>
+        <v>99.72</v>
       </c>
       <c r="DC56" t="n" s="10">
-        <v>101.12</v>
+        <v>101.15</v>
       </c>
       <c r="DD56" t="n" s="10">
-        <v>99.77</v>
+        <v>99.76</v>
       </c>
       <c r="DE56" t="n" s="10">
-        <v>99.82</v>
+        <v>99.81</v>
       </c>
       <c r="DF56" t="n" s="10">
-        <v>99.53</v>
+        <v>99.5</v>
       </c>
       <c r="DG56" t="n" s="10">
-        <v>99.85</v>
+        <v>99.84</v>
       </c>
       <c r="DH56" t="n" s="10">
-        <v>100.84</v>
+        <v>100.86</v>
       </c>
       <c r="DI56" t="n" s="10">
-        <v>101.13</v>
+        <v>101.11</v>
       </c>
       <c r="DJ56" t="n" s="10">
+        <v>101.55</v>
+      </c>
+      <c r="DK56" t="n" s="10">
+        <v>101.21</v>
+      </c>
+      <c r="DL56" t="n" s="10">
+        <v>101.2</v>
+      </c>
+      <c r="DM56" t="n" s="10">
+        <v>101.56</v>
+      </c>
+      <c r="DN56" t="n" s="10">
+        <v>101.24</v>
+      </c>
+      <c r="DO56" t="n" s="10">
+        <v>101.76</v>
+      </c>
+      <c r="DP56" t="n" s="10">
+        <v>100.06</v>
+      </c>
+      <c r="DQ56" t="n" s="10">
+        <v>100.81</v>
+      </c>
+      <c r="DR56" t="n" s="10">
         <v>101.59</v>
       </c>
-      <c r="DK56" t="n" s="10">
-        <v>101.28</v>
-      </c>
-      <c r="DL56" t="n" s="10">
-        <v>101.01</v>
-      </c>
-      <c r="DM56" t="n" s="10">
-        <v>101.65</v>
-      </c>
-      <c r="DN56" t="n" s="10">
-        <v>101.38</v>
-      </c>
-      <c r="DO56" t="n" s="10">
-        <v>101.84</v>
-      </c>
-      <c r="DP56" t="n" s="10">
-        <v>99.4</v>
-      </c>
-      <c r="DQ56" t="n" s="10">
-        <v>101.1</v>
-      </c>
-      <c r="DR56" t="n" s="10">
-        <v>101.76</v>
-      </c>
       <c r="DS56" t="n" s="10">
-        <v>101.69</v>
+        <v>101.63</v>
       </c>
       <c r="DT56" t="n" s="10">
-        <v>103.25</v>
-      </c>
-      <c r="DU56" t="s" s="10">
-        <v>43</v>
+        <v>104.04</v>
+      </c>
+      <c r="DU56" t="n" s="10">
+        <v>106.4</v>
       </c>
       <c r="DV56" t="s" s="10">
         <v>43</v>
@@ -21390,373 +21390,373 @@
         <v>69</v>
       </c>
       <c r="C57" t="n" s="10">
-        <v>78.06</v>
+        <v>77.92</v>
       </c>
       <c r="D57" t="n" s="10">
-        <v>77.45</v>
+        <v>77.41</v>
       </c>
       <c r="E57" t="n" s="10">
-        <v>77.67</v>
+        <v>77.61</v>
       </c>
       <c r="F57" t="n" s="10">
-        <v>77.59</v>
+        <v>77.46</v>
       </c>
       <c r="G57" t="n" s="10">
-        <v>79.02</v>
+        <v>79.01</v>
       </c>
       <c r="H57" t="n" s="10">
-        <v>80.02</v>
+        <v>79.92</v>
       </c>
       <c r="I57" t="n" s="10">
         <v>80.89</v>
       </c>
       <c r="J57" t="n" s="10">
-        <v>82.06</v>
+        <v>82.02</v>
       </c>
       <c r="K57" t="n" s="10">
-        <v>81.73</v>
+        <v>81.66</v>
       </c>
       <c r="L57" t="n" s="10">
         <v>82.12</v>
       </c>
       <c r="M57" t="n" s="10">
-        <v>82.0</v>
+        <v>81.96</v>
       </c>
       <c r="N57" t="n" s="10">
-        <v>81.91</v>
+        <v>81.93</v>
       </c>
       <c r="O57" t="n" s="10">
-        <v>82.11</v>
+        <v>82.1</v>
       </c>
       <c r="P57" t="n" s="10">
-        <v>82.36</v>
+        <v>82.35</v>
       </c>
       <c r="Q57" t="n" s="10">
-        <v>82.57</v>
+        <v>82.53</v>
       </c>
       <c r="R57" t="n" s="10">
-        <v>82.74</v>
+        <v>82.7</v>
       </c>
       <c r="S57" t="n" s="10">
-        <v>82.88</v>
+        <v>82.9</v>
       </c>
       <c r="T57" t="n" s="10">
-        <v>82.52</v>
+        <v>82.45</v>
       </c>
       <c r="U57" t="n" s="10">
-        <v>82.3</v>
+        <v>82.23</v>
       </c>
       <c r="V57" t="n" s="10">
-        <v>82.32</v>
+        <v>82.26</v>
       </c>
       <c r="W57" t="n" s="10">
-        <v>82.4</v>
+        <v>82.39</v>
       </c>
       <c r="X57" t="n" s="10">
-        <v>82.29</v>
+        <v>82.22</v>
       </c>
       <c r="Y57" t="n" s="10">
-        <v>82.52</v>
+        <v>82.45</v>
       </c>
       <c r="Z57" t="n" s="10">
-        <v>82.76</v>
+        <v>82.7</v>
       </c>
       <c r="AA57" t="n" s="10">
-        <v>83.11</v>
+        <v>82.96</v>
       </c>
       <c r="AB57" t="n" s="10">
-        <v>83.93</v>
+        <v>83.95</v>
       </c>
       <c r="AC57" t="n" s="10">
-        <v>84.05</v>
+        <v>84.02</v>
       </c>
       <c r="AD57" t="n" s="10">
-        <v>83.81</v>
+        <v>83.76</v>
       </c>
       <c r="AE57" t="n" s="10">
-        <v>83.92</v>
+        <v>83.89</v>
       </c>
       <c r="AF57" t="n" s="10">
-        <v>83.62</v>
+        <v>83.55</v>
       </c>
       <c r="AG57" t="n" s="10">
-        <v>83.81</v>
+        <v>83.8</v>
       </c>
       <c r="AH57" t="n" s="10">
-        <v>84.26</v>
+        <v>84.28</v>
       </c>
       <c r="AI57" t="n" s="10">
-        <v>84.22</v>
+        <v>84.14</v>
       </c>
       <c r="AJ57" t="n" s="10">
-        <v>84.82</v>
+        <v>84.81</v>
       </c>
       <c r="AK57" t="n" s="10">
-        <v>85.51</v>
+        <v>85.48</v>
       </c>
       <c r="AL57" t="n" s="10">
-        <v>85.6</v>
+        <v>85.64</v>
       </c>
       <c r="AM57" t="n" s="10">
-        <v>86.67</v>
+        <v>86.69</v>
       </c>
       <c r="AN57" t="n" s="10">
-        <v>86.74</v>
+        <v>86.69</v>
       </c>
       <c r="AO57" t="n" s="10">
-        <v>86.72</v>
+        <v>86.65</v>
       </c>
       <c r="AP57" t="n" s="10">
-        <v>86.97</v>
+        <v>86.88</v>
       </c>
       <c r="AQ57" t="n" s="10">
-        <v>87.49</v>
+        <v>87.44</v>
       </c>
       <c r="AR57" t="n" s="10">
-        <v>88.08</v>
+        <v>88.03</v>
       </c>
       <c r="AS57" t="n" s="10">
-        <v>88.43</v>
+        <v>88.34</v>
       </c>
       <c r="AT57" t="n" s="10">
-        <v>88.9</v>
+        <v>88.86</v>
       </c>
       <c r="AU57" t="n" s="10">
-        <v>88.66</v>
+        <v>88.58</v>
       </c>
       <c r="AV57" t="n" s="10">
-        <v>89.05</v>
+        <v>89.01</v>
       </c>
       <c r="AW57" t="n" s="10">
-        <v>89.39</v>
+        <v>89.35</v>
       </c>
       <c r="AX57" t="n" s="10">
-        <v>90.01</v>
+        <v>89.97</v>
       </c>
       <c r="AY57" t="n" s="10">
-        <v>90.82</v>
+        <v>90.78</v>
       </c>
       <c r="AZ57" t="n" s="10">
-        <v>91.16</v>
+        <v>91.09</v>
       </c>
       <c r="BA57" t="n" s="10">
-        <v>91.63</v>
+        <v>91.59</v>
       </c>
       <c r="BB57" t="n" s="10">
-        <v>90.93</v>
+        <v>90.87</v>
       </c>
       <c r="BC57" t="n" s="10">
         <v>90.69</v>
       </c>
       <c r="BD57" t="n" s="10">
-        <v>90.98</v>
+        <v>90.96</v>
       </c>
       <c r="BE57" t="n" s="10">
-        <v>91.18</v>
+        <v>91.15</v>
       </c>
       <c r="BF57" t="n" s="10">
-        <v>92.26</v>
+        <v>92.25</v>
       </c>
       <c r="BG57" t="n" s="10">
-        <v>92.79</v>
+        <v>92.73</v>
       </c>
       <c r="BH57" t="n" s="10">
-        <v>93.61</v>
+        <v>93.63</v>
       </c>
       <c r="BI57" t="n" s="10">
-        <v>94.04</v>
+        <v>94.01</v>
       </c>
       <c r="BJ57" t="n" s="10">
-        <v>94.33</v>
+        <v>94.29</v>
       </c>
       <c r="BK57" t="n" s="10">
         <v>94.13</v>
       </c>
       <c r="BL57" t="n" s="10">
-        <v>93.54</v>
+        <v>93.46</v>
       </c>
       <c r="BM57" t="n" s="10">
-        <v>93.03</v>
+        <v>92.98</v>
       </c>
       <c r="BN57" t="n" s="10">
-        <v>92.32</v>
+        <v>92.27</v>
       </c>
       <c r="BO57" t="n" s="10">
-        <v>92.74</v>
+        <v>92.71</v>
       </c>
       <c r="BP57" t="n" s="10">
-        <v>93.36</v>
+        <v>93.3</v>
       </c>
       <c r="BQ57" t="n" s="10">
-        <v>94.03</v>
+        <v>93.96</v>
       </c>
       <c r="BR57" t="n" s="10">
-        <v>94.96</v>
+        <v>94.9</v>
       </c>
       <c r="BS57" t="n" s="10">
-        <v>95.09</v>
+        <v>95.03</v>
       </c>
       <c r="BT57" t="n" s="10">
         <v>95.51</v>
       </c>
       <c r="BU57" t="n" s="10">
-        <v>95.15</v>
+        <v>95.13</v>
       </c>
       <c r="BV57" t="n" s="10">
-        <v>94.51</v>
+        <v>94.47</v>
       </c>
       <c r="BW57" t="n" s="10">
-        <v>93.87</v>
+        <v>93.83</v>
       </c>
       <c r="BX57" t="n" s="10">
-        <v>92.32</v>
+        <v>92.25</v>
       </c>
       <c r="BY57" t="n" s="10">
-        <v>92.39</v>
+        <v>92.35</v>
       </c>
       <c r="BZ57" t="n" s="10">
-        <v>93.23</v>
+        <v>93.2</v>
       </c>
       <c r="CA57" t="n" s="10">
-        <v>93.54</v>
+        <v>93.49</v>
       </c>
       <c r="CB57" t="n" s="10">
-        <v>95.25</v>
+        <v>95.24</v>
       </c>
       <c r="CC57" t="n" s="10">
-        <v>95.67</v>
+        <v>95.64</v>
       </c>
       <c r="CD57" t="n" s="10">
         <v>94.74</v>
       </c>
       <c r="CE57" t="n" s="10">
-        <v>94.76</v>
+        <v>94.74</v>
       </c>
       <c r="CF57" t="n" s="10">
-        <v>93.97</v>
+        <v>93.95</v>
       </c>
       <c r="CG57" t="n" s="10">
-        <v>94.4</v>
+        <v>94.37</v>
       </c>
       <c r="CH57" t="n" s="10">
-        <v>95.84</v>
+        <v>95.8</v>
       </c>
       <c r="CI57" t="n" s="10">
+        <v>97.24</v>
+      </c>
+      <c r="CJ57" t="n" s="10">
+        <v>97.88</v>
+      </c>
+      <c r="CK57" t="n" s="10">
+        <v>97.81</v>
+      </c>
+      <c r="CL57" t="n" s="10">
+        <v>97.23</v>
+      </c>
+      <c r="CM57" t="n" s="10">
+        <v>96.93</v>
+      </c>
+      <c r="CN57" t="n" s="10">
         <v>97.25</v>
       </c>
-      <c r="CJ57" t="n" s="10">
-        <v>97.93</v>
-      </c>
-      <c r="CK57" t="n" s="10">
-        <v>97.87</v>
-      </c>
-      <c r="CL57" t="n" s="10">
-        <v>97.28</v>
-      </c>
-      <c r="CM57" t="n" s="10">
-        <v>97.0</v>
-      </c>
-      <c r="CN57" t="n" s="10">
-        <v>97.3</v>
-      </c>
       <c r="CO57" t="n" s="10">
-        <v>97.76</v>
+        <v>97.71</v>
       </c>
       <c r="CP57" t="n" s="10">
         <v>98.41</v>
       </c>
       <c r="CQ57" t="n" s="10">
-        <v>98.57</v>
+        <v>98.52</v>
       </c>
       <c r="CR57" t="n" s="10">
+        <v>99.03</v>
+      </c>
+      <c r="CS57" t="n" s="10">
         <v>99.19</v>
       </c>
-      <c r="CS57" t="n" s="10">
-        <v>99.41</v>
-      </c>
       <c r="CT57" t="n" s="10">
-        <v>99.81</v>
+        <v>100.3</v>
       </c>
       <c r="CU57" t="n" s="10">
-        <v>100.75</v>
+        <v>100.53</v>
       </c>
       <c r="CV57" t="n" s="10">
-        <v>100.04</v>
+        <v>99.74</v>
       </c>
       <c r="CW57" t="n" s="10">
-        <v>100.16</v>
+        <v>99.79</v>
       </c>
       <c r="CX57" t="n" s="10">
-        <v>99.63</v>
+        <v>100.48</v>
       </c>
       <c r="CY57" t="n" s="10">
-        <v>98.97</v>
+        <v>98.6</v>
       </c>
       <c r="CZ57" t="n" s="10">
-        <v>100.35</v>
+        <v>100.1</v>
       </c>
       <c r="DA57" t="n" s="10">
-        <v>101.1</v>
+        <v>100.9</v>
       </c>
       <c r="DB57" t="n" s="10">
-        <v>102.36</v>
+        <v>102.86</v>
       </c>
       <c r="DC57" t="n" s="10">
-        <v>103.67</v>
+        <v>103.5</v>
       </c>
       <c r="DD57" t="n" s="10">
-        <v>103.62</v>
+        <v>103.37</v>
       </c>
       <c r="DE57" t="n" s="10">
-        <v>103.64</v>
+        <v>103.39</v>
       </c>
       <c r="DF57" t="n" s="10">
-        <v>103.96</v>
+        <v>104.55</v>
       </c>
       <c r="DG57" t="n" s="10">
-        <v>104.55</v>
+        <v>104.28</v>
       </c>
       <c r="DH57" t="n" s="10">
-        <v>105.87</v>
+        <v>105.45</v>
       </c>
       <c r="DI57" t="n" s="10">
-        <v>106.26</v>
+        <v>105.81</v>
       </c>
       <c r="DJ57" t="n" s="10">
-        <v>106.34</v>
+        <v>107.46</v>
       </c>
       <c r="DK57" t="n" s="10">
-        <v>105.91</v>
+        <v>105.73</v>
       </c>
       <c r="DL57" t="n" s="10">
-        <v>106.27</v>
+        <v>105.03</v>
       </c>
       <c r="DM57" t="n" s="10">
-        <v>107.65</v>
+        <v>107.83</v>
       </c>
       <c r="DN57" t="n" s="10">
-        <v>107.86</v>
+        <v>109.02</v>
       </c>
       <c r="DO57" t="n" s="10">
-        <v>107.86</v>
+        <v>107.96</v>
       </c>
       <c r="DP57" t="n" s="10">
-        <v>108.49</v>
+        <v>105.17</v>
       </c>
       <c r="DQ57" t="n" s="10">
-        <v>106.44</v>
+        <v>108.18</v>
       </c>
       <c r="DR57" t="n" s="10">
-        <v>108.36</v>
+        <v>109.71</v>
       </c>
       <c r="DS57" t="n" s="10">
-        <v>112.45</v>
+        <v>112.52</v>
       </c>
       <c r="DT57" t="n" s="10">
-        <v>117.2</v>
-      </c>
-      <c r="DU57" t="s" s="10">
-        <v>43</v>
+        <v>113.44</v>
+      </c>
+      <c r="DU57" t="n" s="10">
+        <v>123.02</v>
       </c>
       <c r="DV57" t="s" s="10">
         <v>43</v>
@@ -21770,7 +21770,7 @@
         <v>71</v>
       </c>
       <c r="C58" t="n" s="10">
-        <v>93.31</v>
+        <v>93.28</v>
       </c>
       <c r="D58" t="n" s="10">
         <v>95.3</v>
@@ -21779,7 +21779,7 @@
         <v>95.03</v>
       </c>
       <c r="F58" t="n" s="10">
-        <v>93.89</v>
+        <v>93.86</v>
       </c>
       <c r="G58" t="n" s="10">
         <v>94.21</v>
@@ -21788,7 +21788,7 @@
         <v>92.98</v>
       </c>
       <c r="I58" t="n" s="10">
-        <v>92.84</v>
+        <v>92.87</v>
       </c>
       <c r="J58" t="n" s="10">
         <v>92.73</v>
@@ -21824,7 +21824,7 @@
         <v>90.86</v>
       </c>
       <c r="U58" t="n" s="10">
-        <v>90.45</v>
+        <v>90.43</v>
       </c>
       <c r="V58" t="n" s="10">
         <v>90.46</v>
@@ -21836,16 +21836,16 @@
         <v>90.62</v>
       </c>
       <c r="Y58" t="n" s="10">
-        <v>90.91</v>
+        <v>90.89</v>
       </c>
       <c r="Z58" t="n" s="10">
-        <v>91.35</v>
+        <v>91.32</v>
       </c>
       <c r="AA58" t="n" s="10">
-        <v>91.19</v>
+        <v>91.17</v>
       </c>
       <c r="AB58" t="n" s="10">
-        <v>93.82</v>
+        <v>93.85</v>
       </c>
       <c r="AC58" t="n" s="10">
         <v>93.83</v>
@@ -21872,7 +21872,7 @@
         <v>89.37</v>
       </c>
       <c r="AK58" t="n" s="10">
-        <v>90.34</v>
+        <v>90.36</v>
       </c>
       <c r="AL58" t="n" s="10">
         <v>92.33</v>
@@ -21887,7 +21887,7 @@
         <v>96.58</v>
       </c>
       <c r="AP58" t="n" s="10">
-        <v>97.88</v>
+        <v>97.87</v>
       </c>
       <c r="AQ58" t="n" s="10">
         <v>97.64</v>
@@ -21917,67 +21917,67 @@
         <v>93.45</v>
       </c>
       <c r="AZ58" t="n" s="10">
-        <v>91.7</v>
+        <v>91.68</v>
       </c>
       <c r="BA58" t="n" s="10">
         <v>91.52</v>
       </c>
       <c r="BB58" t="n" s="10">
-        <v>90.5</v>
+        <v>90.49</v>
       </c>
       <c r="BC58" t="n" s="10">
         <v>91.22</v>
       </c>
       <c r="BD58" t="n" s="10">
-        <v>91.63</v>
+        <v>91.59</v>
       </c>
       <c r="BE58" t="n" s="10">
-        <v>92.32</v>
+        <v>92.45</v>
       </c>
       <c r="BF58" t="n" s="10">
-        <v>93.75</v>
+        <v>93.72</v>
       </c>
       <c r="BG58" t="n" s="10">
-        <v>92.88</v>
+        <v>92.82</v>
       </c>
       <c r="BH58" t="n" s="10">
-        <v>94.71</v>
+        <v>94.62</v>
       </c>
       <c r="BI58" t="n" s="10">
-        <v>95.1</v>
+        <v>95.31</v>
       </c>
       <c r="BJ58" t="n" s="10">
-        <v>95.65</v>
+        <v>95.57</v>
       </c>
       <c r="BK58" t="n" s="10">
-        <v>97.14</v>
+        <v>97.09</v>
       </c>
       <c r="BL58" t="n" s="10">
-        <v>96.57</v>
+        <v>96.53</v>
       </c>
       <c r="BM58" t="n" s="10">
-        <v>97.06</v>
+        <v>97.16</v>
       </c>
       <c r="BN58" t="n" s="10">
-        <v>97.01</v>
+        <v>96.97</v>
       </c>
       <c r="BO58" t="n" s="10">
-        <v>96.99</v>
+        <v>96.98</v>
       </c>
       <c r="BP58" t="n" s="10">
         <v>96.5</v>
       </c>
       <c r="BQ58" t="n" s="10">
-        <v>96.05</v>
+        <v>96.06</v>
       </c>
       <c r="BR58" t="n" s="10">
-        <v>97.96</v>
+        <v>97.95</v>
       </c>
       <c r="BS58" t="n" s="10">
-        <v>98.82</v>
+        <v>98.81</v>
       </c>
       <c r="BT58" t="n" s="10">
-        <v>100.51</v>
+        <v>100.53</v>
       </c>
       <c r="BU58" t="n" s="10">
         <v>100.65</v>
@@ -21989,7 +21989,7 @@
         <v>94.62</v>
       </c>
       <c r="BX58" t="n" s="10">
-        <v>92.15</v>
+        <v>92.13</v>
       </c>
       <c r="BY58" t="n" s="10">
         <v>91.85</v>
@@ -22007,10 +22007,10 @@
         <v>98.94</v>
       </c>
       <c r="CD58" t="n" s="10">
-        <v>100.58</v>
+        <v>100.6</v>
       </c>
       <c r="CE58" t="n" s="10">
-        <v>102.11</v>
+        <v>102.13</v>
       </c>
       <c r="CF58" t="n" s="10">
         <v>102.83</v>
@@ -22022,7 +22022,7 @@
         <v>103.53</v>
       </c>
       <c r="CI58" t="n" s="10">
-        <v>104.82</v>
+        <v>104.84</v>
       </c>
       <c r="CJ58" t="n" s="10">
         <v>104.52</v>
@@ -22031,7 +22031,7 @@
         <v>104.59</v>
       </c>
       <c r="CL58" t="n" s="10">
-        <v>104.43</v>
+        <v>104.42</v>
       </c>
       <c r="CM58" t="n" s="10">
         <v>103.23</v>
@@ -22073,16 +22073,16 @@
         <v>96.9</v>
       </c>
       <c r="CZ58" t="n" s="10">
-        <v>97.64</v>
+        <v>97.65</v>
       </c>
       <c r="DA58" t="n" s="10">
-        <v>97.98</v>
+        <v>97.99</v>
       </c>
       <c r="DB58" t="n" s="10">
         <v>98.76</v>
       </c>
       <c r="DC58" t="n" s="10">
-        <v>100.78</v>
+        <v>100.79</v>
       </c>
       <c r="DD58" t="n" s="10">
         <v>99.82</v>
@@ -22091,52 +22091,52 @@
         <v>99.45</v>
       </c>
       <c r="DF58" t="n" s="10">
-        <v>99.76</v>
+        <v>99.75</v>
       </c>
       <c r="DG58" t="n" s="10">
         <v>100.37</v>
       </c>
       <c r="DH58" t="n" s="10">
-        <v>101.48</v>
+        <v>101.49</v>
       </c>
       <c r="DI58" t="n" s="10">
         <v>102.46</v>
       </c>
       <c r="DJ58" t="n" s="10">
-        <v>102.58</v>
+        <v>102.54</v>
       </c>
       <c r="DK58" t="n" s="10">
-        <v>101.87</v>
+        <v>101.79</v>
       </c>
       <c r="DL58" t="n" s="10">
-        <v>101.68</v>
+        <v>101.88</v>
       </c>
       <c r="DM58" t="n" s="10">
-        <v>101.89</v>
+        <v>101.74</v>
       </c>
       <c r="DN58" t="n" s="10">
-        <v>101.26</v>
+        <v>101.27</v>
       </c>
       <c r="DO58" t="n" s="10">
-        <v>101.27</v>
+        <v>101.06</v>
       </c>
       <c r="DP58" t="n" s="10">
-        <v>96.54</v>
+        <v>97.14</v>
       </c>
       <c r="DQ58" t="n" s="10">
-        <v>99.62</v>
+        <v>99.16</v>
       </c>
       <c r="DR58" t="n" s="10">
-        <v>99.95</v>
+        <v>100.06</v>
       </c>
       <c r="DS58" t="n" s="10">
-        <v>101.56</v>
+        <v>101.31</v>
       </c>
       <c r="DT58" t="n" s="10">
-        <v>103.9</v>
-      </c>
-      <c r="DU58" t="s" s="10">
-        <v>43</v>
+        <v>104.98</v>
+      </c>
+      <c r="DU58" t="n" s="10">
+        <v>108.44</v>
       </c>
       <c r="DV58" t="s" s="10">
         <v>43</v>
@@ -22150,7 +22150,7 @@
         <v>73</v>
       </c>
       <c r="C59" t="n" s="10">
-        <v>99.49</v>
+        <v>99.46</v>
       </c>
       <c r="D59" t="n" s="10">
         <v>101.78</v>
@@ -22159,7 +22159,7 @@
         <v>101.5</v>
       </c>
       <c r="F59" t="n" s="10">
-        <v>99.73</v>
+        <v>99.7</v>
       </c>
       <c r="G59" t="n" s="10">
         <v>99.91</v>
@@ -22168,7 +22168,7 @@
         <v>98.01</v>
       </c>
       <c r="I59" t="n" s="10">
-        <v>97.6</v>
+        <v>97.63</v>
       </c>
       <c r="J59" t="n" s="10">
         <v>97.42</v>
@@ -22204,7 +22204,7 @@
         <v>95.49</v>
       </c>
       <c r="U59" t="n" s="10">
-        <v>94.88</v>
+        <v>94.85</v>
       </c>
       <c r="V59" t="n" s="10">
         <v>94.93</v>
@@ -22216,16 +22216,16 @@
         <v>94.72</v>
       </c>
       <c r="Y59" t="n" s="10">
-        <v>95.21</v>
+        <v>95.19</v>
       </c>
       <c r="Z59" t="n" s="10">
-        <v>95.6</v>
+        <v>95.57</v>
       </c>
       <c r="AA59" t="n" s="10">
-        <v>95.16</v>
+        <v>95.14</v>
       </c>
       <c r="AB59" t="n" s="10">
-        <v>98.53</v>
+        <v>98.55</v>
       </c>
       <c r="AC59" t="n" s="10">
         <v>98.23</v>
@@ -22252,7 +22252,7 @@
         <v>92.02</v>
       </c>
       <c r="AK59" t="n" s="10">
-        <v>93.11</v>
+        <v>93.13</v>
       </c>
       <c r="AL59" t="n" s="10">
         <v>95.69</v>
@@ -22267,7 +22267,7 @@
         <v>100.99</v>
       </c>
       <c r="AP59" t="n" s="10">
-        <v>102.36</v>
+        <v>102.34</v>
       </c>
       <c r="AQ59" t="n" s="10">
         <v>102.07</v>
@@ -22297,67 +22297,67 @@
         <v>95.79</v>
       </c>
       <c r="AZ59" t="n" s="10">
-        <v>93.54</v>
+        <v>93.52</v>
       </c>
       <c r="BA59" t="n" s="10">
         <v>93.23</v>
       </c>
       <c r="BB59" t="n" s="10">
-        <v>92.19</v>
+        <v>92.18</v>
       </c>
       <c r="BC59" t="n" s="10">
-        <v>93.57</v>
+        <v>93.55</v>
       </c>
       <c r="BD59" t="n" s="10">
-        <v>94.05</v>
+        <v>94.0</v>
       </c>
       <c r="BE59" t="n" s="10">
-        <v>95.19</v>
+        <v>95.36</v>
       </c>
       <c r="BF59" t="n" s="10">
-        <v>96.74</v>
+        <v>96.69</v>
       </c>
       <c r="BG59" t="n" s="10">
-        <v>95.2</v>
+        <v>95.13</v>
       </c>
       <c r="BH59" t="n" s="10">
-        <v>97.46</v>
+        <v>97.35</v>
       </c>
       <c r="BI59" t="n" s="10">
-        <v>97.63</v>
+        <v>97.91</v>
       </c>
       <c r="BJ59" t="n" s="10">
-        <v>98.34</v>
+        <v>98.24</v>
       </c>
       <c r="BK59" t="n" s="10">
-        <v>100.22</v>
+        <v>100.15</v>
       </c>
       <c r="BL59" t="n" s="10">
-        <v>99.47</v>
+        <v>99.41</v>
       </c>
       <c r="BM59" t="n" s="10">
-        <v>100.11</v>
+        <v>100.24</v>
       </c>
       <c r="BN59" t="n" s="10">
-        <v>99.94</v>
+        <v>99.88</v>
       </c>
       <c r="BO59" t="n" s="10">
-        <v>99.82</v>
+        <v>99.8</v>
       </c>
       <c r="BP59" t="n" s="10">
         <v>99.0</v>
       </c>
       <c r="BQ59" t="n" s="10">
-        <v>98.38</v>
+        <v>98.39</v>
       </c>
       <c r="BR59" t="n" s="10">
-        <v>100.68</v>
+        <v>100.66</v>
       </c>
       <c r="BS59" t="n" s="10">
-        <v>101.53</v>
+        <v>101.52</v>
       </c>
       <c r="BT59" t="n" s="10">
-        <v>103.62</v>
+        <v>103.63</v>
       </c>
       <c r="BU59" t="n" s="10">
         <v>103.53</v>
@@ -22384,13 +22384,13 @@
         <v>98.63</v>
       </c>
       <c r="CC59" t="n" s="10">
-        <v>100.78</v>
+        <v>100.79</v>
       </c>
       <c r="CD59" t="n" s="10">
-        <v>102.75</v>
+        <v>102.76</v>
       </c>
       <c r="CE59" t="n" s="10">
-        <v>104.54</v>
+        <v>104.55</v>
       </c>
       <c r="CF59" t="n" s="10">
         <v>105.31</v>
@@ -22402,7 +22402,7 @@
         <v>106.0</v>
       </c>
       <c r="CI59" t="n" s="10">
-        <v>107.47</v>
+        <v>107.49</v>
       </c>
       <c r="CJ59" t="n" s="10">
         <v>106.95</v>
@@ -22477,46 +22477,46 @@
         <v>99.84</v>
       </c>
       <c r="DH59" t="n" s="10">
-        <v>101.04</v>
+        <v>101.07</v>
       </c>
       <c r="DI59" t="n" s="10">
         <v>102.17</v>
       </c>
       <c r="DJ59" t="n" s="10">
-        <v>102.24</v>
+        <v>102.2</v>
       </c>
       <c r="DK59" t="n" s="10">
-        <v>101.35</v>
+        <v>101.25</v>
       </c>
       <c r="DL59" t="n" s="10">
-        <v>100.79</v>
+        <v>101.11</v>
       </c>
       <c r="DM59" t="n" s="10">
-        <v>100.9</v>
+        <v>100.67</v>
       </c>
       <c r="DN59" t="n" s="10">
-        <v>100.15</v>
+        <v>100.17</v>
       </c>
       <c r="DO59" t="n" s="10">
-        <v>100.08</v>
+        <v>99.82</v>
       </c>
       <c r="DP59" t="n" s="10">
-        <v>93.92</v>
+        <v>94.73</v>
       </c>
       <c r="DQ59" t="n" s="10">
-        <v>98.0</v>
+        <v>97.38</v>
       </c>
       <c r="DR59" t="n" s="10">
-        <v>98.01</v>
+        <v>98.13</v>
       </c>
       <c r="DS59" t="n" s="10">
-        <v>99.74</v>
+        <v>99.42</v>
       </c>
       <c r="DT59" t="n" s="10">
-        <v>102.32</v>
-      </c>
-      <c r="DU59" t="s" s="10">
-        <v>43</v>
+        <v>103.64</v>
+      </c>
+      <c r="DU59" t="n" s="10">
+        <v>107.95</v>
       </c>
       <c r="DV59" t="s" s="10">
         <v>43</v>
@@ -22530,7 +22530,7 @@
         <v>75</v>
       </c>
       <c r="C60" t="n" s="10">
-        <v>75.23</v>
+        <v>75.21</v>
       </c>
       <c r="D60" t="n" s="10">
         <v>76.32</v>
@@ -22539,7 +22539,7 @@
         <v>75.95</v>
       </c>
       <c r="F60" t="n" s="10">
-        <v>76.76</v>
+        <v>76.74</v>
       </c>
       <c r="G60" t="n" s="10">
         <v>77.48</v>
@@ -22560,7 +22560,7 @@
         <v>78.73</v>
       </c>
       <c r="M60" t="n" s="10">
-        <v>78.85</v>
+        <v>78.87</v>
       </c>
       <c r="N60" t="n" s="10">
         <v>78.65</v>
@@ -22569,13 +22569,13 @@
         <v>78.57</v>
       </c>
       <c r="P60" t="n" s="10">
-        <v>78.31</v>
+        <v>78.33</v>
       </c>
       <c r="Q60" t="n" s="10">
         <v>78.13</v>
       </c>
       <c r="R60" t="n" s="10">
-        <v>78.35</v>
+        <v>78.33</v>
       </c>
       <c r="S60" t="n" s="10">
         <v>77.94</v>
@@ -22587,10 +22587,10 @@
         <v>77.2</v>
       </c>
       <c r="V60" t="n" s="10">
-        <v>77.12</v>
+        <v>77.11</v>
       </c>
       <c r="W60" t="n" s="10">
-        <v>77.61</v>
+        <v>77.63</v>
       </c>
       <c r="X60" t="n" s="10">
         <v>78.13</v>
@@ -22602,46 +22602,46 @@
         <v>78.5</v>
       </c>
       <c r="AA60" t="n" s="10">
-        <v>79.03</v>
+        <v>79.01</v>
       </c>
       <c r="AB60" t="n" s="10">
-        <v>79.78</v>
+        <v>79.79</v>
       </c>
       <c r="AC60" t="n" s="10">
         <v>80.48</v>
       </c>
       <c r="AD60" t="n" s="10">
-        <v>80.69</v>
+        <v>80.68</v>
       </c>
       <c r="AE60" t="n" s="10">
         <v>80.98</v>
       </c>
       <c r="AF60" t="n" s="10">
-        <v>80.9</v>
+        <v>80.89</v>
       </c>
       <c r="AG60" t="n" s="10">
         <v>80.82</v>
       </c>
       <c r="AH60" t="n" s="10">
-        <v>80.58</v>
+        <v>80.59</v>
       </c>
       <c r="AI60" t="n" s="10">
         <v>80.63</v>
       </c>
       <c r="AJ60" t="n" s="10">
-        <v>80.99</v>
+        <v>81.0</v>
       </c>
       <c r="AK60" t="n" s="10">
         <v>81.63</v>
       </c>
       <c r="AL60" t="n" s="10">
-        <v>81.92</v>
+        <v>81.93</v>
       </c>
       <c r="AM60" t="n" s="10">
-        <v>82.89</v>
+        <v>82.9</v>
       </c>
       <c r="AN60" t="n" s="10">
-        <v>83.17</v>
+        <v>83.15</v>
       </c>
       <c r="AO60" t="n" s="10">
         <v>83.19</v>
@@ -22650,7 +22650,7 @@
         <v>84.14</v>
       </c>
       <c r="AQ60" t="n" s="10">
-        <v>84.2</v>
+        <v>84.21</v>
       </c>
       <c r="AR60" t="n" s="10">
         <v>85.24</v>
@@ -22659,10 +22659,10 @@
         <v>86.18</v>
       </c>
       <c r="AT60" t="n" s="10">
-        <v>86.02</v>
+        <v>86.01</v>
       </c>
       <c r="AU60" t="n" s="10">
-        <v>86.38</v>
+        <v>86.37</v>
       </c>
       <c r="AV60" t="n" s="10">
         <v>86.2</v>
@@ -22671,13 +22671,13 @@
         <v>85.63</v>
       </c>
       <c r="AX60" t="n" s="10">
-        <v>85.89</v>
+        <v>85.88</v>
       </c>
       <c r="AY60" t="n" s="10">
-        <v>85.8</v>
+        <v>85.79</v>
       </c>
       <c r="AZ60" t="n" s="10">
-        <v>85.5</v>
+        <v>85.48</v>
       </c>
       <c r="BA60" t="n" s="10">
         <v>85.64</v>
@@ -22695,13 +22695,13 @@
         <v>83.05</v>
       </c>
       <c r="BF60" t="n" s="10">
-        <v>84.11</v>
+        <v>84.12</v>
       </c>
       <c r="BG60" t="n" s="10">
-        <v>85.29</v>
+        <v>85.28</v>
       </c>
       <c r="BH60" t="n" s="10">
-        <v>85.74</v>
+        <v>85.75</v>
       </c>
       <c r="BI60" t="n" s="10">
         <v>86.85</v>
@@ -22710,13 +22710,13 @@
         <v>86.89</v>
       </c>
       <c r="BK60" t="n" s="10">
-        <v>87.08</v>
+        <v>87.09</v>
       </c>
       <c r="BL60" t="n" s="10">
         <v>87.09</v>
       </c>
       <c r="BM60" t="n" s="10">
-        <v>87.07</v>
+        <v>87.05</v>
       </c>
       <c r="BN60" t="n" s="10">
         <v>87.38</v>
@@ -22725,55 +22725,55 @@
         <v>87.76</v>
       </c>
       <c r="BP60" t="n" s="10">
-        <v>88.35</v>
+        <v>88.34</v>
       </c>
       <c r="BQ60" t="n" s="10">
         <v>88.46</v>
       </c>
       <c r="BR60" t="n" s="10">
-        <v>89.06</v>
+        <v>89.05</v>
       </c>
       <c r="BS60" t="n" s="10">
-        <v>89.98</v>
+        <v>89.96</v>
       </c>
       <c r="BT60" t="n" s="10">
-        <v>90.38</v>
+        <v>90.39</v>
       </c>
       <c r="BU60" t="n" s="10">
         <v>91.28</v>
       </c>
       <c r="BV60" t="n" s="10">
-        <v>91.05</v>
+        <v>91.04</v>
       </c>
       <c r="BW60" t="n" s="10">
         <v>90.55</v>
       </c>
       <c r="BX60" t="n" s="10">
-        <v>90.6</v>
+        <v>90.59</v>
       </c>
       <c r="BY60" t="n" s="10">
         <v>90.28</v>
       </c>
       <c r="BZ60" t="n" s="10">
-        <v>90.88</v>
+        <v>90.89</v>
       </c>
       <c r="CA60" t="n" s="10">
         <v>91.48</v>
       </c>
       <c r="CB60" t="n" s="10">
-        <v>92.14</v>
+        <v>92.15</v>
       </c>
       <c r="CC60" t="n" s="10">
         <v>92.86</v>
       </c>
       <c r="CD60" t="n" s="10">
-        <v>93.4</v>
+        <v>93.41</v>
       </c>
       <c r="CE60" t="n" s="10">
-        <v>93.95</v>
+        <v>93.96</v>
       </c>
       <c r="CF60" t="n" s="10">
-        <v>94.46</v>
+        <v>94.47</v>
       </c>
       <c r="CG60" t="n" s="10">
         <v>94.73</v>
@@ -22782,16 +22782,16 @@
         <v>95.33</v>
       </c>
       <c r="CI60" t="n" s="10">
-        <v>95.94</v>
+        <v>95.95</v>
       </c>
       <c r="CJ60" t="n" s="10">
-        <v>96.41</v>
+        <v>96.4</v>
       </c>
       <c r="CK60" t="n" s="10">
         <v>96.8</v>
       </c>
       <c r="CL60" t="n" s="10">
-        <v>96.86</v>
+        <v>96.85</v>
       </c>
       <c r="CM60" t="n" s="10">
         <v>97.29</v>
@@ -22803,7 +22803,7 @@
         <v>98.11</v>
       </c>
       <c r="CP60" t="n" s="10">
-        <v>98.53</v>
+        <v>98.52</v>
       </c>
       <c r="CQ60" t="n" s="10">
         <v>98.65</v>
@@ -22812,7 +22812,7 @@
         <v>98.99</v>
       </c>
       <c r="CS60" t="n" s="10">
-        <v>99.14</v>
+        <v>99.13</v>
       </c>
       <c r="CT60" t="n" s="10">
         <v>99.28</v>
@@ -22821,7 +22821,7 @@
         <v>100.04</v>
       </c>
       <c r="CV60" t="n" s="10">
-        <v>99.99</v>
+        <v>99.98</v>
       </c>
       <c r="CW60" t="n" s="10">
         <v>99.93</v>
@@ -22833,70 +22833,70 @@
         <v>99.83</v>
       </c>
       <c r="CZ60" t="n" s="10">
-        <v>100.25</v>
+        <v>100.26</v>
       </c>
       <c r="DA60" t="n" s="10">
-        <v>100.34</v>
+        <v>100.35</v>
       </c>
       <c r="DB60" t="n" s="10">
         <v>100.36</v>
       </c>
       <c r="DC60" t="n" s="10">
-        <v>101.01</v>
+        <v>101.02</v>
       </c>
       <c r="DD60" t="n" s="10">
-        <v>101.14</v>
+        <v>101.13</v>
       </c>
       <c r="DE60" t="n" s="10">
-        <v>101.46</v>
+        <v>101.45</v>
       </c>
       <c r="DF60" t="n" s="10">
-        <v>101.83</v>
+        <v>101.81</v>
       </c>
       <c r="DG60" t="n" s="10">
-        <v>102.16</v>
+        <v>102.17</v>
       </c>
       <c r="DH60" t="n" s="10">
-        <v>102.98</v>
+        <v>102.95</v>
       </c>
       <c r="DI60" t="n" s="10">
-        <v>103.43</v>
+        <v>103.46</v>
       </c>
       <c r="DJ60" t="n" s="10">
-        <v>103.72</v>
+        <v>103.7</v>
       </c>
       <c r="DK60" t="n" s="10">
-        <v>103.61</v>
+        <v>103.64</v>
       </c>
       <c r="DL60" t="n" s="10">
-        <v>104.61</v>
+        <v>104.51</v>
       </c>
       <c r="DM60" t="n" s="10">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
       <c r="DN60" t="n" s="10">
-        <v>104.94</v>
+        <v>104.95</v>
       </c>
       <c r="DO60" t="n" s="10">
-        <v>105.3</v>
+        <v>105.31</v>
       </c>
       <c r="DP60" t="n" s="10">
-        <v>106.76</v>
+        <v>106.54</v>
       </c>
       <c r="DQ60" t="n" s="10">
-        <v>105.72</v>
+        <v>106.01</v>
       </c>
       <c r="DR60" t="n" s="10">
-        <v>107.94</v>
+        <v>107.96</v>
       </c>
       <c r="DS60" t="n" s="10">
-        <v>108.33</v>
+        <v>108.44</v>
       </c>
       <c r="DT60" t="n" s="10">
-        <v>109.61</v>
-      </c>
-      <c r="DU60" t="s" s="10">
-        <v>43</v>
+        <v>109.64</v>
+      </c>
+      <c r="DU60" t="n" s="10">
+        <v>110.53</v>
       </c>
       <c r="DV60" t="s" s="10">
         <v>43</v>
@@ -22956,7 +22956,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 09:50:19&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.12.21 / 09:53:36&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>